--- a/SimulationStudyData/Model2/SimCase9_Yobs_SimRun4.xlsx
+++ b/SimulationStudyData/Model2/SimCase9_Yobs_SimRun4.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-4.86349191634443</v>
+        <v>11.1543603577845</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.32209849638503</v>
+        <v>11.0901061387036</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.10926298058598</v>
+        <v>10.6898581757913</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.14479070368748</v>
+        <v>12.480520433643</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.04936360010066</v>
+        <v>11.9704020715143</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.67743782153165</v>
+        <v>13.2556186520652</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.670107830083847</v>
+        <v>13.0828650966657</v>
       </c>
       <c r="H2" t="n">
-        <v>1.15900398073596</v>
+        <v>12.4196507306872</v>
       </c>
       <c r="I2" t="n">
-        <v>4.08280561095216</v>
+        <v>11.9286053853238</v>
       </c>
       <c r="J2" t="n">
-        <v>6.65900186218032</v>
+        <v>12.0672295090181</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.04803356934289</v>
+        <v>-4.81086786322956</v>
       </c>
       <c r="B3" t="n">
-        <v>11.9664886483405</v>
+        <v>-5.47106866897666</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4397704360633</v>
+        <v>-5.32254893123174</v>
       </c>
       <c r="D3" t="n">
-        <v>12.7347293531906</v>
+        <v>-4.72061231902859</v>
       </c>
       <c r="E3" t="n">
-        <v>13.1931564677733</v>
+        <v>-3.54571262450776</v>
       </c>
       <c r="F3" t="n">
-        <v>11.5993928714198</v>
+        <v>-2.27943194212451</v>
       </c>
       <c r="G3" t="n">
-        <v>12.4380422827583</v>
+        <v>-1.34702137707272</v>
       </c>
       <c r="H3" t="n">
-        <v>11.8116958049813</v>
+        <v>1.60991499285825</v>
       </c>
       <c r="I3" t="n">
-        <v>11.642033633041</v>
+        <v>3.868824192642</v>
       </c>
       <c r="J3" t="n">
-        <v>10.8544169832832</v>
+        <v>6.53624121222338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.70278171077106</v>
+        <v>-5.05130461622314</v>
       </c>
       <c r="B4" t="n">
-        <v>11.3444044382387</v>
+        <v>-5.37960106945451</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2956607066278</v>
+        <v>-5.09389525679001</v>
       </c>
       <c r="D4" t="n">
-        <v>11.2957234659088</v>
+        <v>-5.0411907342245</v>
       </c>
       <c r="E4" t="n">
-        <v>11.0403059531181</v>
+        <v>-3.71370303852154</v>
       </c>
       <c r="F4" t="n">
-        <v>12.062142287021</v>
+        <v>-2.66116643553311</v>
       </c>
       <c r="G4" t="n">
-        <v>13.4949419541</v>
+        <v>-0.859109184190792</v>
       </c>
       <c r="H4" t="n">
-        <v>11.3111827910817</v>
+        <v>1.75716904657256</v>
       </c>
       <c r="I4" t="n">
-        <v>11.9720591023672</v>
+        <v>3.51721124090347</v>
       </c>
       <c r="J4" t="n">
-        <v>12.2383094738985</v>
+        <v>6.46117676238905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.71269820715145</v>
+        <v>-4.77316789373852</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2402891579428</v>
+        <v>-5.1890749061874</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3339560035531</v>
+        <v>-5.69553388659351</v>
       </c>
       <c r="D5" t="n">
-        <v>12.6131429793967</v>
+        <v>-4.92118161787411</v>
       </c>
       <c r="E5" t="n">
-        <v>13.1830165718912</v>
+        <v>-3.81568103215787</v>
       </c>
       <c r="F5" t="n">
-        <v>12.5496429102774</v>
+        <v>-2.42762437382538</v>
       </c>
       <c r="G5" t="n">
-        <v>13.2562215498597</v>
+        <v>-0.678725810071811</v>
       </c>
       <c r="H5" t="n">
-        <v>12.828501745392</v>
+        <v>1.41869576731559</v>
       </c>
       <c r="I5" t="n">
-        <v>11.0819549659557</v>
+        <v>4.02813518285426</v>
       </c>
       <c r="J5" t="n">
-        <v>10.864801749617</v>
+        <v>6.87397760236726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.0518517042515</v>
+        <v>-5.06414013748113</v>
       </c>
       <c r="B6" t="n">
-        <v>10.5364866586413</v>
+        <v>-5.49701183766028</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5614262151515</v>
+        <v>-5.78336984411823</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7403230093852</v>
+        <v>-4.72887962675201</v>
       </c>
       <c r="E6" t="n">
-        <v>12.8616802803336</v>
+        <v>-3.95520623748626</v>
       </c>
       <c r="F6" t="n">
-        <v>12.7657918299019</v>
+        <v>-2.9360600274072</v>
       </c>
       <c r="G6" t="n">
-        <v>11.4848120011767</v>
+        <v>-0.758076100518141</v>
       </c>
       <c r="H6" t="n">
-        <v>12.6351963637746</v>
+        <v>1.33068174673095</v>
       </c>
       <c r="I6" t="n">
-        <v>10.6941374676573</v>
+        <v>3.78904971873928</v>
       </c>
       <c r="J6" t="n">
-        <v>10.6220136671975</v>
+        <v>6.28676883726237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.57287531102852</v>
+        <v>9.63521992955091</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4638685924733</v>
+        <v>10.2183962374806</v>
       </c>
       <c r="C7" t="n">
-        <v>12.2667284947928</v>
+        <v>12.1006934593469</v>
       </c>
       <c r="D7" t="n">
-        <v>11.0463074343138</v>
+        <v>10.2604970161062</v>
       </c>
       <c r="E7" t="n">
-        <v>12.0018370979404</v>
+        <v>11.7685831732218</v>
       </c>
       <c r="F7" t="n">
-        <v>13.364046110139</v>
+        <v>11.7409394068344</v>
       </c>
       <c r="G7" t="n">
-        <v>13.1197364398322</v>
+        <v>12.4165146912397</v>
       </c>
       <c r="H7" t="n">
-        <v>11.4119281350591</v>
+        <v>12.9292032473418</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5433569140879</v>
+        <v>12.0335906517209</v>
       </c>
       <c r="J7" t="n">
-        <v>9.28882114831924</v>
+        <v>11.3756956326225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.612185179823</v>
+        <v>9.25831251584097</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0568110390382</v>
+        <v>11.9420052907412</v>
       </c>
       <c r="C8" t="n">
-        <v>11.4345741897556</v>
+        <v>11.9142834947632</v>
       </c>
       <c r="D8" t="n">
-        <v>10.9035327599622</v>
+        <v>12.7889614104684</v>
       </c>
       <c r="E8" t="n">
-        <v>12.0576707812678</v>
+        <v>12.1407119110152</v>
       </c>
       <c r="F8" t="n">
-        <v>12.901213615901</v>
+        <v>12.1189032361672</v>
       </c>
       <c r="G8" t="n">
-        <v>11.438807738056</v>
+        <v>12.4123958611145</v>
       </c>
       <c r="H8" t="n">
-        <v>12.8797011000831</v>
+        <v>12.0251947167296</v>
       </c>
       <c r="I8" t="n">
-        <v>12.9580985094934</v>
+        <v>11.2834791125247</v>
       </c>
       <c r="J8" t="n">
-        <v>11.0427536807524</v>
+        <v>11.8468538293927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.62183283243333</v>
+        <v>10.5639697978444</v>
       </c>
       <c r="B9" t="n">
-        <v>11.1924702377883</v>
+        <v>10.9101679765366</v>
       </c>
       <c r="C9" t="n">
-        <v>10.8323720665802</v>
+        <v>10.5339432809717</v>
       </c>
       <c r="D9" t="n">
-        <v>12.6290173703167</v>
+        <v>12.7564932728641</v>
       </c>
       <c r="E9" t="n">
-        <v>13.2587078146662</v>
+        <v>11.822052674964</v>
       </c>
       <c r="F9" t="n">
-        <v>11.9153017132479</v>
+        <v>12.608747371874</v>
       </c>
       <c r="G9" t="n">
-        <v>11.6915467539826</v>
+        <v>12.8616779191129</v>
       </c>
       <c r="H9" t="n">
-        <v>11.4319745867524</v>
+        <v>12.4008546924009</v>
       </c>
       <c r="I9" t="n">
-        <v>11.3280029112211</v>
+        <v>11.5163862638033</v>
       </c>
       <c r="J9" t="n">
-        <v>10.4244262691011</v>
+        <v>11.5444859192073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.3026041102514</v>
+        <v>10.6159293644568</v>
       </c>
       <c r="B10" t="n">
-        <v>11.3498455126713</v>
+        <v>10.6033690738684</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4982658694296</v>
+        <v>11.742803079084</v>
       </c>
       <c r="D10" t="n">
-        <v>12.8562803877359</v>
+        <v>11.5015862107249</v>
       </c>
       <c r="E10" t="n">
-        <v>12.1690949608423</v>
+        <v>12.1732107473449</v>
       </c>
       <c r="F10" t="n">
-        <v>11.7251385004487</v>
+        <v>12.9152087199634</v>
       </c>
       <c r="G10" t="n">
-        <v>12.9398032173492</v>
+        <v>12.6997734875325</v>
       </c>
       <c r="H10" t="n">
-        <v>11.1456571077212</v>
+        <v>12.5321437656192</v>
       </c>
       <c r="I10" t="n">
-        <v>12.6113969738465</v>
+        <v>11.2102363121154</v>
       </c>
       <c r="J10" t="n">
-        <v>13.0678954414193</v>
+        <v>10.0670743374354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.19624736355701</v>
+        <v>9.66453006095461</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.03394093848624</v>
+        <v>12.6272945620879</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.12159284637172</v>
+        <v>11.9329169078698</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.75240570810831</v>
+        <v>12.5154458399377</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.92220155732255</v>
+        <v>11.0827742350404</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.49071872222476</v>
+        <v>12.6035729439557</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.974837668531929</v>
+        <v>11.4898491859561</v>
       </c>
       <c r="H11" t="n">
-        <v>1.3741255798607</v>
+        <v>11.7919923411183</v>
       </c>
       <c r="I11" t="n">
-        <v>3.36596331412455</v>
+        <v>11.6644757180868</v>
       </c>
       <c r="J11" t="n">
-        <v>6.52314582875829</v>
+        <v>10.8044264491344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.8047860878529</v>
+        <v>9.55581104363638</v>
       </c>
       <c r="B12" t="n">
-        <v>10.6933636777729</v>
+        <v>11.3595687147967</v>
       </c>
       <c r="C12" t="n">
-        <v>10.9068204756283</v>
+        <v>11.0943182882634</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2913150338667</v>
+        <v>12.0893762170858</v>
       </c>
       <c r="E12" t="n">
-        <v>13.1867588074914</v>
+        <v>12.3530955299807</v>
       </c>
       <c r="F12" t="n">
-        <v>11.9562823354967</v>
+        <v>13.4438906556425</v>
       </c>
       <c r="G12" t="n">
-        <v>12.2130586992084</v>
+        <v>11.5822127540324</v>
       </c>
       <c r="H12" t="n">
-        <v>11.1206910370845</v>
+        <v>12.2033738093725</v>
       </c>
       <c r="I12" t="n">
-        <v>12.9602885647088</v>
+        <v>10.6903513411032</v>
       </c>
       <c r="J12" t="n">
-        <v>10.7735834759073</v>
+        <v>10.6842046042171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10.0293888845789</v>
+        <v>10.260455675095</v>
       </c>
       <c r="B13" t="n">
-        <v>9.21267729332917</v>
+        <v>9.64278018078475</v>
       </c>
       <c r="C13" t="n">
-        <v>11.2448282822327</v>
+        <v>11.1856748762882</v>
       </c>
       <c r="D13" t="n">
-        <v>12.8155307650116</v>
+        <v>12.2489451122147</v>
       </c>
       <c r="E13" t="n">
-        <v>12.5628390032124</v>
+        <v>12.9391190757509</v>
       </c>
       <c r="F13" t="n">
-        <v>12.0350013522398</v>
+        <v>11.9437160158456</v>
       </c>
       <c r="G13" t="n">
-        <v>14.0955965613122</v>
+        <v>12.8081550377518</v>
       </c>
       <c r="H13" t="n">
-        <v>12.5007892203998</v>
+        <v>10.4239089670309</v>
       </c>
       <c r="I13" t="n">
-        <v>12.6957796065783</v>
+        <v>11.4414943478562</v>
       </c>
       <c r="J13" t="n">
-        <v>12.1749746562023</v>
+        <v>12.0107976818693</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.64431853700149</v>
+        <v>10.5297889939768</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5176156414202</v>
+        <v>10.9169667693759</v>
       </c>
       <c r="C14" t="n">
-        <v>12.1389472274995</v>
+        <v>11.8077308322575</v>
       </c>
       <c r="D14" t="n">
-        <v>11.7351840478991</v>
+        <v>12.1962141242007</v>
       </c>
       <c r="E14" t="n">
-        <v>12.3052117983929</v>
+        <v>11.677015170278</v>
       </c>
       <c r="F14" t="n">
-        <v>12.331415349446</v>
+        <v>12.1481046156378</v>
       </c>
       <c r="G14" t="n">
-        <v>10.6341457180319</v>
+        <v>12.3735945650114</v>
       </c>
       <c r="H14" t="n">
-        <v>12.2727605339938</v>
+        <v>10.5811458634586</v>
       </c>
       <c r="I14" t="n">
-        <v>11.5524888095726</v>
+        <v>11.9155750313244</v>
       </c>
       <c r="J14" t="n">
-        <v>11.0619831494994</v>
+        <v>9.40555595438521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.4651985326667</v>
+        <v>-5.14430832087458</v>
       </c>
       <c r="B15" t="n">
-        <v>11.6446972715683</v>
+        <v>-4.89092707735388</v>
       </c>
       <c r="C15" t="n">
-        <v>11.3930123144819</v>
+        <v>-5.03172781807184</v>
       </c>
       <c r="D15" t="n">
-        <v>11.516709103868</v>
+        <v>-4.50433204125365</v>
       </c>
       <c r="E15" t="n">
-        <v>13.9633978419892</v>
+        <v>-3.941172897811</v>
       </c>
       <c r="F15" t="n">
-        <v>12.9386378959435</v>
+        <v>-2.06705357775073</v>
       </c>
       <c r="G15" t="n">
-        <v>13.1851767034084</v>
+        <v>-0.643898391665819</v>
       </c>
       <c r="H15" t="n">
-        <v>11.274247077911</v>
+        <v>1.40733720866273</v>
       </c>
       <c r="I15" t="n">
-        <v>11.5296106412065</v>
+        <v>3.72726352101155</v>
       </c>
       <c r="J15" t="n">
-        <v>10.0309122626915</v>
+        <v>7.05626667440154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.54169297775141</v>
+        <v>10.8291882082273</v>
       </c>
       <c r="B16" t="n">
-        <v>11.309872738947</v>
+        <v>10.6073346512013</v>
       </c>
       <c r="C16" t="n">
-        <v>12.9182446662838</v>
+        <v>11.5051365511928</v>
       </c>
       <c r="D16" t="n">
-        <v>11.8194076576638</v>
+        <v>12.1873017664721</v>
       </c>
       <c r="E16" t="n">
-        <v>12.238900313603</v>
+        <v>13.3634329038421</v>
       </c>
       <c r="F16" t="n">
-        <v>12.365243036023</v>
+        <v>12.4401762468778</v>
       </c>
       <c r="G16" t="n">
-        <v>12.2419019663143</v>
+        <v>11.4242485104171</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5734314387224</v>
+        <v>11.6320940466271</v>
       </c>
       <c r="I16" t="n">
-        <v>10.9727393999084</v>
+        <v>10.6573435164864</v>
       </c>
       <c r="J16" t="n">
-        <v>10.6233174953819</v>
+        <v>9.37518903180375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.51414890032907</v>
+        <v>-4.87062432269951</v>
       </c>
       <c r="B17" t="n">
-        <v>10.5639859430798</v>
+        <v>-5.34974751608249</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1623955579864</v>
+        <v>-5.35842160282895</v>
       </c>
       <c r="D17" t="n">
-        <v>12.9866306460805</v>
+        <v>-4.35032799747049</v>
       </c>
       <c r="E17" t="n">
-        <v>12.8754178141328</v>
+        <v>-3.86649175054498</v>
       </c>
       <c r="F17" t="n">
-        <v>12.1362367054484</v>
+        <v>-2.558654760716</v>
       </c>
       <c r="G17" t="n">
-        <v>12.1549953756068</v>
+        <v>-0.768678527588211</v>
       </c>
       <c r="H17" t="n">
-        <v>12.5737393412462</v>
+        <v>1.17387422097502</v>
       </c>
       <c r="I17" t="n">
-        <v>10.7768551659656</v>
+        <v>3.67880070438107</v>
       </c>
       <c r="J17" t="n">
-        <v>10.421884597867</v>
+        <v>6.49384099843026</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.01864532697526</v>
+        <v>10.2609682708124</v>
       </c>
       <c r="B18" t="n">
-        <v>10.6694590416508</v>
+        <v>11.9381583316882</v>
       </c>
       <c r="C18" t="n">
-        <v>11.6971834287968</v>
+        <v>11.5140135406533</v>
       </c>
       <c r="D18" t="n">
-        <v>11.0865635848344</v>
+        <v>10.7639811052666</v>
       </c>
       <c r="E18" t="n">
-        <v>12.0428655281987</v>
+        <v>11.6984370439332</v>
       </c>
       <c r="F18" t="n">
-        <v>12.6497112371278</v>
+        <v>12.5181273948386</v>
       </c>
       <c r="G18" t="n">
-        <v>13.851653730516</v>
+        <v>12.4074090204218</v>
       </c>
       <c r="H18" t="n">
-        <v>11.7327668395636</v>
+        <v>12.9611297664505</v>
       </c>
       <c r="I18" t="n">
-        <v>10.634235596431</v>
+        <v>11.8777860769286</v>
       </c>
       <c r="J18" t="n">
-        <v>10.5375999290702</v>
+        <v>11.4011306331316</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.08412686338365</v>
+        <v>-4.78514523756185</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.42501420052031</v>
+        <v>-5.46530174349726</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.67108089088134</v>
+        <v>-5.30502630741737</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.72415919636469</v>
+        <v>-4.59226349945693</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.13110951646005</v>
+        <v>-3.41220043909633</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.66572774183772</v>
+        <v>-2.93614776214739</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.655772774996343</v>
+        <v>-0.409908972657569</v>
       </c>
       <c r="H19" t="n">
-        <v>1.60595771767995</v>
+        <v>1.55751234980321</v>
       </c>
       <c r="I19" t="n">
-        <v>3.87896130054812</v>
+        <v>4.13439785004917</v>
       </c>
       <c r="J19" t="n">
-        <v>6.56598611961543</v>
+        <v>6.25811469026409</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.1926185460125</v>
+        <v>10.1241398308937</v>
       </c>
       <c r="B20" t="n">
-        <v>11.1256582218351</v>
+        <v>11.7644972023871</v>
       </c>
       <c r="C20" t="n">
-        <v>12.4372781834234</v>
+        <v>11.7139353355523</v>
       </c>
       <c r="D20" t="n">
-        <v>12.990984776312</v>
+        <v>11.8561411984379</v>
       </c>
       <c r="E20" t="n">
-        <v>10.2710349101276</v>
+        <v>11.8552937590504</v>
       </c>
       <c r="F20" t="n">
-        <v>12.4255418293991</v>
+        <v>12.4528561853251</v>
       </c>
       <c r="G20" t="n">
-        <v>11.0542443654536</v>
+        <v>13.6414171079174</v>
       </c>
       <c r="H20" t="n">
-        <v>12.5920511876504</v>
+        <v>13.8529201772407</v>
       </c>
       <c r="I20" t="n">
-        <v>11.247885979685</v>
+        <v>11.0047304683735</v>
       </c>
       <c r="J20" t="n">
-        <v>10.682485814355</v>
+        <v>11.4543759289019</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-5.39186839301513</v>
+        <v>9.75491011922591</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.26014578077987</v>
+        <v>11.3223127659332</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.16575341860439</v>
+        <v>11.9307783490743</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.40307175654161</v>
+        <v>11.8914960082497</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.75806999713198</v>
+        <v>12.3950520140784</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.10477394936044</v>
+        <v>13.3850947768059</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.28439777080855</v>
+        <v>10.4761491298555</v>
       </c>
       <c r="H21" t="n">
-        <v>1.31358193121364</v>
+        <v>11.3306222659025</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1929297576834</v>
+        <v>10.9424262294048</v>
       </c>
       <c r="J21" t="n">
-        <v>7.15693064997611</v>
+        <v>10.230789940759</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-5.13313498546351</v>
+        <v>9.45337955090571</v>
       </c>
       <c r="B22" t="n">
-        <v>-5.01481015086459</v>
+        <v>10.4580277450785</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.08364100896398</v>
+        <v>12.5050145753218</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.50782886406846</v>
+        <v>12.5237624272993</v>
       </c>
       <c r="E22" t="n">
-        <v>-3.78816183576188</v>
+        <v>14.3242002760499</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.3070376664558</v>
+        <v>11.5869097296802</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.780223851064149</v>
+        <v>13.0190276030839</v>
       </c>
       <c r="H22" t="n">
-        <v>1.25040381423839</v>
+        <v>12.2122355218201</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8166410064951</v>
+        <v>12.1517233304867</v>
       </c>
       <c r="J22" t="n">
-        <v>6.09206222390755</v>
+        <v>10.852879696729</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-5.30994169475037</v>
+        <v>11.1185227161379</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.21596411333982</v>
+        <v>9.69128698662513</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.39381515930978</v>
+        <v>12.0979200245899</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.86480879156922</v>
+        <v>11.5425828617851</v>
       </c>
       <c r="E23" t="n">
-        <v>-3.97218409868671</v>
+        <v>12.054504023239</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.84424172422394</v>
+        <v>11.729884959463</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.01129488040242</v>
+        <v>13.2127557952759</v>
       </c>
       <c r="H23" t="n">
-        <v>1.53869747434845</v>
+        <v>10.9324397753762</v>
       </c>
       <c r="I23" t="n">
-        <v>4.06030232336581</v>
+        <v>11.1888030828885</v>
       </c>
       <c r="J23" t="n">
-        <v>6.95118921028748</v>
+        <v>11.2475468798836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11.3585645595548</v>
+        <v>9.78749324808781</v>
       </c>
       <c r="B24" t="n">
-        <v>10.1634485527542</v>
+        <v>10.2225978434362</v>
       </c>
       <c r="C24" t="n">
-        <v>10.7610347911247</v>
+        <v>12.4237519791131</v>
       </c>
       <c r="D24" t="n">
-        <v>12.0587055956729</v>
+        <v>12.6727918368858</v>
       </c>
       <c r="E24" t="n">
-        <v>12.7882356981114</v>
+        <v>12.7516377505865</v>
       </c>
       <c r="F24" t="n">
-        <v>12.4292225361713</v>
+        <v>10.9016032929571</v>
       </c>
       <c r="G24" t="n">
-        <v>11.6550598122182</v>
+        <v>12.2387385613391</v>
       </c>
       <c r="H24" t="n">
-        <v>12.8244289090879</v>
+        <v>11.4080484536293</v>
       </c>
       <c r="I24" t="n">
-        <v>12.4310341423246</v>
+        <v>11.0915834377479</v>
       </c>
       <c r="J24" t="n">
-        <v>11.9353179039815</v>
+        <v>11.4792282711971</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11.0761239830785</v>
+        <v>9.0377882238913</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0138287119157</v>
+        <v>9.88169136331058</v>
       </c>
       <c r="C25" t="n">
-        <v>11.3687830456974</v>
+        <v>10.7243230493287</v>
       </c>
       <c r="D25" t="n">
-        <v>12.9849959898649</v>
+        <v>12.600503476789</v>
       </c>
       <c r="E25" t="n">
-        <v>12.4534505488051</v>
+        <v>12.6235190939503</v>
       </c>
       <c r="F25" t="n">
-        <v>12.9806790732568</v>
+        <v>12.3790087858332</v>
       </c>
       <c r="G25" t="n">
-        <v>12.378390831391</v>
+        <v>12.3395567816373</v>
       </c>
       <c r="H25" t="n">
-        <v>11.3030095114605</v>
+        <v>12.2636535330676</v>
       </c>
       <c r="I25" t="n">
-        <v>11.8724987472297</v>
+        <v>11.0645522935395</v>
       </c>
       <c r="J25" t="n">
-        <v>9.65934043863279</v>
+        <v>11.0040253711517</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.20992175416605</v>
+        <v>-5.23484612552083</v>
       </c>
       <c r="B26" t="n">
-        <v>10.1354498564077</v>
+        <v>-5.76572206394918</v>
       </c>
       <c r="C26" t="n">
-        <v>11.6504244263338</v>
+        <v>-5.18990455732621</v>
       </c>
       <c r="D26" t="n">
-        <v>10.7249729830592</v>
+        <v>-4.71150341503753</v>
       </c>
       <c r="E26" t="n">
-        <v>12.3128870132799</v>
+        <v>-3.74388004734595</v>
       </c>
       <c r="F26" t="n">
-        <v>13.1533180072698</v>
+        <v>-3.17911892540095</v>
       </c>
       <c r="G26" t="n">
-        <v>12.5492951611389</v>
+        <v>-1.13714438347762</v>
       </c>
       <c r="H26" t="n">
-        <v>13.0446305878397</v>
+        <v>1.63255147268951</v>
       </c>
       <c r="I26" t="n">
-        <v>11.5271738306104</v>
+        <v>3.6062777139696</v>
       </c>
       <c r="J26" t="n">
-        <v>11.886919905237</v>
+        <v>6.99727650315327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.72105919521888</v>
+        <v>10.5018337170378</v>
       </c>
       <c r="B27" t="n">
-        <v>10.5865214623195</v>
+        <v>10.8564359609999</v>
       </c>
       <c r="C27" t="n">
-        <v>12.5107165023097</v>
+        <v>12.5900648325244</v>
       </c>
       <c r="D27" t="n">
-        <v>12.2483238188527</v>
+        <v>12.2602233015248</v>
       </c>
       <c r="E27" t="n">
-        <v>12.2765187858081</v>
+        <v>11.8453093372009</v>
       </c>
       <c r="F27" t="n">
-        <v>13.3704680125468</v>
+        <v>12.8660461755923</v>
       </c>
       <c r="G27" t="n">
-        <v>10.0706437247697</v>
+        <v>13.0071473862358</v>
       </c>
       <c r="H27" t="n">
-        <v>12.7803794862089</v>
+        <v>11.0299677854103</v>
       </c>
       <c r="I27" t="n">
-        <v>11.4415975406893</v>
+        <v>11.9394606961685</v>
       </c>
       <c r="J27" t="n">
-        <v>10.9590073768221</v>
+        <v>11.7189596394622</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.16655696414562</v>
+        <v>10.4488778650552</v>
       </c>
       <c r="B28" t="n">
-        <v>11.1092219255144</v>
+        <v>9.57827552943741</v>
       </c>
       <c r="C28" t="n">
-        <v>11.1203486211824</v>
+        <v>11.7545264687136</v>
       </c>
       <c r="D28" t="n">
-        <v>13.2096146072242</v>
+        <v>10.8916210631826</v>
       </c>
       <c r="E28" t="n">
-        <v>11.9069176172403</v>
+        <v>11.7069121907467</v>
       </c>
       <c r="F28" t="n">
-        <v>13.112553343419</v>
+        <v>12.7903422244455</v>
       </c>
       <c r="G28" t="n">
-        <v>11.9205103540439</v>
+        <v>12.7799234676659</v>
       </c>
       <c r="H28" t="n">
-        <v>12.0557934710791</v>
+        <v>10.7746909562199</v>
       </c>
       <c r="I28" t="n">
-        <v>11.6459319712739</v>
+        <v>13.3646061851374</v>
       </c>
       <c r="J28" t="n">
-        <v>11.4392845573892</v>
+        <v>11.4513236915081</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11.1075487011514</v>
+        <v>9.95260732918004</v>
       </c>
       <c r="B29" t="n">
-        <v>11.5840014218827</v>
+        <v>11.3246624071193</v>
       </c>
       <c r="C29" t="n">
-        <v>11.1528335410782</v>
+        <v>11.2813214493485</v>
       </c>
       <c r="D29" t="n">
-        <v>12.0695101441029</v>
+        <v>11.8511924540887</v>
       </c>
       <c r="E29" t="n">
-        <v>12.2418751152787</v>
+        <v>13.5134919327363</v>
       </c>
       <c r="F29" t="n">
-        <v>11.8643837901442</v>
+        <v>13.7201381666464</v>
       </c>
       <c r="G29" t="n">
-        <v>12.5699900061421</v>
+        <v>13.0530828635331</v>
       </c>
       <c r="H29" t="n">
-        <v>11.6545643449068</v>
+        <v>12.365016052128</v>
       </c>
       <c r="I29" t="n">
-        <v>9.4191267404729</v>
+        <v>13.1177242159331</v>
       </c>
       <c r="J29" t="n">
-        <v>10.5673823909526</v>
+        <v>11.8698720877609</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.7010911397667</v>
+        <v>10.3481688601558</v>
       </c>
       <c r="B30" t="n">
-        <v>10.7553020160967</v>
+        <v>10.8561963589029</v>
       </c>
       <c r="C30" t="n">
-        <v>11.9417826555325</v>
+        <v>11.6094065112375</v>
       </c>
       <c r="D30" t="n">
-        <v>12.2076312108433</v>
+        <v>12.136074466044</v>
       </c>
       <c r="E30" t="n">
-        <v>11.3475537403989</v>
+        <v>13.132559484064</v>
       </c>
       <c r="F30" t="n">
-        <v>11.5030323556472</v>
+        <v>14.06170895139</v>
       </c>
       <c r="G30" t="n">
-        <v>12.7819911188055</v>
+        <v>12.2366939579803</v>
       </c>
       <c r="H30" t="n">
-        <v>11.9215949947938</v>
+        <v>13.3415690484363</v>
       </c>
       <c r="I30" t="n">
-        <v>11.7329626307135</v>
+        <v>11.0273165362374</v>
       </c>
       <c r="J30" t="n">
-        <v>12.0370477085539</v>
+        <v>9.38649380993257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.24092599786472</v>
+        <v>-5.36691903929507</v>
       </c>
       <c r="B31" t="n">
-        <v>11.0760175332951</v>
+        <v>-5.39397738602604</v>
       </c>
       <c r="C31" t="n">
-        <v>11.4905810686548</v>
+        <v>-5.19686428935744</v>
       </c>
       <c r="D31" t="n">
-        <v>12.3439737331116</v>
+        <v>-4.76442405826208</v>
       </c>
       <c r="E31" t="n">
-        <v>11.7545310022821</v>
+        <v>-3.84233410661831</v>
       </c>
       <c r="F31" t="n">
-        <v>12.8338354332554</v>
+        <v>-2.60810803334707</v>
       </c>
       <c r="G31" t="n">
-        <v>11.3885549850365</v>
+        <v>-0.80722666706211</v>
       </c>
       <c r="H31" t="n">
-        <v>12.0371479773332</v>
+        <v>1.10485540679721</v>
       </c>
       <c r="I31" t="n">
-        <v>12.376979052597</v>
+        <v>4.06612249739966</v>
       </c>
       <c r="J31" t="n">
-        <v>10.2391106157055</v>
+        <v>6.67186436207092</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.20370606447374</v>
+        <v>10.0801131271044</v>
       </c>
       <c r="B32" t="n">
-        <v>10.5370364952946</v>
+        <v>11.1999738909364</v>
       </c>
       <c r="C32" t="n">
-        <v>10.8796604095885</v>
+        <v>11.6175290916035</v>
       </c>
       <c r="D32" t="n">
-        <v>12.3939187350396</v>
+        <v>12.0373517722185</v>
       </c>
       <c r="E32" t="n">
-        <v>11.9155482694959</v>
+        <v>12.689835754457</v>
       </c>
       <c r="F32" t="n">
-        <v>11.4730597212636</v>
+        <v>11.6413815174323</v>
       </c>
       <c r="G32" t="n">
-        <v>12.7254740581806</v>
+        <v>11.7766529125892</v>
       </c>
       <c r="H32" t="n">
-        <v>11.2560384575076</v>
+        <v>12.5214092092952</v>
       </c>
       <c r="I32" t="n">
-        <v>11.6972571178588</v>
+        <v>10.110849415079</v>
       </c>
       <c r="J32" t="n">
-        <v>11.0181241965106</v>
+        <v>11.4308779577701</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.81656916237921</v>
+        <v>-5.21510702442927</v>
       </c>
       <c r="B33" t="n">
-        <v>10.6436606232453</v>
+        <v>-5.17403469357446</v>
       </c>
       <c r="C33" t="n">
-        <v>12.0315301737256</v>
+        <v>-4.78361587994529</v>
       </c>
       <c r="D33" t="n">
-        <v>11.3696263875923</v>
+        <v>-4.55906086948083</v>
       </c>
       <c r="E33" t="n">
-        <v>11.7927572521648</v>
+        <v>-3.60407160586802</v>
       </c>
       <c r="F33" t="n">
-        <v>12.3364354003443</v>
+        <v>-2.92652368430963</v>
       </c>
       <c r="G33" t="n">
-        <v>12.8169298726834</v>
+        <v>-0.841518504111279</v>
       </c>
       <c r="H33" t="n">
-        <v>13.3238019480177</v>
+        <v>1.01588577917602</v>
       </c>
       <c r="I33" t="n">
-        <v>11.0434428491633</v>
+        <v>4.10573602714406</v>
       </c>
       <c r="J33" t="n">
-        <v>11.6651479584684</v>
+        <v>6.67427295153672</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.48009688274185</v>
+        <v>8.84519508738391</v>
       </c>
       <c r="B34" t="n">
-        <v>11.6240579791881</v>
+        <v>10.156509349437</v>
       </c>
       <c r="C34" t="n">
-        <v>10.7249198272428</v>
+        <v>10.9336561469996</v>
       </c>
       <c r="D34" t="n">
-        <v>11.9487127226716</v>
+        <v>12.305148096034</v>
       </c>
       <c r="E34" t="n">
-        <v>12.0385522284408</v>
+        <v>13.6248690050979</v>
       </c>
       <c r="F34" t="n">
-        <v>11.7512016940797</v>
+        <v>13.4766480708115</v>
       </c>
       <c r="G34" t="n">
-        <v>13.0328950230723</v>
+        <v>13.584849371233</v>
       </c>
       <c r="H34" t="n">
-        <v>12.010716373908</v>
+        <v>12.7427257048387</v>
       </c>
       <c r="I34" t="n">
-        <v>10.9150499318931</v>
+        <v>12.0054033750159</v>
       </c>
       <c r="J34" t="n">
-        <v>10.1084271504138</v>
+        <v>10.6110244320802</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.49102028733016</v>
+        <v>8.33478548342876</v>
       </c>
       <c r="B35" t="n">
-        <v>10.9943679482214</v>
+        <v>10.803824280656</v>
       </c>
       <c r="C35" t="n">
-        <v>12.4387350341603</v>
+        <v>11.3633585838604</v>
       </c>
       <c r="D35" t="n">
-        <v>12.0363311179142</v>
+        <v>13.0465856861987</v>
       </c>
       <c r="E35" t="n">
-        <v>10.838906752586</v>
+        <v>11.6522784500662</v>
       </c>
       <c r="F35" t="n">
-        <v>12.7183680319036</v>
+        <v>12.9722776690334</v>
       </c>
       <c r="G35" t="n">
-        <v>12.9638177182831</v>
+        <v>12.1492692807374</v>
       </c>
       <c r="H35" t="n">
-        <v>12.1462271150865</v>
+        <v>11.6505895007826</v>
       </c>
       <c r="I35" t="n">
-        <v>12.0659206490009</v>
+        <v>11.4781289755185</v>
       </c>
       <c r="J35" t="n">
-        <v>10.9636257288354</v>
+        <v>11.2904409602682</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10.3824443103931</v>
+        <v>-5.03291590203673</v>
       </c>
       <c r="B36" t="n">
-        <v>10.1129306036254</v>
+        <v>-5.256946753803</v>
       </c>
       <c r="C36" t="n">
-        <v>12.4678224655156</v>
+        <v>-4.9826127270971</v>
       </c>
       <c r="D36" t="n">
-        <v>11.2570613730531</v>
+        <v>-4.61991759254222</v>
       </c>
       <c r="E36" t="n">
-        <v>12.2534509597232</v>
+        <v>-3.8808394731951</v>
       </c>
       <c r="F36" t="n">
-        <v>12.939502136582</v>
+        <v>-2.72517204624017</v>
       </c>
       <c r="G36" t="n">
-        <v>12.3240842181723</v>
+        <v>-0.796959202067678</v>
       </c>
       <c r="H36" t="n">
-        <v>12.6358344439656</v>
+        <v>1.0155913250797</v>
       </c>
       <c r="I36" t="n">
-        <v>10.834412531275</v>
+        <v>4.09535429170415</v>
       </c>
       <c r="J36" t="n">
-        <v>10.461374614844</v>
+        <v>6.59236848840962</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10.1489207812129</v>
+        <v>11.2259088456477</v>
       </c>
       <c r="B37" t="n">
-        <v>11.2861601646591</v>
+        <v>12.018168532954</v>
       </c>
       <c r="C37" t="n">
-        <v>11.6490761777832</v>
+        <v>11.5846665418763</v>
       </c>
       <c r="D37" t="n">
-        <v>11.9571734839569</v>
+        <v>12.6150956477702</v>
       </c>
       <c r="E37" t="n">
-        <v>13.3550498022725</v>
+        <v>12.7234852276739</v>
       </c>
       <c r="F37" t="n">
-        <v>12.4757876413731</v>
+        <v>12.1203205993344</v>
       </c>
       <c r="G37" t="n">
-        <v>12.9827808185212</v>
+        <v>12.7878831602785</v>
       </c>
       <c r="H37" t="n">
-        <v>11.6362724453811</v>
+        <v>11.6292217968498</v>
       </c>
       <c r="I37" t="n">
-        <v>12.7327832059751</v>
+        <v>12.5396697403124</v>
       </c>
       <c r="J37" t="n">
-        <v>10.6646035441858</v>
+        <v>11.4681944305346</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10.3265343882146</v>
+        <v>9.04405799115744</v>
       </c>
       <c r="B38" t="n">
-        <v>11.3515847648767</v>
+        <v>11.8388603000893</v>
       </c>
       <c r="C38" t="n">
-        <v>11.2655257533451</v>
+        <v>12.336164499404</v>
       </c>
       <c r="D38" t="n">
-        <v>12.731816417855</v>
+        <v>12.1885198342741</v>
       </c>
       <c r="E38" t="n">
-        <v>12.7041947208507</v>
+        <v>12.8222956902598</v>
       </c>
       <c r="F38" t="n">
-        <v>11.0003682385694</v>
+        <v>11.7128224277557</v>
       </c>
       <c r="G38" t="n">
-        <v>13.0444588774957</v>
+        <v>11.3841619236607</v>
       </c>
       <c r="H38" t="n">
-        <v>11.886827998675</v>
+        <v>12.687706235888</v>
       </c>
       <c r="I38" t="n">
-        <v>11.7710915678903</v>
+        <v>11.6452458940214</v>
       </c>
       <c r="J38" t="n">
-        <v>11.9802153154521</v>
+        <v>10.7329475173258</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.45647556218253</v>
+        <v>9.58381998817485</v>
       </c>
       <c r="B39" t="n">
-        <v>10.4590974367948</v>
+        <v>10.2323751452897</v>
       </c>
       <c r="C39" t="n">
-        <v>10.9393310154142</v>
+        <v>11.059333291583</v>
       </c>
       <c r="D39" t="n">
-        <v>11.51057868777</v>
+        <v>13.7399944670508</v>
       </c>
       <c r="E39" t="n">
-        <v>12.4223218956197</v>
+        <v>12.7574660345813</v>
       </c>
       <c r="F39" t="n">
-        <v>12.2830201181242</v>
+        <v>12.8049381806806</v>
       </c>
       <c r="G39" t="n">
-        <v>12.6174832522938</v>
+        <v>13.4041297488542</v>
       </c>
       <c r="H39" t="n">
-        <v>13.6332358174464</v>
+        <v>11.7354565129321</v>
       </c>
       <c r="I39" t="n">
-        <v>11.8862886302109</v>
+        <v>12.0024407676522</v>
       </c>
       <c r="J39" t="n">
-        <v>11.6897051509842</v>
+        <v>11.3918094134991</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10.1020757677039</v>
+        <v>-4.86133788511069</v>
       </c>
       <c r="B40" t="n">
-        <v>11.7783445072168</v>
+        <v>-5.18085727905128</v>
       </c>
       <c r="C40" t="n">
-        <v>11.6007993438921</v>
+        <v>-5.5264398597852</v>
       </c>
       <c r="D40" t="n">
-        <v>13.2177061836725</v>
+        <v>-4.73661709117192</v>
       </c>
       <c r="E40" t="n">
-        <v>12.4345326253144</v>
+        <v>-3.50601841536239</v>
       </c>
       <c r="F40" t="n">
-        <v>12.7713327751459</v>
+        <v>-2.17806441193518</v>
       </c>
       <c r="G40" t="n">
-        <v>10.7185846703279</v>
+        <v>-0.705650562091298</v>
       </c>
       <c r="H40" t="n">
-        <v>12.8375544523987</v>
+        <v>1.1386187873524</v>
       </c>
       <c r="I40" t="n">
-        <v>12.0608887569049</v>
+        <v>4.09412205261154</v>
       </c>
       <c r="J40" t="n">
-        <v>11.5571718557288</v>
+        <v>6.5218769996282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-4.5878632416721</v>
+        <v>-5.15001026496082</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.55329809593687</v>
+        <v>-5.11430929833147</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.16056648179249</v>
+        <v>-5.01229267715397</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.94596253125484</v>
+        <v>-4.74282796761721</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.21269558945788</v>
+        <v>-3.98790558737993</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.56356627167371</v>
+        <v>-2.45191925387122</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.401491139159972</v>
+        <v>-0.556423336018816</v>
       </c>
       <c r="H41" t="n">
-        <v>1.07430361337591</v>
+        <v>1.19356757500918</v>
       </c>
       <c r="I41" t="n">
-        <v>3.80452403604225</v>
+        <v>3.51643071791436</v>
       </c>
       <c r="J41" t="n">
-        <v>6.69015991989355</v>
+        <v>6.67032842646686</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11.3032506057542</v>
+        <v>10.036392031272</v>
       </c>
       <c r="B42" t="n">
-        <v>10.6114034445831</v>
+        <v>11.5524425220725</v>
       </c>
       <c r="C42" t="n">
-        <v>12.3783422188712</v>
+        <v>12.3629828088774</v>
       </c>
       <c r="D42" t="n">
-        <v>12.4105849249959</v>
+        <v>12.2374011554893</v>
       </c>
       <c r="E42" t="n">
-        <v>12.2362073931489</v>
+        <v>12.4612545713151</v>
       </c>
       <c r="F42" t="n">
-        <v>12.3982609719871</v>
+        <v>13.3613576301983</v>
       </c>
       <c r="G42" t="n">
-        <v>13.9041743882191</v>
+        <v>12.6451664844899</v>
       </c>
       <c r="H42" t="n">
-        <v>12.9623898685916</v>
+        <v>12.131096910252</v>
       </c>
       <c r="I42" t="n">
-        <v>12.4983958659971</v>
+        <v>11.1853385800447</v>
       </c>
       <c r="J42" t="n">
-        <v>11.6750201279846</v>
+        <v>10.269537043643</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9.88937539071026</v>
+        <v>9.01688567025631</v>
       </c>
       <c r="B43" t="n">
-        <v>10.6459023697604</v>
+        <v>11.3514558332819</v>
       </c>
       <c r="C43" t="n">
-        <v>11.8516383816573</v>
+        <v>11.0827061339881</v>
       </c>
       <c r="D43" t="n">
-        <v>12.7464909040651</v>
+        <v>12.1730092026767</v>
       </c>
       <c r="E43" t="n">
-        <v>11.3838095196029</v>
+        <v>12.7120488564947</v>
       </c>
       <c r="F43" t="n">
-        <v>13.2499705642066</v>
+        <v>12.0910229023102</v>
       </c>
       <c r="G43" t="n">
-        <v>11.7435422867626</v>
+        <v>10.8176834342771</v>
       </c>
       <c r="H43" t="n">
-        <v>13.0393190250034</v>
+        <v>12.8184901172786</v>
       </c>
       <c r="I43" t="n">
-        <v>10.9655553444112</v>
+        <v>11.7607766295057</v>
       </c>
       <c r="J43" t="n">
-        <v>10.8344755223743</v>
+        <v>9.99160925034275</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-5.0245615465437</v>
+        <v>-5.40752137246088</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.15724394461798</v>
+        <v>-4.98185803487479</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.25072090144822</v>
+        <v>-4.99503328653846</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.78908053205731</v>
+        <v>-4.25721280532619</v>
       </c>
       <c r="E44" t="n">
-        <v>-3.77980907634075</v>
+        <v>-3.89005101009867</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.80502668623709</v>
+        <v>-2.76144815742914</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.26453070879677</v>
+        <v>-0.521726523532391</v>
       </c>
       <c r="H44" t="n">
-        <v>1.78399560639957</v>
+        <v>1.0543042264639</v>
       </c>
       <c r="I44" t="n">
-        <v>3.94962894687226</v>
+        <v>3.52935643907487</v>
       </c>
       <c r="J44" t="n">
-        <v>6.53491700920946</v>
+        <v>6.61161597563844</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-4.99941743241677</v>
+        <v>10.6773444117161</v>
       </c>
       <c r="B45" t="n">
-        <v>-5.78195265467317</v>
+        <v>11.1810134876689</v>
       </c>
       <c r="C45" t="n">
-        <v>-5.21765351236424</v>
+        <v>11.41944207431</v>
       </c>
       <c r="D45" t="n">
-        <v>-5.09317683979935</v>
+        <v>13.0322912092337</v>
       </c>
       <c r="E45" t="n">
-        <v>-3.85295876332384</v>
+        <v>12.6517141786317</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.66727750162118</v>
+        <v>12.5328708292616</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.824703491016658</v>
+        <v>12.4571980150357</v>
       </c>
       <c r="H45" t="n">
-        <v>0.782153211279324</v>
+        <v>13.2650906807669</v>
       </c>
       <c r="I45" t="n">
-        <v>3.93752314840589</v>
+        <v>10.7950828563751</v>
       </c>
       <c r="J45" t="n">
-        <v>6.26183567962778</v>
+        <v>11.2360340156838</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.63441975539922</v>
+        <v>9.23846078765554</v>
       </c>
       <c r="B46" t="n">
-        <v>10.6317207708326</v>
+        <v>10.3551400803004</v>
       </c>
       <c r="C46" t="n">
-        <v>12.2756328134945</v>
+        <v>10.9348582747712</v>
       </c>
       <c r="D46" t="n">
-        <v>12.3809816118792</v>
+        <v>11.8278418253827</v>
       </c>
       <c r="E46" t="n">
-        <v>13.6520261206579</v>
+        <v>12.6473731081094</v>
       </c>
       <c r="F46" t="n">
-        <v>11.9620936473231</v>
+        <v>12.938935544815</v>
       </c>
       <c r="G46" t="n">
-        <v>13.1593551636453</v>
+        <v>12.4851917769489</v>
       </c>
       <c r="H46" t="n">
-        <v>12.4493248705533</v>
+        <v>12.0867134453276</v>
       </c>
       <c r="I46" t="n">
-        <v>10.9167756270387</v>
+        <v>12.3845329003651</v>
       </c>
       <c r="J46" t="n">
-        <v>10.2462098829611</v>
+        <v>10.2011189539714</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-5.25220085086532</v>
+        <v>9.52326077446508</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.02979414156254</v>
+        <v>10.4179764045111</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.45114164178446</v>
+        <v>11.0355808041004</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.30800462746874</v>
+        <v>11.7960742151638</v>
       </c>
       <c r="E47" t="n">
-        <v>-3.34359645643881</v>
+        <v>12.266346025691</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.98147311211489</v>
+        <v>13.0156694754885</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.801704927402407</v>
+        <v>12.1549386051295</v>
       </c>
       <c r="H47" t="n">
-        <v>1.59837204722528</v>
+        <v>11.890243524501</v>
       </c>
       <c r="I47" t="n">
-        <v>3.79580080310921</v>
+        <v>11.6924450092342</v>
       </c>
       <c r="J47" t="n">
-        <v>6.33686834920994</v>
+        <v>11.2418268312389</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9.54400433873567</v>
+        <v>-4.86801720423857</v>
       </c>
       <c r="B48" t="n">
-        <v>8.97209673478042</v>
+        <v>-5.42499936313884</v>
       </c>
       <c r="C48" t="n">
-        <v>10.8295624074525</v>
+        <v>-5.65144833759374</v>
       </c>
       <c r="D48" t="n">
-        <v>11.459994151986</v>
+        <v>-3.96484029193122</v>
       </c>
       <c r="E48" t="n">
-        <v>12.4343264951797</v>
+        <v>-3.78285470253025</v>
       </c>
       <c r="F48" t="n">
-        <v>11.4926051612561</v>
+        <v>-2.34463035578105</v>
       </c>
       <c r="G48" t="n">
-        <v>12.6706077346678</v>
+        <v>-0.963414677021139</v>
       </c>
       <c r="H48" t="n">
-        <v>12.2319732020307</v>
+        <v>1.22792701244459</v>
       </c>
       <c r="I48" t="n">
-        <v>10.8373628788851</v>
+        <v>3.62559341781108</v>
       </c>
       <c r="J48" t="n">
-        <v>11.5841208337563</v>
+        <v>6.69831920511887</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10.1404532649285</v>
+        <v>11.6268537308117</v>
       </c>
       <c r="B49" t="n">
-        <v>10.5137703687924</v>
+        <v>10.2061380941846</v>
       </c>
       <c r="C49" t="n">
-        <v>10.4312402982648</v>
+        <v>11.8692693075912</v>
       </c>
       <c r="D49" t="n">
-        <v>12.7191059325351</v>
+        <v>13.3192214489698</v>
       </c>
       <c r="E49" t="n">
-        <v>12.4765327210372</v>
+        <v>11.5620094225146</v>
       </c>
       <c r="F49" t="n">
-        <v>12.024687240906</v>
+        <v>13.4145846832015</v>
       </c>
       <c r="G49" t="n">
-        <v>11.7080438552704</v>
+        <v>12.5174113908499</v>
       </c>
       <c r="H49" t="n">
-        <v>10.4438804666611</v>
+        <v>11.9419670016206</v>
       </c>
       <c r="I49" t="n">
-        <v>11.2511431555249</v>
+        <v>11.4111065870345</v>
       </c>
       <c r="J49" t="n">
-        <v>10.6473512396801</v>
+        <v>11.7251695122674</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.8983890291846</v>
+        <v>-4.56112911867446</v>
       </c>
       <c r="B50" t="n">
-        <v>10.5820330462496</v>
+        <v>-5.47144332454389</v>
       </c>
       <c r="C50" t="n">
-        <v>11.5065408136314</v>
+        <v>-5.29566455996391</v>
       </c>
       <c r="D50" t="n">
-        <v>12.8515254378084</v>
+        <v>-4.37303487474992</v>
       </c>
       <c r="E50" t="n">
-        <v>12.323592303727</v>
+        <v>-3.89705429308514</v>
       </c>
       <c r="F50" t="n">
-        <v>11.3469562821643</v>
+        <v>-2.18851053493375</v>
       </c>
       <c r="G50" t="n">
-        <v>12.6453950116229</v>
+        <v>-0.594435683831582</v>
       </c>
       <c r="H50" t="n">
-        <v>13.7047935642925</v>
+        <v>1.13443585233045</v>
       </c>
       <c r="I50" t="n">
-        <v>10.6183525534235</v>
+        <v>3.85335602906955</v>
       </c>
       <c r="J50" t="n">
-        <v>10.6657859896012</v>
+        <v>6.83054618156547</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.2136513328037</v>
+        <v>9.91225615333523</v>
       </c>
       <c r="B51" t="n">
-        <v>8.53988467977064</v>
+        <v>9.89297547701567</v>
       </c>
       <c r="C51" t="n">
-        <v>11.1865085040723</v>
+        <v>11.5844161331999</v>
       </c>
       <c r="D51" t="n">
-        <v>13.4601233140151</v>
+        <v>13.1269574190826</v>
       </c>
       <c r="E51" t="n">
-        <v>11.7129238944003</v>
+        <v>12.8795301900653</v>
       </c>
       <c r="F51" t="n">
-        <v>13.3802201514602</v>
+        <v>12.6654402555125</v>
       </c>
       <c r="G51" t="n">
-        <v>12.8892667731666</v>
+        <v>11.7970567353611</v>
       </c>
       <c r="H51" t="n">
-        <v>11.9862975653899</v>
+        <v>13.2163223516461</v>
       </c>
       <c r="I51" t="n">
-        <v>11.7665090198898</v>
+        <v>11.9955532748774</v>
       </c>
       <c r="J51" t="n">
-        <v>10.5603765418033</v>
+        <v>10.7875594769894</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.83542914041934</v>
+        <v>-5.20734042415743</v>
       </c>
       <c r="B52" t="n">
-        <v>10.6206813822708</v>
+        <v>-5.04861369497622</v>
       </c>
       <c r="C52" t="n">
-        <v>11.7020795864431</v>
+        <v>-5.1630942318355</v>
       </c>
       <c r="D52" t="n">
-        <v>13.2714461077504</v>
+        <v>-4.77621913825874</v>
       </c>
       <c r="E52" t="n">
-        <v>11.1815134680063</v>
+        <v>-4.01372730761185</v>
       </c>
       <c r="F52" t="n">
-        <v>12.8265888547323</v>
+        <v>-2.76317528969331</v>
       </c>
       <c r="G52" t="n">
-        <v>13.1540107679895</v>
+        <v>-0.777047405377696</v>
       </c>
       <c r="H52" t="n">
-        <v>13.1237548294764</v>
+        <v>1.17574947175901</v>
       </c>
       <c r="I52" t="n">
-        <v>10.9836887788813</v>
+        <v>3.17033400900945</v>
       </c>
       <c r="J52" t="n">
-        <v>9.86473209791188</v>
+        <v>6.7198821687381</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10.1200244881177</v>
+        <v>11.0898104051315</v>
       </c>
       <c r="B53" t="n">
-        <v>10.218296826614</v>
+        <v>10.4587865890506</v>
       </c>
       <c r="C53" t="n">
-        <v>11.2817325350287</v>
+        <v>11.3168581047542</v>
       </c>
       <c r="D53" t="n">
-        <v>12.0763572886897</v>
+        <v>13.4308608631666</v>
       </c>
       <c r="E53" t="n">
-        <v>12.1520658444136</v>
+        <v>12.6948019116541</v>
       </c>
       <c r="F53" t="n">
-        <v>12.7736693887323</v>
+        <v>11.7155425799464</v>
       </c>
       <c r="G53" t="n">
-        <v>13.1699617880698</v>
+        <v>12.1377825167374</v>
       </c>
       <c r="H53" t="n">
-        <v>11.4911244446965</v>
+        <v>12.6537708128909</v>
       </c>
       <c r="I53" t="n">
-        <v>11.5117147652153</v>
+        <v>11.8694304425626</v>
       </c>
       <c r="J53" t="n">
-        <v>10.4976708073811</v>
+        <v>9.46978842128388</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-5.03777897676537</v>
+        <v>11.6937814852493</v>
       </c>
       <c r="B54" t="n">
-        <v>-5.64910378134305</v>
+        <v>10.6352300391624</v>
       </c>
       <c r="C54" t="n">
-        <v>-5.46260214554055</v>
+        <v>10.5678904123415</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.58270510624668</v>
+        <v>12.5161542134001</v>
       </c>
       <c r="E54" t="n">
-        <v>-3.94354760155831</v>
+        <v>12.5425157061131</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.39251456189345</v>
+        <v>12.1358057159572</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.537498445937799</v>
+        <v>12.345652080255</v>
       </c>
       <c r="H54" t="n">
-        <v>1.37929792370655</v>
+        <v>11.6780201621847</v>
       </c>
       <c r="I54" t="n">
-        <v>4.06663213447134</v>
+        <v>10.9022276327203</v>
       </c>
       <c r="J54" t="n">
-        <v>6.54842928162615</v>
+        <v>11.5023991835365</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-5.09099421345491</v>
+        <v>10.6228469827038</v>
       </c>
       <c r="B55" t="n">
-        <v>-5.49009655834872</v>
+        <v>10.4666232452167</v>
       </c>
       <c r="C55" t="n">
-        <v>-4.87679103098827</v>
+        <v>12.4026844378809</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.91518475787516</v>
+        <v>10.7275293636179</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.93562781934072</v>
+        <v>11.8423805253195</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.63194332219225</v>
+        <v>12.4960776862625</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.385008702688772</v>
+        <v>13.7130811969776</v>
       </c>
       <c r="H55" t="n">
-        <v>1.34845752063461</v>
+        <v>13.5272402440172</v>
       </c>
       <c r="I55" t="n">
-        <v>3.90441078133292</v>
+        <v>12.0173083583657</v>
       </c>
       <c r="J55" t="n">
-        <v>6.5720043976243</v>
+        <v>11.5003155725785</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.8368976811106</v>
+        <v>-4.74809877391195</v>
       </c>
       <c r="B56" t="n">
-        <v>11.5652514349941</v>
+        <v>-5.58996340530781</v>
       </c>
       <c r="C56" t="n">
-        <v>11.3098579495185</v>
+        <v>-5.44158914359056</v>
       </c>
       <c r="D56" t="n">
-        <v>11.4185698871894</v>
+        <v>-4.66583396464915</v>
       </c>
       <c r="E56" t="n">
-        <v>12.6950713984796</v>
+        <v>-3.68666032361915</v>
       </c>
       <c r="F56" t="n">
-        <v>11.9936818557287</v>
+        <v>-2.07832896287706</v>
       </c>
       <c r="G56" t="n">
-        <v>13.7042300434698</v>
+        <v>-0.714378277450051</v>
       </c>
       <c r="H56" t="n">
-        <v>10.9371695388293</v>
+        <v>1.15055519384433</v>
       </c>
       <c r="I56" t="n">
-        <v>11.4369320955321</v>
+        <v>4.02064186232764</v>
       </c>
       <c r="J56" t="n">
-        <v>10.6180802406744</v>
+        <v>6.46722951840203</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-4.84788025214903</v>
+        <v>-5.03832392036797</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.11167912697492</v>
+        <v>-5.10304859632381</v>
       </c>
       <c r="C57" t="n">
-        <v>-5.62000347825176</v>
+        <v>-5.78583352008188</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.49060812241928</v>
+        <v>-4.43196080411637</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.45647750135315</v>
+        <v>-3.61409900401155</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.95313476207942</v>
+        <v>-1.96317627963559</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.635573735669382</v>
+        <v>-0.927514096696007</v>
       </c>
       <c r="H57" t="n">
-        <v>1.50056307770021</v>
+        <v>1.5980090890881</v>
       </c>
       <c r="I57" t="n">
-        <v>4.15235341383769</v>
+        <v>3.76810676587643</v>
       </c>
       <c r="J57" t="n">
-        <v>6.60657847604097</v>
+        <v>7.06321481992608</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.9221018234179</v>
+        <v>10.1581054625592</v>
       </c>
       <c r="B58" t="n">
-        <v>10.7513204330181</v>
+        <v>10.7204291059026</v>
       </c>
       <c r="C58" t="n">
-        <v>11.1107669319545</v>
+        <v>11.9175522582704</v>
       </c>
       <c r="D58" t="n">
-        <v>11.2883047743774</v>
+        <v>10.2886082385385</v>
       </c>
       <c r="E58" t="n">
-        <v>12.5433231579796</v>
+        <v>12.759059111027</v>
       </c>
       <c r="F58" t="n">
-        <v>12.4810926806731</v>
+        <v>13.3922437022751</v>
       </c>
       <c r="G58" t="n">
-        <v>12.7307101571141</v>
+        <v>12.4438145723772</v>
       </c>
       <c r="H58" t="n">
-        <v>12.5105034493737</v>
+        <v>11.751295536886</v>
       </c>
       <c r="I58" t="n">
-        <v>11.7243447683153</v>
+        <v>10.8727289770325</v>
       </c>
       <c r="J58" t="n">
-        <v>10.9340436198951</v>
+        <v>10.3543397245026</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10.1970213748914</v>
+        <v>-4.67440264904845</v>
       </c>
       <c r="B59" t="n">
-        <v>10.4795948767403</v>
+        <v>-5.16310072366785</v>
       </c>
       <c r="C59" t="n">
-        <v>12.0981288428806</v>
+        <v>-5.48357494886127</v>
       </c>
       <c r="D59" t="n">
-        <v>11.4475679181688</v>
+        <v>-4.65795200447863</v>
       </c>
       <c r="E59" t="n">
-        <v>13.991571140391</v>
+        <v>-3.98712869747401</v>
       </c>
       <c r="F59" t="n">
-        <v>12.2206345404869</v>
+        <v>-2.43228647559215</v>
       </c>
       <c r="G59" t="n">
-        <v>10.8365592013753</v>
+        <v>-0.527115884751749</v>
       </c>
       <c r="H59" t="n">
-        <v>12.4943874449596</v>
+        <v>1.60533746670283</v>
       </c>
       <c r="I59" t="n">
-        <v>9.8818628302359</v>
+        <v>3.33360971141332</v>
       </c>
       <c r="J59" t="n">
-        <v>10.2384949005548</v>
+        <v>6.67825269947135</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.87742719186277</v>
+        <v>9.38924649382418</v>
       </c>
       <c r="B60" t="n">
-        <v>10.5605925439992</v>
+        <v>11.5037834901027</v>
       </c>
       <c r="C60" t="n">
-        <v>11.0598650295677</v>
+        <v>11.3976115409126</v>
       </c>
       <c r="D60" t="n">
-        <v>12.1953367059804</v>
+        <v>12.1826558371581</v>
       </c>
       <c r="E60" t="n">
-        <v>12.2888151463034</v>
+        <v>12.3771555519189</v>
       </c>
       <c r="F60" t="n">
-        <v>11.6278688943305</v>
+        <v>12.3165085621169</v>
       </c>
       <c r="G60" t="n">
-        <v>13.9533275901771</v>
+        <v>13.4093762406434</v>
       </c>
       <c r="H60" t="n">
-        <v>12.1269442032912</v>
+        <v>13.7703473123996</v>
       </c>
       <c r="I60" t="n">
-        <v>10.2592456331041</v>
+        <v>11.7549879940599</v>
       </c>
       <c r="J60" t="n">
-        <v>11.3944033639019</v>
+        <v>11.5183101246233</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-4.49990737881</v>
+        <v>9.86127976304809</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.21563313375359</v>
+        <v>12.0385722415001</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.36371111215344</v>
+        <v>11.1211354364603</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.86129047902946</v>
+        <v>11.1225657472911</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.60356360129362</v>
+        <v>11.7476807306968</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.63355587752634</v>
+        <v>13.5193334217196</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.576735971575654</v>
+        <v>11.348233633658</v>
       </c>
       <c r="H61" t="n">
-        <v>1.36734690829137</v>
+        <v>12.2186924765817</v>
       </c>
       <c r="I61" t="n">
-        <v>3.51188611813418</v>
+        <v>10.4529529761856</v>
       </c>
       <c r="J61" t="n">
-        <v>6.65968812957996</v>
+        <v>11.2306634783914</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.8841895752529</v>
+        <v>-5.01893867380764</v>
       </c>
       <c r="B62" t="n">
-        <v>11.0763046514026</v>
+        <v>-5.4508058783736</v>
       </c>
       <c r="C62" t="n">
-        <v>11.000478149942</v>
+        <v>-4.99188882025571</v>
       </c>
       <c r="D62" t="n">
-        <v>11.8107803269765</v>
+        <v>-4.86622191860692</v>
       </c>
       <c r="E62" t="n">
-        <v>12.4822875356637</v>
+        <v>-3.76314168395568</v>
       </c>
       <c r="F62" t="n">
-        <v>12.1404966544945</v>
+        <v>-2.85776740168441</v>
       </c>
       <c r="G62" t="n">
-        <v>12.0117521655376</v>
+        <v>-0.987236133762644</v>
       </c>
       <c r="H62" t="n">
-        <v>12.6587968269728</v>
+        <v>1.63279972161499</v>
       </c>
       <c r="I62" t="n">
-        <v>12.4069526353308</v>
+        <v>3.93366301194186</v>
       </c>
       <c r="J62" t="n">
-        <v>12.268032083449</v>
+        <v>6.72459582448289</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.91938807916226</v>
+        <v>10.1463964512942</v>
       </c>
       <c r="B63" t="n">
-        <v>10.7268217883699</v>
+        <v>10.5293337912047</v>
       </c>
       <c r="C63" t="n">
-        <v>12.0320336913628</v>
+        <v>11.6231226242079</v>
       </c>
       <c r="D63" t="n">
-        <v>12.307335132272</v>
+        <v>11.5576635471658</v>
       </c>
       <c r="E63" t="n">
-        <v>12.8654403790771</v>
+        <v>12.8488602931718</v>
       </c>
       <c r="F63" t="n">
-        <v>12.6485875214115</v>
+        <v>11.822499258137</v>
       </c>
       <c r="G63" t="n">
-        <v>11.7945077777908</v>
+        <v>11.9288660977693</v>
       </c>
       <c r="H63" t="n">
-        <v>11.8669986798629</v>
+        <v>11.5468295510893</v>
       </c>
       <c r="I63" t="n">
-        <v>11.5126600182106</v>
+        <v>12.3136949363155</v>
       </c>
       <c r="J63" t="n">
-        <v>11.5296441106086</v>
+        <v>11.142168634017</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10.1135631145337</v>
+        <v>10.4336904763903</v>
       </c>
       <c r="B64" t="n">
-        <v>12.3757916065459</v>
+        <v>10.5240329518564</v>
       </c>
       <c r="C64" t="n">
-        <v>11.7184766080477</v>
+        <v>12.7715161986729</v>
       </c>
       <c r="D64" t="n">
-        <v>11.4727490649906</v>
+        <v>13.0181521981993</v>
       </c>
       <c r="E64" t="n">
-        <v>12.2203901303765</v>
+        <v>12.5308759661476</v>
       </c>
       <c r="F64" t="n">
-        <v>11.9515940793231</v>
+        <v>13.0654949578681</v>
       </c>
       <c r="G64" t="n">
-        <v>11.952376002685</v>
+        <v>12.6281791502556</v>
       </c>
       <c r="H64" t="n">
-        <v>12.9159373045346</v>
+        <v>12.2371444104072</v>
       </c>
       <c r="I64" t="n">
-        <v>12.0645189542142</v>
+        <v>12.739788162689</v>
       </c>
       <c r="J64" t="n">
-        <v>10.5982928972585</v>
+        <v>11.2363539921185</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.3468538764993</v>
+        <v>10.3714505429795</v>
       </c>
       <c r="B65" t="n">
-        <v>12.1611097190758</v>
+        <v>10.3168553501475</v>
       </c>
       <c r="C65" t="n">
-        <v>12.1261976363973</v>
+        <v>12.2159146826519</v>
       </c>
       <c r="D65" t="n">
-        <v>13.2840833991462</v>
+        <v>11.8961722556632</v>
       </c>
       <c r="E65" t="n">
-        <v>12.9293533480502</v>
+        <v>12.1508195701174</v>
       </c>
       <c r="F65" t="n">
-        <v>12.4584457084852</v>
+        <v>11.8058928640426</v>
       </c>
       <c r="G65" t="n">
-        <v>11.5148961149141</v>
+        <v>12.036077341066</v>
       </c>
       <c r="H65" t="n">
-        <v>13.0822866336697</v>
+        <v>11.4425427349187</v>
       </c>
       <c r="I65" t="n">
-        <v>11.0283739637296</v>
+        <v>11.2548637825886</v>
       </c>
       <c r="J65" t="n">
-        <v>11.8243856185498</v>
+        <v>11.4940185970636</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-4.99772440730512</v>
+        <v>11.2247632125807</v>
       </c>
       <c r="B66" t="n">
-        <v>-5.40725182594869</v>
+        <v>10.9359221144761</v>
       </c>
       <c r="C66" t="n">
-        <v>-4.5304863031698</v>
+        <v>12.4973604979192</v>
       </c>
       <c r="D66" t="n">
-        <v>-4.84116765128504</v>
+        <v>12.5510030466095</v>
       </c>
       <c r="E66" t="n">
-        <v>-3.63648397005259</v>
+        <v>10.834384339342</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.71244652928589</v>
+        <v>13.206209960643</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.638815378091794</v>
+        <v>13.0901500710112</v>
       </c>
       <c r="H66" t="n">
-        <v>1.50443027426894</v>
+        <v>11.5311771326241</v>
       </c>
       <c r="I66" t="n">
-        <v>4.48081453635135</v>
+        <v>11.9369598198845</v>
       </c>
       <c r="J66" t="n">
-        <v>6.50319569825832</v>
+        <v>10.4182142478854</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10.1700307358935</v>
+        <v>-4.87844142571456</v>
       </c>
       <c r="B67" t="n">
-        <v>11.7113075274316</v>
+        <v>-4.99442557839974</v>
       </c>
       <c r="C67" t="n">
-        <v>12.6597595909526</v>
+        <v>-4.92456982025328</v>
       </c>
       <c r="D67" t="n">
-        <v>12.3282700402291</v>
+        <v>-4.8001425162294</v>
       </c>
       <c r="E67" t="n">
-        <v>12.4284014561268</v>
+        <v>-4.18218669368329</v>
       </c>
       <c r="F67" t="n">
-        <v>13.2217740301015</v>
+        <v>-2.34632471150628</v>
       </c>
       <c r="G67" t="n">
-        <v>11.7220239922014</v>
+        <v>-1.34916979339687</v>
       </c>
       <c r="H67" t="n">
-        <v>12.9405430287791</v>
+        <v>1.4972589403351</v>
       </c>
       <c r="I67" t="n">
-        <v>11.414730315499</v>
+        <v>3.85857267192516</v>
       </c>
       <c r="J67" t="n">
-        <v>10.9235398916547</v>
+        <v>6.73356230011066</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.79868545648384</v>
+        <v>9.22202979606407</v>
       </c>
       <c r="B68" t="n">
-        <v>10.5369391432186</v>
+        <v>10.7980734997255</v>
       </c>
       <c r="C68" t="n">
-        <v>11.7341436364754</v>
+        <v>12.2603767000864</v>
       </c>
       <c r="D68" t="n">
-        <v>12.4530667967842</v>
+        <v>12.6618786805859</v>
       </c>
       <c r="E68" t="n">
-        <v>13.3089414748083</v>
+        <v>11.3482581426828</v>
       </c>
       <c r="F68" t="n">
-        <v>11.7655991530972</v>
+        <v>12.8571465278256</v>
       </c>
       <c r="G68" t="n">
-        <v>11.4349298691944</v>
+        <v>12.6434663477717</v>
       </c>
       <c r="H68" t="n">
-        <v>12.7413238566676</v>
+        <v>12.31994331901</v>
       </c>
       <c r="I68" t="n">
-        <v>10.8977615677305</v>
+        <v>10.7739202819573</v>
       </c>
       <c r="J68" t="n">
-        <v>12.2218932801335</v>
+        <v>9.02676526666177</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9.75572949940761</v>
+        <v>9.96644120552337</v>
       </c>
       <c r="B69" t="n">
-        <v>11.572447765694</v>
+        <v>10.0815769468322</v>
       </c>
       <c r="C69" t="n">
-        <v>10.3437853316921</v>
+        <v>11.6243067575952</v>
       </c>
       <c r="D69" t="n">
-        <v>13.3750498487468</v>
+        <v>11.8518024655463</v>
       </c>
       <c r="E69" t="n">
-        <v>13.5096032104268</v>
+        <v>11.6513142240551</v>
       </c>
       <c r="F69" t="n">
-        <v>13.1647252325971</v>
+        <v>10.7992491734374</v>
       </c>
       <c r="G69" t="n">
-        <v>12.8361295257098</v>
+        <v>12.2959060221653</v>
       </c>
       <c r="H69" t="n">
-        <v>12.2209191159758</v>
+        <v>12.9947080222967</v>
       </c>
       <c r="I69" t="n">
-        <v>10.6464216430904</v>
+        <v>10.0978605068088</v>
       </c>
       <c r="J69" t="n">
-        <v>8.6121050050749</v>
+        <v>10.9830723621698</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-5.0090425799943</v>
+        <v>9.85933999153319</v>
       </c>
       <c r="B70" t="n">
-        <v>-4.85310977357976</v>
+        <v>10.3636956795269</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.26234021623483</v>
+        <v>11.7346820238674</v>
       </c>
       <c r="D70" t="n">
-        <v>-4.8073747787508</v>
+        <v>12.1727075587191</v>
       </c>
       <c r="E70" t="n">
-        <v>-3.91280983750772</v>
+        <v>13.6204527777338</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.58921240294805</v>
+        <v>12.1503580230123</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.502269728499903</v>
+        <v>12.8773647241607</v>
       </c>
       <c r="H70" t="n">
-        <v>1.62664476406048</v>
+        <v>11.439384508749</v>
       </c>
       <c r="I70" t="n">
-        <v>3.45749115223672</v>
+        <v>10.7784575545321</v>
       </c>
       <c r="J70" t="n">
-        <v>7.17124969641083</v>
+        <v>11.2566468061441</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.8014902941436</v>
+        <v>-4.67741550476696</v>
       </c>
       <c r="B71" t="n">
-        <v>12.0261874969393</v>
+        <v>-5.69522666080592</v>
       </c>
       <c r="C71" t="n">
-        <v>11.2247169063931</v>
+        <v>-5.1908452574753</v>
       </c>
       <c r="D71" t="n">
-        <v>12.4117206118305</v>
+        <v>-4.65135011732721</v>
       </c>
       <c r="E71" t="n">
-        <v>11.1636552335365</v>
+        <v>-4.08415431451399</v>
       </c>
       <c r="F71" t="n">
-        <v>12.061027942083</v>
+        <v>-2.56016284238694</v>
       </c>
       <c r="G71" t="n">
-        <v>12.132768054366</v>
+        <v>-0.964231340547604</v>
       </c>
       <c r="H71" t="n">
-        <v>11.1303237530438</v>
+        <v>1.05337431502635</v>
       </c>
       <c r="I71" t="n">
-        <v>12.5713080488863</v>
+        <v>3.83230023226702</v>
       </c>
       <c r="J71" t="n">
-        <v>11.6163491625366</v>
+        <v>6.4009334892655</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10.6796213094573</v>
+        <v>10.9437374733397</v>
       </c>
       <c r="B72" t="n">
-        <v>10.2584411804109</v>
+        <v>11.6226952299032</v>
       </c>
       <c r="C72" t="n">
-        <v>11.693062844304</v>
+        <v>10.5257336841203</v>
       </c>
       <c r="D72" t="n">
-        <v>13.1519019814282</v>
+        <v>12.1264476708653</v>
       </c>
       <c r="E72" t="n">
-        <v>12.4852049003643</v>
+        <v>13.1186588006532</v>
       </c>
       <c r="F72" t="n">
-        <v>12.8311245337857</v>
+        <v>12.3272081643999</v>
       </c>
       <c r="G72" t="n">
-        <v>11.8698852689896</v>
+        <v>13.2772668665354</v>
       </c>
       <c r="H72" t="n">
-        <v>12.9380679930303</v>
+        <v>11.5451116511074</v>
       </c>
       <c r="I72" t="n">
-        <v>11.186765900496</v>
+        <v>12.3089425694118</v>
       </c>
       <c r="J72" t="n">
-        <v>11.7945233596899</v>
+        <v>10.995858529864</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-4.73232029032861</v>
+        <v>10.3786876378363</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.44951786031927</v>
+        <v>11.0469810673221</v>
       </c>
       <c r="C73" t="n">
-        <v>-5.3990036975306</v>
+        <v>11.9134284385163</v>
       </c>
       <c r="D73" t="n">
-        <v>-4.66971822467034</v>
+        <v>11.6659346354205</v>
       </c>
       <c r="E73" t="n">
-        <v>-3.69450841245052</v>
+        <v>12.6257339128768</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.63704923281858</v>
+        <v>13.1496263910299</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.98363085399585</v>
+        <v>10.831623329748</v>
       </c>
       <c r="H73" t="n">
-        <v>0.891644877601722</v>
+        <v>11.3101045464186</v>
       </c>
       <c r="I73" t="n">
-        <v>3.62492815651587</v>
+        <v>12.2167910067205</v>
       </c>
       <c r="J73" t="n">
-        <v>6.71626895761819</v>
+        <v>10.59591404354</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-4.81226877567337</v>
+        <v>9.94268617637193</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.05440832813448</v>
+        <v>10.3116922340389</v>
       </c>
       <c r="C74" t="n">
-        <v>-5.01389391441443</v>
+        <v>11.1208464766066</v>
       </c>
       <c r="D74" t="n">
-        <v>-4.45921867085572</v>
+        <v>12.442999608438</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.55645100696332</v>
+        <v>11.714326300677</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.76814157681481</v>
+        <v>11.7379663995178</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.960666180960093</v>
+        <v>12.0680663005456</v>
       </c>
       <c r="H74" t="n">
-        <v>0.827281336741994</v>
+        <v>11.2103988212332</v>
       </c>
       <c r="I74" t="n">
-        <v>3.67044154606869</v>
+        <v>10.9525487234147</v>
       </c>
       <c r="J74" t="n">
-        <v>6.91944433064272</v>
+        <v>10.5590683590917</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9.32481098650283</v>
+        <v>9.65343107581954</v>
       </c>
       <c r="B75" t="n">
-        <v>11.2590515299018</v>
+        <v>10.3565462823918</v>
       </c>
       <c r="C75" t="n">
-        <v>12.5879644770328</v>
+        <v>10.5873142563669</v>
       </c>
       <c r="D75" t="n">
-        <v>11.7644069060254</v>
+        <v>11.6481162353331</v>
       </c>
       <c r="E75" t="n">
-        <v>13.5447894784586</v>
+        <v>11.9924402115801</v>
       </c>
       <c r="F75" t="n">
-        <v>11.8926049067153</v>
+        <v>13.3038066027417</v>
       </c>
       <c r="G75" t="n">
-        <v>12.0736699024501</v>
+        <v>12.6199339936385</v>
       </c>
       <c r="H75" t="n">
-        <v>10.2012204522087</v>
+        <v>10.7692857210671</v>
       </c>
       <c r="I75" t="n">
-        <v>12.3359003405588</v>
+        <v>11.2531200137284</v>
       </c>
       <c r="J75" t="n">
-        <v>10.2242689895976</v>
+        <v>10.5353872842935</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10.552883465717</v>
+        <v>-4.99154297513584</v>
       </c>
       <c r="B76" t="n">
-        <v>10.0397828538226</v>
+        <v>-5.50297238532638</v>
       </c>
       <c r="C76" t="n">
-        <v>12.2483422885958</v>
+        <v>-5.45297471008323</v>
       </c>
       <c r="D76" t="n">
-        <v>11.43328120904</v>
+        <v>-5.18431652179131</v>
       </c>
       <c r="E76" t="n">
-        <v>13.4099559182842</v>
+        <v>-3.66695902081558</v>
       </c>
       <c r="F76" t="n">
-        <v>14.5822709186679</v>
+        <v>-2.61769345868557</v>
       </c>
       <c r="G76" t="n">
-        <v>12.3063350752433</v>
+        <v>-0.483133978140599</v>
       </c>
       <c r="H76" t="n">
-        <v>11.8501818751504</v>
+        <v>1.26601919871887</v>
       </c>
       <c r="I76" t="n">
-        <v>12.1329456077247</v>
+        <v>3.8120358595337</v>
       </c>
       <c r="J76" t="n">
-        <v>10.9713892611735</v>
+        <v>6.263704908296</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>9.25199151107601</v>
+        <v>-4.86567177046513</v>
       </c>
       <c r="B77" t="n">
-        <v>10.6510856662716</v>
+        <v>-5.2856762340621</v>
       </c>
       <c r="C77" t="n">
-        <v>13.3741293143662</v>
+        <v>-5.31166374650839</v>
       </c>
       <c r="D77" t="n">
-        <v>13.0541127802097</v>
+        <v>-4.78954510715056</v>
       </c>
       <c r="E77" t="n">
-        <v>12.460403267056</v>
+        <v>-3.81941506283974</v>
       </c>
       <c r="F77" t="n">
-        <v>11.5006794433063</v>
+        <v>-2.37527408819353</v>
       </c>
       <c r="G77" t="n">
-        <v>13.2761932191619</v>
+        <v>-0.738658427124809</v>
       </c>
       <c r="H77" t="n">
-        <v>12.4299180339438</v>
+        <v>1.08435567205421</v>
       </c>
       <c r="I77" t="n">
-        <v>11.5709347823976</v>
+        <v>3.66706033219566</v>
       </c>
       <c r="J77" t="n">
-        <v>12.6442505815648</v>
+        <v>6.95132523837614</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.25224149577893</v>
+        <v>8.10810797071091</v>
       </c>
       <c r="B78" t="n">
-        <v>10.9243013905186</v>
+        <v>11.1671270347257</v>
       </c>
       <c r="C78" t="n">
-        <v>11.6359643187365</v>
+        <v>11.5900024159994</v>
       </c>
       <c r="D78" t="n">
-        <v>12.5651289444466</v>
+        <v>12.4349210854714</v>
       </c>
       <c r="E78" t="n">
-        <v>12.5510881001932</v>
+        <v>14.176204016681</v>
       </c>
       <c r="F78" t="n">
-        <v>12.3386921568239</v>
+        <v>12.9849769216454</v>
       </c>
       <c r="G78" t="n">
-        <v>10.9421688182858</v>
+        <v>12.5663777529542</v>
       </c>
       <c r="H78" t="n">
-        <v>12.4645395409086</v>
+        <v>9.14277801143429</v>
       </c>
       <c r="I78" t="n">
-        <v>11.8074198334059</v>
+        <v>11.2490289114057</v>
       </c>
       <c r="J78" t="n">
-        <v>11.5384759526338</v>
+        <v>11.1430974050249</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.48820377967807</v>
+        <v>9.82423844873435</v>
       </c>
       <c r="B79" t="n">
-        <v>10.8045934195045</v>
+        <v>10.4073269453862</v>
       </c>
       <c r="C79" t="n">
-        <v>12.1978392633276</v>
+        <v>11.5318481131627</v>
       </c>
       <c r="D79" t="n">
-        <v>12.5278749762569</v>
+        <v>12.2126500916365</v>
       </c>
       <c r="E79" t="n">
-        <v>11.9701642490215</v>
+        <v>13.159525730423</v>
       </c>
       <c r="F79" t="n">
-        <v>11.1278109607778</v>
+        <v>12.8904873785762</v>
       </c>
       <c r="G79" t="n">
-        <v>13.0078956065638</v>
+        <v>12.3794908933648</v>
       </c>
       <c r="H79" t="n">
-        <v>11.3066210162765</v>
+        <v>11.4359675119573</v>
       </c>
       <c r="I79" t="n">
-        <v>12.0797960595604</v>
+        <v>11.2123275838008</v>
       </c>
       <c r="J79" t="n">
-        <v>10.5599656319438</v>
+        <v>11.1364446630345</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8.25863229897031</v>
+        <v>-4.70363611581309</v>
       </c>
       <c r="B80" t="n">
-        <v>10.6951275418576</v>
+        <v>-5.03072498058433</v>
       </c>
       <c r="C80" t="n">
-        <v>11.732271456002</v>
+        <v>-4.69310323718769</v>
       </c>
       <c r="D80" t="n">
-        <v>12.9913348067032</v>
+        <v>-4.29657389406826</v>
       </c>
       <c r="E80" t="n">
-        <v>13.8920944147406</v>
+        <v>-3.96362566365757</v>
       </c>
       <c r="F80" t="n">
-        <v>12.9691743088356</v>
+        <v>-2.89834302183946</v>
       </c>
       <c r="G80" t="n">
-        <v>13.4164607255387</v>
+        <v>-0.63706926262561</v>
       </c>
       <c r="H80" t="n">
-        <v>13.7440558290657</v>
+        <v>0.887305645892629</v>
       </c>
       <c r="I80" t="n">
-        <v>11.2745513704116</v>
+        <v>3.68917001231452</v>
       </c>
       <c r="J80" t="n">
-        <v>10.2250711459022</v>
+        <v>6.82706154133029</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9.70849757558693</v>
+        <v>-5.0842430927715</v>
       </c>
       <c r="B81" t="n">
-        <v>9.73088605962139</v>
+        <v>-5.45364503951951</v>
       </c>
       <c r="C81" t="n">
-        <v>10.3747023451162</v>
+        <v>-5.40636527471978</v>
       </c>
       <c r="D81" t="n">
-        <v>14.1588856902148</v>
+        <v>-5.10123057353051</v>
       </c>
       <c r="E81" t="n">
-        <v>13.3402434087991</v>
+        <v>-4.19253738056734</v>
       </c>
       <c r="F81" t="n">
-        <v>10.7984246844483</v>
+        <v>-2.78312101579072</v>
       </c>
       <c r="G81" t="n">
-        <v>13.5143688062077</v>
+        <v>-0.980089211969796</v>
       </c>
       <c r="H81" t="n">
-        <v>12.1420184316376</v>
+        <v>1.28961888143773</v>
       </c>
       <c r="I81" t="n">
-        <v>10.7714239378889</v>
+        <v>3.53778114870337</v>
       </c>
       <c r="J81" t="n">
-        <v>10.9209689297186</v>
+        <v>6.68058054266744</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.8529513253328</v>
+        <v>-5.02548130360568</v>
       </c>
       <c r="B82" t="n">
-        <v>11.1669503827134</v>
+        <v>-4.70165084045242</v>
       </c>
       <c r="C82" t="n">
-        <v>11.2902671571508</v>
+        <v>-4.68011272988007</v>
       </c>
       <c r="D82" t="n">
-        <v>10.9397397466883</v>
+        <v>-4.40842724216858</v>
       </c>
       <c r="E82" t="n">
-        <v>12.0273203165258</v>
+        <v>-3.50406150637</v>
       </c>
       <c r="F82" t="n">
-        <v>11.9830783947184</v>
+        <v>-2.20125633851099</v>
       </c>
       <c r="G82" t="n">
-        <v>11.7553808670948</v>
+        <v>-0.921801530984034</v>
       </c>
       <c r="H82" t="n">
-        <v>13.6523318751889</v>
+        <v>1.00467837650688</v>
       </c>
       <c r="I82" t="n">
-        <v>10.7148761084811</v>
+        <v>3.61325392565727</v>
       </c>
       <c r="J82" t="n">
-        <v>12.5735074187044</v>
+        <v>6.74866379003556</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.760951164645</v>
+        <v>9.92773915999529</v>
       </c>
       <c r="B83" t="n">
-        <v>11.8491793518699</v>
+        <v>9.55673336078292</v>
       </c>
       <c r="C83" t="n">
-        <v>12.4274434115088</v>
+        <v>9.22020811313089</v>
       </c>
       <c r="D83" t="n">
-        <v>11.3313077160976</v>
+        <v>10.695139667223</v>
       </c>
       <c r="E83" t="n">
-        <v>12.1507704120125</v>
+        <v>11.8873952358197</v>
       </c>
       <c r="F83" t="n">
-        <v>13.0587232036087</v>
+        <v>12.6246197607156</v>
       </c>
       <c r="G83" t="n">
-        <v>11.2557732987061</v>
+        <v>12.046041753488</v>
       </c>
       <c r="H83" t="n">
-        <v>13.10168290785</v>
+        <v>12.1811530011755</v>
       </c>
       <c r="I83" t="n">
-        <v>12.7358132445283</v>
+        <v>13.6814317870822</v>
       </c>
       <c r="J83" t="n">
-        <v>11.1103332855968</v>
+        <v>12.3773455964998</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-5.34872086144297</v>
+        <v>-5.02572289505611</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.31932364679557</v>
+        <v>-5.05044574324387</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.41894057399752</v>
+        <v>-5.3922772700948</v>
       </c>
       <c r="D84" t="n">
-        <v>-4.43622959347169</v>
+        <v>-4.65040825619641</v>
       </c>
       <c r="E84" t="n">
-        <v>-3.87278887666986</v>
+        <v>-3.75083912170076</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.45247379647378</v>
+        <v>-2.54111748107308</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.92367434613687</v>
+        <v>-0.572264878151377</v>
       </c>
       <c r="H84" t="n">
-        <v>0.709701788374151</v>
+        <v>1.1295733810133</v>
       </c>
       <c r="I84" t="n">
-        <v>3.48388318826543</v>
+        <v>3.7860507664303</v>
       </c>
       <c r="J84" t="n">
-        <v>6.39663565377501</v>
+        <v>6.8642678561957</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11.4527843099848</v>
+        <v>10.1979878555244</v>
       </c>
       <c r="B85" t="n">
-        <v>10.418798962511</v>
+        <v>11.9750920984855</v>
       </c>
       <c r="C85" t="n">
-        <v>11.9595009309331</v>
+        <v>13.0319234215016</v>
       </c>
       <c r="D85" t="n">
-        <v>12.7434534917385</v>
+        <v>12.5434988190378</v>
       </c>
       <c r="E85" t="n">
-        <v>12.3881218059875</v>
+        <v>11.4425533085968</v>
       </c>
       <c r="F85" t="n">
-        <v>12.7768373157141</v>
+        <v>12.9032795746758</v>
       </c>
       <c r="G85" t="n">
-        <v>12.4357670767978</v>
+        <v>13.1649175333168</v>
       </c>
       <c r="H85" t="n">
-        <v>11.6540191575495</v>
+        <v>13.3678266824074</v>
       </c>
       <c r="I85" t="n">
-        <v>11.0675625379741</v>
+        <v>11.7656589979399</v>
       </c>
       <c r="J85" t="n">
-        <v>12.7188811779659</v>
+        <v>12.5978435356924</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10.3647294087709</v>
+        <v>10.7361052210744</v>
       </c>
       <c r="B86" t="n">
-        <v>12.5723443047765</v>
+        <v>10.8930122133964</v>
       </c>
       <c r="C86" t="n">
-        <v>11.1688403653467</v>
+        <v>11.9109102055149</v>
       </c>
       <c r="D86" t="n">
-        <v>13.0509604161685</v>
+        <v>12.4291068801869</v>
       </c>
       <c r="E86" t="n">
-        <v>12.3255864036387</v>
+        <v>12.2411747920204</v>
       </c>
       <c r="F86" t="n">
-        <v>13.9705516381453</v>
+        <v>12.9545432492938</v>
       </c>
       <c r="G86" t="n">
-        <v>12.412132195754</v>
+        <v>11.5894309993922</v>
       </c>
       <c r="H86" t="n">
-        <v>11.9603241124451</v>
+        <v>12.7058833731757</v>
       </c>
       <c r="I86" t="n">
-        <v>11.6867645173785</v>
+        <v>12.1203023517443</v>
       </c>
       <c r="J86" t="n">
-        <v>11.3145424427065</v>
+        <v>9.96804200087395</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-5.38186955707172</v>
+        <v>10.1417901985037</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.3826175050308</v>
+        <v>10.7338335352867</v>
       </c>
       <c r="C87" t="n">
-        <v>-5.39359427960593</v>
+        <v>12.2139930296297</v>
       </c>
       <c r="D87" t="n">
-        <v>-4.4989949043566</v>
+        <v>12.1464844114833</v>
       </c>
       <c r="E87" t="n">
-        <v>-3.90593442639356</v>
+        <v>12.1639621104115</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.74324321462502</v>
+        <v>13.6912173949898</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.14635683249729</v>
+        <v>12.1221573743557</v>
       </c>
       <c r="H87" t="n">
-        <v>1.80145169091995</v>
+        <v>12.7101624237076</v>
       </c>
       <c r="I87" t="n">
-        <v>3.65531988763743</v>
+        <v>11.1865914593747</v>
       </c>
       <c r="J87" t="n">
-        <v>6.5513749812312</v>
+        <v>11.3297502875614</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9.28155035064734</v>
+        <v>9.40714745906323</v>
       </c>
       <c r="B88" t="n">
-        <v>10.3481974371792</v>
+        <v>10.9244781102482</v>
       </c>
       <c r="C88" t="n">
-        <v>11.6996322509983</v>
+        <v>11.3971660320581</v>
       </c>
       <c r="D88" t="n">
-        <v>12.365481115149</v>
+        <v>12.8800819459221</v>
       </c>
       <c r="E88" t="n">
-        <v>13.9498806510568</v>
+        <v>11.4261989839172</v>
       </c>
       <c r="F88" t="n">
-        <v>12.8749670955687</v>
+        <v>12.4827183104861</v>
       </c>
       <c r="G88" t="n">
-        <v>11.7706901218611</v>
+        <v>11.8507918086308</v>
       </c>
       <c r="H88" t="n">
-        <v>12.9901845368139</v>
+        <v>11.430986274667</v>
       </c>
       <c r="I88" t="n">
-        <v>11.2824702807817</v>
+        <v>11.3097715291862</v>
       </c>
       <c r="J88" t="n">
-        <v>10.4311892266564</v>
+        <v>11.1357303652208</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-4.96375664969723</v>
+        <v>11.3148165765191</v>
       </c>
       <c r="B89" t="n">
-        <v>-5.18048309792819</v>
+        <v>11.7965575432693</v>
       </c>
       <c r="C89" t="n">
-        <v>-4.99134627077697</v>
+        <v>11.5877345747018</v>
       </c>
       <c r="D89" t="n">
-        <v>-4.91098477743024</v>
+        <v>11.021948970971</v>
       </c>
       <c r="E89" t="n">
-        <v>-3.93557472968302</v>
+        <v>13.1551236924885</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.67776071822379</v>
+        <v>12.0921217077049</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.774755663125105</v>
+        <v>13.5739817815777</v>
       </c>
       <c r="H89" t="n">
-        <v>1.44119380522266</v>
+        <v>13.1532094478427</v>
       </c>
       <c r="I89" t="n">
-        <v>3.44822477295609</v>
+        <v>11.5570139125999</v>
       </c>
       <c r="J89" t="n">
-        <v>6.83980127939543</v>
+        <v>9.37998466070964</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9.53451756776358</v>
+        <v>9.67215158462527</v>
       </c>
       <c r="B90" t="n">
-        <v>11.3035097533263</v>
+        <v>12.4231736234643</v>
       </c>
       <c r="C90" t="n">
-        <v>11.9897500994402</v>
+        <v>11.1615865198705</v>
       </c>
       <c r="D90" t="n">
-        <v>12.4013636000433</v>
+        <v>12.3719127786112</v>
       </c>
       <c r="E90" t="n">
-        <v>12.3625693378868</v>
+        <v>11.6759378470426</v>
       </c>
       <c r="F90" t="n">
-        <v>12.3073679192571</v>
+        <v>13.2839758497427</v>
       </c>
       <c r="G90" t="n">
-        <v>13.4155419913423</v>
+        <v>13.1008689071613</v>
       </c>
       <c r="H90" t="n">
-        <v>11.1165567251209</v>
+        <v>12.9911131822845</v>
       </c>
       <c r="I90" t="n">
-        <v>12.2371710376597</v>
+        <v>11.8424864703032</v>
       </c>
       <c r="J90" t="n">
-        <v>11.1611275226801</v>
+        <v>11.6558128456788</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-4.92042836958644</v>
+        <v>9.3677026433817</v>
       </c>
       <c r="B91" t="n">
-        <v>-5.0100627918457</v>
+        <v>10.7625654015934</v>
       </c>
       <c r="C91" t="n">
-        <v>-5.24367412752752</v>
+        <v>12.8321706605278</v>
       </c>
       <c r="D91" t="n">
-        <v>-4.56012486890969</v>
+        <v>12.2897859950763</v>
       </c>
       <c r="E91" t="n">
-        <v>-3.69865556899972</v>
+        <v>11.7023257688864</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.65827047497044</v>
+        <v>11.7651290276709</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.10543368596755</v>
+        <v>12.553895407706</v>
       </c>
       <c r="H91" t="n">
-        <v>0.842128913964754</v>
+        <v>11.5209193564005</v>
       </c>
       <c r="I91" t="n">
-        <v>3.87517937882318</v>
+        <v>12.123743401463</v>
       </c>
       <c r="J91" t="n">
-        <v>6.31153662949993</v>
+        <v>12.2936246030986</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9.77994360444022</v>
+        <v>11.0648011113884</v>
       </c>
       <c r="B92" t="n">
-        <v>10.4757925014226</v>
+        <v>10.6102827116465</v>
       </c>
       <c r="C92" t="n">
-        <v>11.361759525188</v>
+        <v>10.3888140700643</v>
       </c>
       <c r="D92" t="n">
-        <v>13.3261614015486</v>
+        <v>11.3441421361146</v>
       </c>
       <c r="E92" t="n">
-        <v>10.7109918297647</v>
+        <v>12.3683686603372</v>
       </c>
       <c r="F92" t="n">
-        <v>10.7254539025044</v>
+        <v>12.6950483072055</v>
       </c>
       <c r="G92" t="n">
-        <v>11.7971073997036</v>
+        <v>12.9337841495832</v>
       </c>
       <c r="H92" t="n">
-        <v>12.683776567765</v>
+        <v>11.3379214659339</v>
       </c>
       <c r="I92" t="n">
-        <v>10.698290186945</v>
+        <v>11.531969885779</v>
       </c>
       <c r="J92" t="n">
-        <v>12.2210550187972</v>
+        <v>11.7174526959171</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.8420278830754</v>
+        <v>9.15818712874378</v>
       </c>
       <c r="B93" t="n">
-        <v>10.7992406617193</v>
+        <v>10.877189629517</v>
       </c>
       <c r="C93" t="n">
-        <v>11.6857949707016</v>
+        <v>13.2634454594575</v>
       </c>
       <c r="D93" t="n">
-        <v>12.4325002040355</v>
+        <v>13.2149633849933</v>
       </c>
       <c r="E93" t="n">
-        <v>12.0541621527852</v>
+        <v>13.8876554099566</v>
       </c>
       <c r="F93" t="n">
-        <v>12.4010437635462</v>
+        <v>12.4316966328865</v>
       </c>
       <c r="G93" t="n">
-        <v>12.1125297461802</v>
+        <v>12.7113713841025</v>
       </c>
       <c r="H93" t="n">
-        <v>11.8638023947733</v>
+        <v>11.3379416326571</v>
       </c>
       <c r="I93" t="n">
-        <v>12.6354013222349</v>
+        <v>11.3323804269737</v>
       </c>
       <c r="J93" t="n">
-        <v>11.6960848725555</v>
+        <v>11.5157846927519</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10.4657129807477</v>
+        <v>-5.07203938662458</v>
       </c>
       <c r="B94" t="n">
-        <v>12.8942146485389</v>
+        <v>-4.84968711378136</v>
       </c>
       <c r="C94" t="n">
-        <v>10.5195480842874</v>
+        <v>-5.15180911698368</v>
       </c>
       <c r="D94" t="n">
-        <v>12.0860017088147</v>
+        <v>-4.99408482414537</v>
       </c>
       <c r="E94" t="n">
-        <v>11.5249702049533</v>
+        <v>-3.50886959820613</v>
       </c>
       <c r="F94" t="n">
-        <v>12.3057420590422</v>
+        <v>-3.25962491251568</v>
       </c>
       <c r="G94" t="n">
-        <v>12.3458524730087</v>
+        <v>-0.695008782082225</v>
       </c>
       <c r="H94" t="n">
-        <v>13.1106999190517</v>
+        <v>1.00552189448936</v>
       </c>
       <c r="I94" t="n">
-        <v>11.2822633838885</v>
+        <v>3.46514495141499</v>
       </c>
       <c r="J94" t="n">
-        <v>11.5291011098295</v>
+        <v>6.50155104998561</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-5.09786973481978</v>
+        <v>9.87138281211966</v>
       </c>
       <c r="B95" t="n">
-        <v>-4.99970403403519</v>
+        <v>10.9996654093521</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.02789402908169</v>
+        <v>11.128449441166</v>
       </c>
       <c r="D95" t="n">
-        <v>-4.9889261396894</v>
+        <v>10.7910962240147</v>
       </c>
       <c r="E95" t="n">
-        <v>-3.27869419287388</v>
+        <v>12.5610484481434</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.62070711479269</v>
+        <v>15.0070744069851</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.333277884548597</v>
+        <v>13.0699564497415</v>
       </c>
       <c r="H95" t="n">
-        <v>1.16506625245035</v>
+        <v>12.3370623092378</v>
       </c>
       <c r="I95" t="n">
-        <v>3.86390156358183</v>
+        <v>11.3608464133648</v>
       </c>
       <c r="J95" t="n">
-        <v>6.5750047569364</v>
+        <v>10.8161039103385</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.1299941273148</v>
+        <v>-4.91376757504446</v>
       </c>
       <c r="B96" t="n">
-        <v>11.1232803302452</v>
+        <v>-5.12933368810419</v>
       </c>
       <c r="C96" t="n">
-        <v>11.728807067837</v>
+        <v>-5.17320457598685</v>
       </c>
       <c r="D96" t="n">
-        <v>12.4703489702549</v>
+        <v>-5.05561764771818</v>
       </c>
       <c r="E96" t="n">
-        <v>14.3189620586459</v>
+        <v>-3.80636722853379</v>
       </c>
       <c r="F96" t="n">
-        <v>12.4505906163103</v>
+        <v>-2.34266823970898</v>
       </c>
       <c r="G96" t="n">
-        <v>12.40188064517</v>
+        <v>-0.904916255661156</v>
       </c>
       <c r="H96" t="n">
-        <v>11.4159674402514</v>
+        <v>1.07998420881995</v>
       </c>
       <c r="I96" t="n">
-        <v>10.9619355984149</v>
+        <v>3.98455052673338</v>
       </c>
       <c r="J96" t="n">
-        <v>11.1615070944018</v>
+        <v>6.91240151701343</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-4.9139060352103</v>
+        <v>9.10736383520284</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.13216806429747</v>
+        <v>10.8709914635344</v>
       </c>
       <c r="C97" t="n">
-        <v>-5.20385014545958</v>
+        <v>12.0855936417136</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.57855280773681</v>
+        <v>11.6448707732662</v>
       </c>
       <c r="E97" t="n">
-        <v>-3.72410654122459</v>
+        <v>12.4396372040233</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.67145507363365</v>
+        <v>11.338447016255</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.983679104093412</v>
+        <v>12.6601033077216</v>
       </c>
       <c r="H97" t="n">
-        <v>1.21719032345343</v>
+        <v>13.3667759094117</v>
       </c>
       <c r="I97" t="n">
-        <v>3.83050749363767</v>
+        <v>11.5488624429906</v>
       </c>
       <c r="J97" t="n">
-        <v>6.68624153283867</v>
+        <v>11.552076978832</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10.2377604488974</v>
+        <v>-5.06803438859451</v>
       </c>
       <c r="B98" t="n">
-        <v>11.8876094182806</v>
+        <v>-5.23584680451734</v>
       </c>
       <c r="C98" t="n">
-        <v>12.0367425066236</v>
+        <v>-5.15745918753524</v>
       </c>
       <c r="D98" t="n">
-        <v>12.3917271367507</v>
+        <v>-5.01047000943256</v>
       </c>
       <c r="E98" t="n">
-        <v>13.7399576546218</v>
+        <v>-3.9397486927027</v>
       </c>
       <c r="F98" t="n">
-        <v>12.7700744920537</v>
+        <v>-2.60089575016378</v>
       </c>
       <c r="G98" t="n">
-        <v>12.4136204789128</v>
+        <v>-0.514416951060821</v>
       </c>
       <c r="H98" t="n">
-        <v>12.8713822553515</v>
+        <v>1.4409379096757</v>
       </c>
       <c r="I98" t="n">
-        <v>10.9702736432373</v>
+        <v>4.05794283521729</v>
       </c>
       <c r="J98" t="n">
-        <v>9.88694169914077</v>
+        <v>6.52991474071866</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>11.4168051506403</v>
+        <v>10.3467550021173</v>
       </c>
       <c r="B99" t="n">
-        <v>11.077352655413</v>
+        <v>11.6016331674272</v>
       </c>
       <c r="C99" t="n">
-        <v>11.0137371480956</v>
+        <v>11.8666646735147</v>
       </c>
       <c r="D99" t="n">
-        <v>12.2849796607846</v>
+        <v>11.5413692813548</v>
       </c>
       <c r="E99" t="n">
-        <v>11.3417688642039</v>
+        <v>12.4864483387266</v>
       </c>
       <c r="F99" t="n">
-        <v>13.2880634353393</v>
+        <v>13.4170108129331</v>
       </c>
       <c r="G99" t="n">
-        <v>13.0949862545555</v>
+        <v>12.0981509350738</v>
       </c>
       <c r="H99" t="n">
-        <v>11.95370922089</v>
+        <v>11.1939772348072</v>
       </c>
       <c r="I99" t="n">
-        <v>11.9955884692712</v>
+        <v>11.6384724156179</v>
       </c>
       <c r="J99" t="n">
-        <v>11.540501979673</v>
+        <v>12.2338114337082</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10.6327555025941</v>
+        <v>9.23765465015838</v>
       </c>
       <c r="B100" t="n">
-        <v>10.7900659321754</v>
+        <v>9.46944021124204</v>
       </c>
       <c r="C100" t="n">
-        <v>11.0217658703703</v>
+        <v>12.4687972885108</v>
       </c>
       <c r="D100" t="n">
-        <v>11.5952702727712</v>
+        <v>10.767663548704</v>
       </c>
       <c r="E100" t="n">
-        <v>11.9384409970718</v>
+        <v>11.9247945789025</v>
       </c>
       <c r="F100" t="n">
-        <v>13.7707774244683</v>
+        <v>12.0168645487725</v>
       </c>
       <c r="G100" t="n">
-        <v>12.9517723195171</v>
+        <v>12.337097558192</v>
       </c>
       <c r="H100" t="n">
-        <v>12.2898379216162</v>
+        <v>12.1162843429687</v>
       </c>
       <c r="I100" t="n">
-        <v>12.2472803307467</v>
+        <v>11.3731333032016</v>
       </c>
       <c r="J100" t="n">
-        <v>10.4924208418811</v>
+        <v>12.1000603293925</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.0427706600718</v>
+        <v>10.2317850017857</v>
       </c>
       <c r="B101" t="n">
-        <v>10.6366192583601</v>
+        <v>11.2612851628979</v>
       </c>
       <c r="C101" t="n">
-        <v>11.5384901821166</v>
+        <v>11.8921563062617</v>
       </c>
       <c r="D101" t="n">
-        <v>13.3558950871164</v>
+        <v>11.7072146889542</v>
       </c>
       <c r="E101" t="n">
-        <v>12.5140380425357</v>
+        <v>12.2839668738811</v>
       </c>
       <c r="F101" t="n">
-        <v>12.4367588363577</v>
+        <v>11.9355562251004</v>
       </c>
       <c r="G101" t="n">
-        <v>12.5135261375304</v>
+        <v>11.4957932619532</v>
       </c>
       <c r="H101" t="n">
-        <v>12.483152809267</v>
+        <v>12.219009610164</v>
       </c>
       <c r="I101" t="n">
-        <v>10.6165095643379</v>
+        <v>11.1450659236042</v>
       </c>
       <c r="J101" t="n">
-        <v>9.37695373242243</v>
+        <v>11.0200425290197</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.77536863448077</v>
+        <v>9.96476436858485</v>
       </c>
       <c r="B102" t="n">
-        <v>11.0171769818278</v>
+        <v>11.5614341477471</v>
       </c>
       <c r="C102" t="n">
-        <v>11.0200838290407</v>
+        <v>11.2023843466785</v>
       </c>
       <c r="D102" t="n">
-        <v>11.331826738556</v>
+        <v>11.6278139499625</v>
       </c>
       <c r="E102" t="n">
-        <v>11.3528811541176</v>
+        <v>12.4588784326582</v>
       </c>
       <c r="F102" t="n">
-        <v>12.6152119606214</v>
+        <v>12.0468327121979</v>
       </c>
       <c r="G102" t="n">
-        <v>12.4411131285664</v>
+        <v>12.220710996097</v>
       </c>
       <c r="H102" t="n">
-        <v>13.0366617442964</v>
+        <v>11.5123480865075</v>
       </c>
       <c r="I102" t="n">
-        <v>11.1490522944591</v>
+        <v>11.2740066709052</v>
       </c>
       <c r="J102" t="n">
-        <v>9.81558055808389</v>
+        <v>11.4396699034708</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.87154611921632</v>
+        <v>-4.91143144637185</v>
       </c>
       <c r="B103" t="n">
-        <v>10.7483084682799</v>
+        <v>-5.195263214147</v>
       </c>
       <c r="C103" t="n">
-        <v>12.0577406525396</v>
+        <v>-5.27070212654558</v>
       </c>
       <c r="D103" t="n">
-        <v>11.7589594783994</v>
+        <v>-4.81399103755882</v>
       </c>
       <c r="E103" t="n">
-        <v>11.9764248243254</v>
+        <v>-3.8063625350362</v>
       </c>
       <c r="F103" t="n">
-        <v>12.950205144272</v>
+        <v>-2.48751253245454</v>
       </c>
       <c r="G103" t="n">
-        <v>12.2717038629527</v>
+        <v>-0.96724966015351</v>
       </c>
       <c r="H103" t="n">
-        <v>11.6818459257121</v>
+        <v>1.04653836092288</v>
       </c>
       <c r="I103" t="n">
-        <v>12.2182469780625</v>
+        <v>3.85185059065028</v>
       </c>
       <c r="J103" t="n">
-        <v>11.1046041802875</v>
+        <v>6.76752125283294</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>11.101505721298</v>
+        <v>8.64147818044073</v>
       </c>
       <c r="B104" t="n">
-        <v>11.3342242323154</v>
+        <v>12.5338685682617</v>
       </c>
       <c r="C104" t="n">
-        <v>11.816505857342</v>
+        <v>11.2380268219591</v>
       </c>
       <c r="D104" t="n">
-        <v>11.4406906065134</v>
+        <v>12.5376734153661</v>
       </c>
       <c r="E104" t="n">
-        <v>11.4062735815876</v>
+        <v>12.7198553407511</v>
       </c>
       <c r="F104" t="n">
-        <v>11.978864103789</v>
+        <v>12.0376861474532</v>
       </c>
       <c r="G104" t="n">
-        <v>12.4299515468656</v>
+        <v>12.1198831695575</v>
       </c>
       <c r="H104" t="n">
-        <v>12.5606788893713</v>
+        <v>11.3391844549673</v>
       </c>
       <c r="I104" t="n">
-        <v>12.2642115683133</v>
+        <v>11.0550661013809</v>
       </c>
       <c r="J104" t="n">
-        <v>11.113661151788</v>
+        <v>10.7763752520222</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-5.4081666688715</v>
+        <v>9.59923734331569</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.51700898281764</v>
+        <v>10.8193250748095</v>
       </c>
       <c r="C105" t="n">
-        <v>-5.10404027226693</v>
+        <v>12.4897418151376</v>
       </c>
       <c r="D105" t="n">
-        <v>-4.81688733270637</v>
+        <v>11.7145764979379</v>
       </c>
       <c r="E105" t="n">
-        <v>-4.09071257613593</v>
+        <v>11.9230015737809</v>
       </c>
       <c r="F105" t="n">
-        <v>-2.55721391063928</v>
+        <v>12.8692075722464</v>
       </c>
       <c r="G105" t="n">
-        <v>-1.02975098375153</v>
+        <v>12.253233134675</v>
       </c>
       <c r="H105" t="n">
-        <v>1.11988039433751</v>
+        <v>13.8228982315523</v>
       </c>
       <c r="I105" t="n">
-        <v>3.67764776051664</v>
+        <v>11.7268463675634</v>
       </c>
       <c r="J105" t="n">
-        <v>6.63378726170014</v>
+        <v>10.0538078854771</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>10.1253875829017</v>
+        <v>9.87999681859488</v>
       </c>
       <c r="B106" t="n">
-        <v>9.63850432876134</v>
+        <v>10.2780308458009</v>
       </c>
       <c r="C106" t="n">
-        <v>12.3726830080822</v>
+        <v>10.8449657964515</v>
       </c>
       <c r="D106" t="n">
-        <v>12.2411727729113</v>
+        <v>12.4124946960052</v>
       </c>
       <c r="E106" t="n">
-        <v>12.3057093527288</v>
+        <v>11.5911505586673</v>
       </c>
       <c r="F106" t="n">
-        <v>12.0876561314582</v>
+        <v>11.6800372884567</v>
       </c>
       <c r="G106" t="n">
-        <v>12.2221487514941</v>
+        <v>12.5212423082668</v>
       </c>
       <c r="H106" t="n">
-        <v>12.4757534588542</v>
+        <v>11.8654355640813</v>
       </c>
       <c r="I106" t="n">
-        <v>11.6593222872316</v>
+        <v>10.9223228002463</v>
       </c>
       <c r="J106" t="n">
-        <v>11.2231849029165</v>
+        <v>11.5382374904719</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-5.42205063906967</v>
+        <v>10.0977411174406</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.47713905969888</v>
+        <v>11.5762951002539</v>
       </c>
       <c r="C107" t="n">
-        <v>-5.10167044900044</v>
+        <v>12.4191227861724</v>
       </c>
       <c r="D107" t="n">
-        <v>-4.55167295386068</v>
+        <v>12.3958532731801</v>
       </c>
       <c r="E107" t="n">
-        <v>-3.94243158204572</v>
+        <v>11.7198012624394</v>
       </c>
       <c r="F107" t="n">
-        <v>-2.57245060955086</v>
+        <v>12.7182447953129</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.872827811924915</v>
+        <v>12.2305695730412</v>
       </c>
       <c r="H107" t="n">
-        <v>1.30011371119607</v>
+        <v>11.3296804770705</v>
       </c>
       <c r="I107" t="n">
-        <v>3.40268738238148</v>
+        <v>10.7887132381332</v>
       </c>
       <c r="J107" t="n">
-        <v>6.67368893717276</v>
+        <v>10.685280845973</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.5806401674701</v>
+        <v>-4.95666009773536</v>
       </c>
       <c r="B108" t="n">
-        <v>11.8262234767508</v>
+        <v>-5.34299057178404</v>
       </c>
       <c r="C108" t="n">
-        <v>12.2537685016871</v>
+        <v>-5.1343945249909</v>
       </c>
       <c r="D108" t="n">
-        <v>12.0384213912483</v>
+        <v>-4.14704141864931</v>
       </c>
       <c r="E108" t="n">
-        <v>12.7630964365191</v>
+        <v>-3.80463887986616</v>
       </c>
       <c r="F108" t="n">
-        <v>12.7988369906773</v>
+        <v>-2.38001018738294</v>
       </c>
       <c r="G108" t="n">
-        <v>12.7251761385021</v>
+        <v>-0.800927193264199</v>
       </c>
       <c r="H108" t="n">
-        <v>12.9606521879522</v>
+        <v>1.27069969282634</v>
       </c>
       <c r="I108" t="n">
-        <v>10.4081261024512</v>
+        <v>4.01666474783269</v>
       </c>
       <c r="J108" t="n">
-        <v>11.2005981343102</v>
+        <v>6.38834689988946</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-4.61586717899267</v>
+        <v>-5.07586523343416</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.38790569883981</v>
+        <v>-5.25884851612497</v>
       </c>
       <c r="C109" t="n">
-        <v>-5.17371332917945</v>
+        <v>-5.09959116713634</v>
       </c>
       <c r="D109" t="n">
-        <v>-4.62933005312193</v>
+        <v>-4.87445744371367</v>
       </c>
       <c r="E109" t="n">
-        <v>-3.74398550810952</v>
+        <v>-3.67419289376426</v>
       </c>
       <c r="F109" t="n">
-        <v>-2.32837470487295</v>
+        <v>-2.39420391423419</v>
       </c>
       <c r="G109" t="n">
-        <v>-1.51814796385114</v>
+        <v>-0.916394914256223</v>
       </c>
       <c r="H109" t="n">
-        <v>1.16462364483092</v>
+        <v>0.505643408925341</v>
       </c>
       <c r="I109" t="n">
-        <v>4.48102712702222</v>
+        <v>3.80258751386282</v>
       </c>
       <c r="J109" t="n">
-        <v>6.83513268054174</v>
+        <v>6.74353558698019</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.9826428481867</v>
+        <v>-5.19865275830226</v>
       </c>
       <c r="B110" t="n">
-        <v>11.9292381809885</v>
+        <v>-5.42523195326472</v>
       </c>
       <c r="C110" t="n">
-        <v>10.9629218666148</v>
+        <v>-5.10585504359266</v>
       </c>
       <c r="D110" t="n">
-        <v>11.8296721739595</v>
+        <v>-4.55932581474504</v>
       </c>
       <c r="E110" t="n">
-        <v>11.3649971611573</v>
+        <v>-4.20608976727418</v>
       </c>
       <c r="F110" t="n">
-        <v>13.0651095463598</v>
+        <v>-2.62966654868848</v>
       </c>
       <c r="G110" t="n">
-        <v>12.5206474524648</v>
+        <v>-1.05437187013935</v>
       </c>
       <c r="H110" t="n">
-        <v>11.8958446819001</v>
+        <v>1.53188308282525</v>
       </c>
       <c r="I110" t="n">
-        <v>12.7907817610946</v>
+        <v>3.75629021046601</v>
       </c>
       <c r="J110" t="n">
-        <v>10.3298075592518</v>
+        <v>6.7867241719336</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9.20522297883181</v>
+        <v>-4.80945227856398</v>
       </c>
       <c r="B111" t="n">
-        <v>9.81727073094053</v>
+        <v>-5.24965433616584</v>
       </c>
       <c r="C111" t="n">
-        <v>10.7987350192887</v>
+        <v>-4.97426580015773</v>
       </c>
       <c r="D111" t="n">
-        <v>11.9579011327796</v>
+        <v>-4.62270522185313</v>
       </c>
       <c r="E111" t="n">
-        <v>12.8776031560238</v>
+        <v>-3.66792425868795</v>
       </c>
       <c r="F111" t="n">
-        <v>12.1963976713114</v>
+        <v>-2.64873122222315</v>
       </c>
       <c r="G111" t="n">
-        <v>12.0741389500217</v>
+        <v>-0.541151056077211</v>
       </c>
       <c r="H111" t="n">
-        <v>11.4436087378778</v>
+        <v>1.4630100055637</v>
       </c>
       <c r="I111" t="n">
-        <v>13.0443840237501</v>
+        <v>3.24975655098211</v>
       </c>
       <c r="J111" t="n">
-        <v>11.5566600426208</v>
+        <v>6.19903797746452</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.5309457757778</v>
+        <v>-4.72451578724182</v>
       </c>
       <c r="B112" t="n">
-        <v>10.3901892403436</v>
+        <v>-4.83518974371404</v>
       </c>
       <c r="C112" t="n">
-        <v>11.5971884190874</v>
+        <v>-5.38388233247494</v>
       </c>
       <c r="D112" t="n">
-        <v>10.4101025192502</v>
+        <v>-4.45195886443853</v>
       </c>
       <c r="E112" t="n">
-        <v>10.9017695783316</v>
+        <v>-3.69244298795953</v>
       </c>
       <c r="F112" t="n">
-        <v>13.1206663258984</v>
+        <v>-2.04189658804409</v>
       </c>
       <c r="G112" t="n">
-        <v>12.4516299269026</v>
+        <v>-0.739785427018105</v>
       </c>
       <c r="H112" t="n">
-        <v>11.6992821532164</v>
+        <v>1.04252057118047</v>
       </c>
       <c r="I112" t="n">
-        <v>10.7910939377669</v>
+        <v>3.38741068757134</v>
       </c>
       <c r="J112" t="n">
-        <v>10.0744827486614</v>
+        <v>6.53774756140961</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>9.73309153779874</v>
+        <v>-4.75982540698621</v>
       </c>
       <c r="B113" t="n">
-        <v>11.7632084491358</v>
+        <v>-4.95759981947583</v>
       </c>
       <c r="C113" t="n">
-        <v>11.343351293699</v>
+        <v>-4.95270121483273</v>
       </c>
       <c r="D113" t="n">
-        <v>12.9393488871981</v>
+        <v>-4.48130528318244</v>
       </c>
       <c r="E113" t="n">
-        <v>12.3338038105665</v>
+        <v>-3.86337445040814</v>
       </c>
       <c r="F113" t="n">
-        <v>12.6050611931117</v>
+        <v>-1.94023941418499</v>
       </c>
       <c r="G113" t="n">
-        <v>12.3362621242957</v>
+        <v>-0.357543186431959</v>
       </c>
       <c r="H113" t="n">
-        <v>12.5534394797172</v>
+        <v>0.776940437487894</v>
       </c>
       <c r="I113" t="n">
-        <v>10.770141308158</v>
+        <v>3.95678664972885</v>
       </c>
       <c r="J113" t="n">
-        <v>11.746398567586</v>
+        <v>6.36927223405598</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.3662706053373</v>
+        <v>-4.57582766267678</v>
       </c>
       <c r="B114" t="n">
-        <v>10.354296609025</v>
+        <v>-5.3104592972226</v>
       </c>
       <c r="C114" t="n">
-        <v>10.1360470953627</v>
+        <v>-5.15504949906576</v>
       </c>
       <c r="D114" t="n">
-        <v>10.7032775172126</v>
+        <v>-4.81892892154951</v>
       </c>
       <c r="E114" t="n">
-        <v>11.1661236546782</v>
+        <v>-3.81234807278081</v>
       </c>
       <c r="F114" t="n">
-        <v>11.7395764270322</v>
+        <v>-2.15019503234821</v>
       </c>
       <c r="G114" t="n">
-        <v>12.1809094054818</v>
+        <v>-0.601443495175636</v>
       </c>
       <c r="H114" t="n">
-        <v>11.2534060853262</v>
+        <v>1.08934430670313</v>
       </c>
       <c r="I114" t="n">
-        <v>11.108572436702</v>
+        <v>3.69018064261925</v>
       </c>
       <c r="J114" t="n">
-        <v>11.5732948950902</v>
+        <v>6.62693888645105</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.7917388215971</v>
+        <v>9.88146316368999</v>
       </c>
       <c r="B115" t="n">
-        <v>11.2893409780279</v>
+        <v>10.9795292906527</v>
       </c>
       <c r="C115" t="n">
-        <v>11.5057512713059</v>
+        <v>11.3572828631389</v>
       </c>
       <c r="D115" t="n">
-        <v>11.7563923693648</v>
+        <v>11.2840283249756</v>
       </c>
       <c r="E115" t="n">
-        <v>11.9242490052453</v>
+        <v>12.5860607602864</v>
       </c>
       <c r="F115" t="n">
-        <v>12.2355897666629</v>
+        <v>11.9913362841654</v>
       </c>
       <c r="G115" t="n">
-        <v>13.0785011834056</v>
+        <v>13.4427617255061</v>
       </c>
       <c r="H115" t="n">
-        <v>13.3010020963368</v>
+        <v>10.7502913152175</v>
       </c>
       <c r="I115" t="n">
-        <v>12.0905641988912</v>
+        <v>10.686231241179</v>
       </c>
       <c r="J115" t="n">
-        <v>10.5912247436227</v>
+        <v>9.6740327751675</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8.98057747168758</v>
+        <v>9.98344443728108</v>
       </c>
       <c r="B116" t="n">
-        <v>11.5747539773361</v>
+        <v>10.3147291995176</v>
       </c>
       <c r="C116" t="n">
-        <v>11.7359493375207</v>
+        <v>12.227471901267</v>
       </c>
       <c r="D116" t="n">
-        <v>12.6117879519817</v>
+        <v>13.2656580916532</v>
       </c>
       <c r="E116" t="n">
-        <v>11.0575289830599</v>
+        <v>12.3606185075952</v>
       </c>
       <c r="F116" t="n">
-        <v>11.9127722621128</v>
+        <v>11.9427904226447</v>
       </c>
       <c r="G116" t="n">
-        <v>12.7218622516056</v>
+        <v>12.8137818612381</v>
       </c>
       <c r="H116" t="n">
-        <v>11.6354739447105</v>
+        <v>11.3822055657345</v>
       </c>
       <c r="I116" t="n">
-        <v>11.5297215662469</v>
+        <v>10.967714543382</v>
       </c>
       <c r="J116" t="n">
-        <v>10.1951521965488</v>
+        <v>11.0668787185586</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.31646463243092</v>
+        <v>10.5927159788201</v>
       </c>
       <c r="B117" t="n">
-        <v>10.5279245625656</v>
+        <v>10.6365646837482</v>
       </c>
       <c r="C117" t="n">
-        <v>11.9229419181659</v>
+        <v>12.8432480028176</v>
       </c>
       <c r="D117" t="n">
-        <v>10.8058769718699</v>
+        <v>10.4077263642506</v>
       </c>
       <c r="E117" t="n">
-        <v>13.480905702602</v>
+        <v>11.5464909819462</v>
       </c>
       <c r="F117" t="n">
-        <v>12.3163657681765</v>
+        <v>12.3077024767392</v>
       </c>
       <c r="G117" t="n">
-        <v>11.8497378702779</v>
+        <v>12.6847377057469</v>
       </c>
       <c r="H117" t="n">
-        <v>12.6745003813067</v>
+        <v>12.5837817945926</v>
       </c>
       <c r="I117" t="n">
-        <v>11.9023664540228</v>
+        <v>11.9515202207665</v>
       </c>
       <c r="J117" t="n">
-        <v>11.3027525690683</v>
+        <v>10.4650924286643</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.9942153865791</v>
+        <v>-5.08053857650151</v>
       </c>
       <c r="B118" t="n">
-        <v>9.99361849640581</v>
+        <v>-5.08025197936932</v>
       </c>
       <c r="C118" t="n">
-        <v>10.7902999819162</v>
+        <v>-5.02886990114739</v>
       </c>
       <c r="D118" t="n">
-        <v>11.9470667823343</v>
+        <v>-4.58698764079036</v>
       </c>
       <c r="E118" t="n">
-        <v>13.5532464689855</v>
+        <v>-3.73823217370934</v>
       </c>
       <c r="F118" t="n">
-        <v>12.1932375852666</v>
+        <v>-2.51988802399032</v>
       </c>
       <c r="G118" t="n">
-        <v>11.9095459961199</v>
+        <v>-0.693012887578293</v>
       </c>
       <c r="H118" t="n">
-        <v>12.1597214302486</v>
+        <v>1.29746655398998</v>
       </c>
       <c r="I118" t="n">
-        <v>12.1272248178215</v>
+        <v>4.04347385891684</v>
       </c>
       <c r="J118" t="n">
-        <v>11.490608023087</v>
+        <v>7.11339989479841</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10.1662267788671</v>
+        <v>-4.78479595893272</v>
       </c>
       <c r="B119" t="n">
-        <v>11.2373519287035</v>
+        <v>-5.56763706929368</v>
       </c>
       <c r="C119" t="n">
-        <v>11.8581117526633</v>
+        <v>-5.54378935121</v>
       </c>
       <c r="D119" t="n">
-        <v>11.7720642334357</v>
+        <v>-4.69492535061526</v>
       </c>
       <c r="E119" t="n">
-        <v>11.984521025148</v>
+        <v>-3.73842935639874</v>
       </c>
       <c r="F119" t="n">
-        <v>11.5605262273445</v>
+        <v>-2.60107259186697</v>
       </c>
       <c r="G119" t="n">
-        <v>12.462807842031</v>
+        <v>-0.72443538112521</v>
       </c>
       <c r="H119" t="n">
-        <v>12.2741427360869</v>
+        <v>1.52734483512663</v>
       </c>
       <c r="I119" t="n">
-        <v>12.6269195510768</v>
+        <v>3.6926061773159</v>
       </c>
       <c r="J119" t="n">
-        <v>11.5770002877247</v>
+        <v>7.03575731142072</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10.3533665032203</v>
+        <v>-5.21278817961566</v>
       </c>
       <c r="B120" t="n">
-        <v>11.3778224307664</v>
+        <v>-5.22734388117689</v>
       </c>
       <c r="C120" t="n">
-        <v>11.9957790883646</v>
+        <v>-4.90923290433249</v>
       </c>
       <c r="D120" t="n">
-        <v>12.8078997886746</v>
+        <v>-4.59585418614608</v>
       </c>
       <c r="E120" t="n">
-        <v>12.5551858514683</v>
+        <v>-3.74367367905811</v>
       </c>
       <c r="F120" t="n">
-        <v>12.9610771367339</v>
+        <v>-2.05708354178218</v>
       </c>
       <c r="G120" t="n">
-        <v>13.1996301979744</v>
+        <v>-0.689954105250787</v>
       </c>
       <c r="H120" t="n">
-        <v>10.9385300944032</v>
+        <v>1.23321925992917</v>
       </c>
       <c r="I120" t="n">
-        <v>11.3364975786818</v>
+        <v>3.69726494722293</v>
       </c>
       <c r="J120" t="n">
-        <v>11.8773737657243</v>
+        <v>6.71368405234861</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.13927805987804</v>
+        <v>10.1857705173223</v>
       </c>
       <c r="B121" t="n">
-        <v>9.72154715979718</v>
+        <v>10.5872260474827</v>
       </c>
       <c r="C121" t="n">
-        <v>10.8772185089732</v>
+        <v>11.3626839468827</v>
       </c>
       <c r="D121" t="n">
-        <v>13.3700711130985</v>
+        <v>12.1546429495886</v>
       </c>
       <c r="E121" t="n">
-        <v>12.0221977277752</v>
+        <v>12.1504824500552</v>
       </c>
       <c r="F121" t="n">
-        <v>11.8218383120402</v>
+        <v>12.5235156413637</v>
       </c>
       <c r="G121" t="n">
-        <v>12.6078297456447</v>
+        <v>13.4458444568208</v>
       </c>
       <c r="H121" t="n">
-        <v>10.5464734288339</v>
+        <v>13.4163598265678</v>
       </c>
       <c r="I121" t="n">
-        <v>11.672821363806</v>
+        <v>12.0762080973017</v>
       </c>
       <c r="J121" t="n">
-        <v>11.5467092589431</v>
+        <v>10.1445673678184</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-5.30402210085695</v>
+        <v>9.62095252916521</v>
       </c>
       <c r="B122" t="n">
-        <v>-5.34063980335698</v>
+        <v>12.0986549364841</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.15282298810942</v>
+        <v>11.1315124184496</v>
       </c>
       <c r="D122" t="n">
-        <v>-4.51619879039727</v>
+        <v>11.9828172380825</v>
       </c>
       <c r="E122" t="n">
-        <v>-3.74412571821795</v>
+        <v>11.5602049447094</v>
       </c>
       <c r="F122" t="n">
-        <v>-2.47216574794994</v>
+        <v>12.5078376159555</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.95301721853863</v>
+        <v>13.3405768276193</v>
       </c>
       <c r="H122" t="n">
-        <v>1.26391094312131</v>
+        <v>13.574921384083</v>
       </c>
       <c r="I122" t="n">
-        <v>3.90617729200922</v>
+        <v>10.7955564707402</v>
       </c>
       <c r="J122" t="n">
-        <v>6.83482292074047</v>
+        <v>11.5656774434372</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.83497807383156</v>
+        <v>-4.86273975449974</v>
       </c>
       <c r="B123" t="n">
-        <v>10.1654404317034</v>
+        <v>-5.48402499556057</v>
       </c>
       <c r="C123" t="n">
-        <v>12.1813657385811</v>
+        <v>-5.23415548918453</v>
       </c>
       <c r="D123" t="n">
-        <v>11.9309353068425</v>
+        <v>-4.26520731256059</v>
       </c>
       <c r="E123" t="n">
-        <v>12.4721833133047</v>
+        <v>-3.79696763652705</v>
       </c>
       <c r="F123" t="n">
-        <v>13.5316196724422</v>
+        <v>-2.57890325899253</v>
       </c>
       <c r="G123" t="n">
-        <v>12.0044319485931</v>
+        <v>-0.902658003244924</v>
       </c>
       <c r="H123" t="n">
-        <v>12.072231245632</v>
+        <v>1.45224632455644</v>
       </c>
       <c r="I123" t="n">
-        <v>11.7851042814126</v>
+        <v>3.85706907942131</v>
       </c>
       <c r="J123" t="n">
-        <v>10.3198718524032</v>
+        <v>6.62484848148219</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.87104007459206</v>
+        <v>9.42385710021417</v>
       </c>
       <c r="B124" t="n">
-        <v>11.1777616582695</v>
+        <v>11.1666963424133</v>
       </c>
       <c r="C124" t="n">
-        <v>11.3978738232522</v>
+        <v>10.2088055025817</v>
       </c>
       <c r="D124" t="n">
-        <v>12.2818352276639</v>
+        <v>11.8733884914854</v>
       </c>
       <c r="E124" t="n">
-        <v>12.3027467946679</v>
+        <v>11.2345318960897</v>
       </c>
       <c r="F124" t="n">
-        <v>12.570434152779</v>
+        <v>13.2054363116614</v>
       </c>
       <c r="G124" t="n">
-        <v>12.556797146418</v>
+        <v>12.8085041348974</v>
       </c>
       <c r="H124" t="n">
-        <v>11.1650790631201</v>
+        <v>12.9885072216842</v>
       </c>
       <c r="I124" t="n">
-        <v>11.6696314025983</v>
+        <v>12.0249929968146</v>
       </c>
       <c r="J124" t="n">
-        <v>10.8050756123171</v>
+        <v>10.0917944944211</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10.9885768804272</v>
+        <v>10.3459610119779</v>
       </c>
       <c r="B125" t="n">
-        <v>11.7335307123928</v>
+        <v>11.0486045471173</v>
       </c>
       <c r="C125" t="n">
-        <v>10.8611677280031</v>
+        <v>12.037542597101</v>
       </c>
       <c r="D125" t="n">
-        <v>11.4059495404965</v>
+        <v>12.6192753141059</v>
       </c>
       <c r="E125" t="n">
-        <v>11.768933805599</v>
+        <v>12.4115888158193</v>
       </c>
       <c r="F125" t="n">
-        <v>11.7026588621361</v>
+        <v>12.8832431352517</v>
       </c>
       <c r="G125" t="n">
-        <v>13.2290875319763</v>
+        <v>12.255314251721</v>
       </c>
       <c r="H125" t="n">
-        <v>13.4808527984995</v>
+        <v>12.2267129917041</v>
       </c>
       <c r="I125" t="n">
-        <v>13.4542529255518</v>
+        <v>11.260555413266</v>
       </c>
       <c r="J125" t="n">
-        <v>10.8280159238558</v>
+        <v>11.4146263818493</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.10745519743541</v>
+        <v>10.586133785118</v>
       </c>
       <c r="B126" t="n">
-        <v>11.937268925669</v>
+        <v>11.3508510438646</v>
       </c>
       <c r="C126" t="n">
-        <v>11.0590824048541</v>
+        <v>11.4317374082129</v>
       </c>
       <c r="D126" t="n">
-        <v>12.0509141928823</v>
+        <v>11.841820756302</v>
       </c>
       <c r="E126" t="n">
-        <v>12.9176472992954</v>
+        <v>13.0767432394609</v>
       </c>
       <c r="F126" t="n">
-        <v>12.8553547506657</v>
+        <v>12.7462844111647</v>
       </c>
       <c r="G126" t="n">
-        <v>13.1759292859259</v>
+        <v>12.4150715394781</v>
       </c>
       <c r="H126" t="n">
-        <v>11.5953388093434</v>
+        <v>13.1597167635811</v>
       </c>
       <c r="I126" t="n">
-        <v>11.5800112397518</v>
+        <v>10.6293647493255</v>
       </c>
       <c r="J126" t="n">
-        <v>11.0528576192613</v>
+        <v>10.6474606329854</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-4.92227290749778</v>
+        <v>9.49814353870439</v>
       </c>
       <c r="B127" t="n">
-        <v>-5.06854973003407</v>
+        <v>10.594714393247</v>
       </c>
       <c r="C127" t="n">
-        <v>-5.71153277391719</v>
+        <v>10.5835274160737</v>
       </c>
       <c r="D127" t="n">
-        <v>-5.03534498238423</v>
+        <v>12.0202617822331</v>
       </c>
       <c r="E127" t="n">
-        <v>-3.86779817912846</v>
+        <v>13.2737870295637</v>
       </c>
       <c r="F127" t="n">
-        <v>-2.98829733006435</v>
+        <v>11.753826758715</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.610319846209847</v>
+        <v>12.2483537928256</v>
       </c>
       <c r="H127" t="n">
-        <v>1.25541170027712</v>
+        <v>11.5403773511333</v>
       </c>
       <c r="I127" t="n">
-        <v>4.21882627775898</v>
+        <v>11.9207219610034</v>
       </c>
       <c r="J127" t="n">
-        <v>6.9470638354601</v>
+        <v>11.7642172682041</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-5.227124899953</v>
+        <v>10.0402280460417</v>
       </c>
       <c r="B128" t="n">
-        <v>-5.36351819038241</v>
+        <v>12.269138679695</v>
       </c>
       <c r="C128" t="n">
-        <v>-4.77625497627925</v>
+        <v>11.3122628072247</v>
       </c>
       <c r="D128" t="n">
-        <v>-4.71321615900746</v>
+        <v>12.8871259219537</v>
       </c>
       <c r="E128" t="n">
-        <v>-3.60057867285666</v>
+        <v>12.4243317987191</v>
       </c>
       <c r="F128" t="n">
-        <v>-2.50447613188952</v>
+        <v>12.7472590156649</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.711438478572597</v>
+        <v>11.6992361144776</v>
       </c>
       <c r="H128" t="n">
-        <v>0.958216792399717</v>
+        <v>11.3061200682464</v>
       </c>
       <c r="I128" t="n">
-        <v>3.58680136390747</v>
+        <v>14.0977863286853</v>
       </c>
       <c r="J128" t="n">
-        <v>6.55386022460531</v>
+        <v>10.8810684240764</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.7028438910733</v>
+        <v>-4.91359395994733</v>
       </c>
       <c r="B129" t="n">
-        <v>12.2719665666649</v>
+        <v>-5.55453124822798</v>
       </c>
       <c r="C129" t="n">
-        <v>12.9993362747557</v>
+        <v>-5.15061352728974</v>
       </c>
       <c r="D129" t="n">
-        <v>12.3576833524214</v>
+        <v>-4.58841313254216</v>
       </c>
       <c r="E129" t="n">
-        <v>12.1797600576834</v>
+        <v>-3.56568600842601</v>
       </c>
       <c r="F129" t="n">
-        <v>11.5970121826861</v>
+        <v>-2.09737723598408</v>
       </c>
       <c r="G129" t="n">
-        <v>12.8678347651524</v>
+        <v>-1.01633962027492</v>
       </c>
       <c r="H129" t="n">
-        <v>12.3023651823934</v>
+        <v>1.47573314522737</v>
       </c>
       <c r="I129" t="n">
-        <v>11.1504592910401</v>
+        <v>3.99992167675947</v>
       </c>
       <c r="J129" t="n">
-        <v>10.909419995122</v>
+        <v>7.14726935449345</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-4.99681930664021</v>
+        <v>9.75652332455382</v>
       </c>
       <c r="B130" t="n">
-        <v>-5.59089070249567</v>
+        <v>10.2554363310649</v>
       </c>
       <c r="C130" t="n">
-        <v>-4.97631897704207</v>
+        <v>11.1563939098802</v>
       </c>
       <c r="D130" t="n">
-        <v>-4.91828165922106</v>
+        <v>11.6232481610532</v>
       </c>
       <c r="E130" t="n">
-        <v>-4.07241510855947</v>
+        <v>13.0337864870162</v>
       </c>
       <c r="F130" t="n">
-        <v>-2.64260943417458</v>
+        <v>11.821195772561</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.834701930558526</v>
+        <v>11.9318486137139</v>
       </c>
       <c r="H130" t="n">
-        <v>1.30862013925778</v>
+        <v>11.7366877956421</v>
       </c>
       <c r="I130" t="n">
-        <v>4.13741592240245</v>
+        <v>9.87582963631749</v>
       </c>
       <c r="J130" t="n">
-        <v>7.0839257266857</v>
+        <v>10.7334471747765</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10.7117723045319</v>
+        <v>9.87837686586468</v>
       </c>
       <c r="B131" t="n">
-        <v>10.9763254803708</v>
+        <v>11.7962206654237</v>
       </c>
       <c r="C131" t="n">
-        <v>10.693669665287</v>
+        <v>11.7869982773373</v>
       </c>
       <c r="D131" t="n">
-        <v>10.7063416608261</v>
+        <v>10.8635604470945</v>
       </c>
       <c r="E131" t="n">
-        <v>13.4515230291786</v>
+        <v>11.6908420399525</v>
       </c>
       <c r="F131" t="n">
-        <v>12.8658081112744</v>
+        <v>13.5066060043563</v>
       </c>
       <c r="G131" t="n">
-        <v>14.4439576155119</v>
+        <v>12.9447272584651</v>
       </c>
       <c r="H131" t="n">
-        <v>13.1809416934074</v>
+        <v>11.4239565459893</v>
       </c>
       <c r="I131" t="n">
-        <v>11.5666659431873</v>
+        <v>11.8841335775521</v>
       </c>
       <c r="J131" t="n">
-        <v>9.5507760075024</v>
+        <v>10.63227576243</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9.52600565713398</v>
+        <v>-4.94436938054406</v>
       </c>
       <c r="B132" t="n">
-        <v>11.0314048871509</v>
+        <v>-5.32899549265787</v>
       </c>
       <c r="C132" t="n">
-        <v>11.0049208845196</v>
+        <v>-5.00779730064257</v>
       </c>
       <c r="D132" t="n">
-        <v>10.8056232426163</v>
+        <v>-4.62131460917587</v>
       </c>
       <c r="E132" t="n">
-        <v>12.4620361892616</v>
+        <v>-4.10494182227397</v>
       </c>
       <c r="F132" t="n">
-        <v>12.6085963244853</v>
+        <v>-2.68214971773222</v>
       </c>
       <c r="G132" t="n">
-        <v>12.1029880618493</v>
+        <v>-1.17931264715936</v>
       </c>
       <c r="H132" t="n">
-        <v>11.6438326552618</v>
+        <v>1.14724054641306</v>
       </c>
       <c r="I132" t="n">
-        <v>10.5708448213702</v>
+        <v>3.83696350595038</v>
       </c>
       <c r="J132" t="n">
-        <v>11.1584587170232</v>
+        <v>6.67941643164026</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>10.7409299424022</v>
+        <v>9.58409214041808</v>
       </c>
       <c r="B133" t="n">
-        <v>11.9446763764453</v>
+        <v>11.6126578865299</v>
       </c>
       <c r="C133" t="n">
-        <v>11.4251526182683</v>
+        <v>11.6503772263342</v>
       </c>
       <c r="D133" t="n">
-        <v>12.1523236660991</v>
+        <v>12.3854312439923</v>
       </c>
       <c r="E133" t="n">
-        <v>12.3147448609012</v>
+        <v>11.7631028469381</v>
       </c>
       <c r="F133" t="n">
-        <v>12.6451869236208</v>
+        <v>13.6474377510834</v>
       </c>
       <c r="G133" t="n">
-        <v>12.1922495513145</v>
+        <v>12.6071670132906</v>
       </c>
       <c r="H133" t="n">
-        <v>13.0422582295315</v>
+        <v>12.2363549231328</v>
       </c>
       <c r="I133" t="n">
-        <v>11.7356062726722</v>
+        <v>12.2479021098503</v>
       </c>
       <c r="J133" t="n">
-        <v>10.8878100454631</v>
+        <v>10.015330523528</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10.0485972980333</v>
+        <v>-4.74825396374024</v>
       </c>
       <c r="B134" t="n">
-        <v>9.0494818848006</v>
+        <v>-4.99815661504631</v>
       </c>
       <c r="C134" t="n">
-        <v>12.5556265399745</v>
+        <v>-4.95241613979887</v>
       </c>
       <c r="D134" t="n">
-        <v>11.6903889864907</v>
+        <v>-4.60036013021902</v>
       </c>
       <c r="E134" t="n">
-        <v>10.9662213954862</v>
+        <v>-3.48372640650791</v>
       </c>
       <c r="F134" t="n">
-        <v>13.4025980863774</v>
+        <v>-2.42313440104367</v>
       </c>
       <c r="G134" t="n">
-        <v>13.564205909245</v>
+        <v>-0.519931904504338</v>
       </c>
       <c r="H134" t="n">
-        <v>12.3076540804729</v>
+        <v>1.31709687520853</v>
       </c>
       <c r="I134" t="n">
-        <v>10.2896137698999</v>
+        <v>3.99029797353845</v>
       </c>
       <c r="J134" t="n">
-        <v>9.84244734398708</v>
+        <v>6.55496642682349</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10.7344003113884</v>
+        <v>10.130980475548</v>
       </c>
       <c r="B135" t="n">
-        <v>10.8691723469383</v>
+        <v>9.94738963248162</v>
       </c>
       <c r="C135" t="n">
-        <v>12.4320772817882</v>
+        <v>10.7399335926305</v>
       </c>
       <c r="D135" t="n">
-        <v>12.2317301095365</v>
+        <v>12.80764055433</v>
       </c>
       <c r="E135" t="n">
-        <v>13.2399573005121</v>
+        <v>13.8524452920248</v>
       </c>
       <c r="F135" t="n">
-        <v>13.4831245376244</v>
+        <v>12.3654241462283</v>
       </c>
       <c r="G135" t="n">
-        <v>12.2925226391917</v>
+        <v>12.2035472191738</v>
       </c>
       <c r="H135" t="n">
-        <v>12.325950774411</v>
+        <v>13.3033778743336</v>
       </c>
       <c r="I135" t="n">
-        <v>12.1380276531685</v>
+        <v>10.8299706462403</v>
       </c>
       <c r="J135" t="n">
-        <v>9.74224363487487</v>
+        <v>9.88789846859368</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.6428207392718</v>
+        <v>11.0497292886246</v>
       </c>
       <c r="B136" t="n">
-        <v>10.3304650159533</v>
+        <v>10.1533907743144</v>
       </c>
       <c r="C136" t="n">
-        <v>11.5429678871333</v>
+        <v>10.925780618919</v>
       </c>
       <c r="D136" t="n">
-        <v>12.6074212345865</v>
+        <v>11.2626977133138</v>
       </c>
       <c r="E136" t="n">
-        <v>12.7081516286501</v>
+        <v>11.346161249806</v>
       </c>
       <c r="F136" t="n">
-        <v>13.3784886596149</v>
+        <v>11.3305914282224</v>
       </c>
       <c r="G136" t="n">
-        <v>11.8842420344322</v>
+        <v>11.5600975087383</v>
       </c>
       <c r="H136" t="n">
-        <v>12.8097632006111</v>
+        <v>12.2632235896091</v>
       </c>
       <c r="I136" t="n">
-        <v>12.6066655348953</v>
+        <v>10.7449220438117</v>
       </c>
       <c r="J136" t="n">
-        <v>11.0535777496316</v>
+        <v>11.1143343142329</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-5.33528197181534</v>
+        <v>-4.86817089989343</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.46793282706455</v>
+        <v>-5.34797344109468</v>
       </c>
       <c r="C137" t="n">
-        <v>-4.85980041054129</v>
+        <v>-4.99027996938638</v>
       </c>
       <c r="D137" t="n">
-        <v>-4.94435323849965</v>
+        <v>-5.0198468979092</v>
       </c>
       <c r="E137" t="n">
-        <v>-4.16150970479257</v>
+        <v>-3.49827980932896</v>
       </c>
       <c r="F137" t="n">
-        <v>-2.47009955384116</v>
+        <v>-2.39815340898757</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.878272960763269</v>
+        <v>-1.09331869937048</v>
       </c>
       <c r="H137" t="n">
-        <v>1.64327335216314</v>
+        <v>1.3954981861888</v>
       </c>
       <c r="I137" t="n">
-        <v>4.18827054881418</v>
+        <v>3.93278200178814</v>
       </c>
       <c r="J137" t="n">
-        <v>7.30935063941109</v>
+        <v>6.64589014838069</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10.4951488333457</v>
+        <v>9.79614742617178</v>
       </c>
       <c r="B138" t="n">
-        <v>11.3087525705614</v>
+        <v>11.0563592374646</v>
       </c>
       <c r="C138" t="n">
-        <v>11.4748166136912</v>
+        <v>10.5834905905005</v>
       </c>
       <c r="D138" t="n">
-        <v>12.5986652281115</v>
+        <v>10.7229485223216</v>
       </c>
       <c r="E138" t="n">
-        <v>12.4425476988659</v>
+        <v>13.1003602837171</v>
       </c>
       <c r="F138" t="n">
-        <v>13.431046919168</v>
+        <v>12.0253800371362</v>
       </c>
       <c r="G138" t="n">
-        <v>11.8773161681781</v>
+        <v>13.0882837298601</v>
       </c>
       <c r="H138" t="n">
-        <v>11.2914468620102</v>
+        <v>11.6754553984856</v>
       </c>
       <c r="I138" t="n">
-        <v>10.9858658336493</v>
+        <v>11.9072866151442</v>
       </c>
       <c r="J138" t="n">
-        <v>11.4305819222142</v>
+        <v>10.8158664197532</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10.4746682974175</v>
+        <v>10.3267935040155</v>
       </c>
       <c r="B139" t="n">
-        <v>10.5089183200472</v>
+        <v>11.4556551332742</v>
       </c>
       <c r="C139" t="n">
-        <v>12.6153356554579</v>
+        <v>12.7332933429149</v>
       </c>
       <c r="D139" t="n">
-        <v>13.2661947181959</v>
+        <v>12.6663353501456</v>
       </c>
       <c r="E139" t="n">
-        <v>11.3490374281957</v>
+        <v>11.7626833013853</v>
       </c>
       <c r="F139" t="n">
-        <v>11.6625446425706</v>
+        <v>13.4863424136145</v>
       </c>
       <c r="G139" t="n">
-        <v>11.9812210811188</v>
+        <v>11.4493480070884</v>
       </c>
       <c r="H139" t="n">
-        <v>12.726429894591</v>
+        <v>12.170917332419</v>
       </c>
       <c r="I139" t="n">
-        <v>11.0856077330588</v>
+        <v>10.7512843751754</v>
       </c>
       <c r="J139" t="n">
-        <v>11.6398641464881</v>
+        <v>11.2056122478824</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10.8294392080313</v>
+        <v>9.7896942495176</v>
       </c>
       <c r="B140" t="n">
-        <v>10.6936997052919</v>
+        <v>11.8661563209558</v>
       </c>
       <c r="C140" t="n">
-        <v>11.8170755458742</v>
+        <v>11.2230226762017</v>
       </c>
       <c r="D140" t="n">
-        <v>11.8192875869155</v>
+        <v>12.857917187714</v>
       </c>
       <c r="E140" t="n">
-        <v>11.9196265975361</v>
+        <v>14.0360617836557</v>
       </c>
       <c r="F140" t="n">
-        <v>11.6413105252307</v>
+        <v>13.3716813076458</v>
       </c>
       <c r="G140" t="n">
-        <v>12.8342282530395</v>
+        <v>11.8037607717596</v>
       </c>
       <c r="H140" t="n">
-        <v>12.7058202094809</v>
+        <v>12.2902050095061</v>
       </c>
       <c r="I140" t="n">
-        <v>11.6230587118567</v>
+        <v>11.5353799428611</v>
       </c>
       <c r="J140" t="n">
-        <v>11.1232910399902</v>
+        <v>12.1062907636056</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.12690551453986</v>
+        <v>8.90022234322139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.6888160612799</v>
+        <v>10.1590771759398</v>
       </c>
       <c r="C141" t="n">
-        <v>11.3785240265771</v>
+        <v>10.8836198484911</v>
       </c>
       <c r="D141" t="n">
-        <v>11.8561939023554</v>
+        <v>12.5206665468376</v>
       </c>
       <c r="E141" t="n">
-        <v>13.1657673280631</v>
+        <v>13.0009610584205</v>
       </c>
       <c r="F141" t="n">
-        <v>11.7880047505598</v>
+        <v>12.1367268386941</v>
       </c>
       <c r="G141" t="n">
-        <v>12.2533265457573</v>
+        <v>13.4992174847361</v>
       </c>
       <c r="H141" t="n">
-        <v>11.7058790766465</v>
+        <v>12.8173059352515</v>
       </c>
       <c r="I141" t="n">
-        <v>12.4012541236136</v>
+        <v>11.204327570843</v>
       </c>
       <c r="J141" t="n">
-        <v>11.095331753539</v>
+        <v>9.5976702710629</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-4.98463295954064</v>
+        <v>11.0562695030225</v>
       </c>
       <c r="B142" t="n">
-        <v>-5.25044788103499</v>
+        <v>11.1458150811877</v>
       </c>
       <c r="C142" t="n">
-        <v>-5.25352520389213</v>
+        <v>10.9336985824391</v>
       </c>
       <c r="D142" t="n">
-        <v>-4.76057593194804</v>
+        <v>12.0581064653367</v>
       </c>
       <c r="E142" t="n">
-        <v>-3.94481157547142</v>
+        <v>11.647582726561</v>
       </c>
       <c r="F142" t="n">
-        <v>-2.20704927402769</v>
+        <v>12.3320319011695</v>
       </c>
       <c r="G142" t="n">
-        <v>-1.163591729904</v>
+        <v>12.1482880405434</v>
       </c>
       <c r="H142" t="n">
-        <v>1.36911431181266</v>
+        <v>11.1488307757079</v>
       </c>
       <c r="I142" t="n">
-        <v>3.60751356025199</v>
+        <v>11.2827208872178</v>
       </c>
       <c r="J142" t="n">
-        <v>6.73976884119968</v>
+        <v>11.3496892515977</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10.0255635210954</v>
+        <v>9.85078129784961</v>
       </c>
       <c r="B143" t="n">
-        <v>11.3857808471486</v>
+        <v>11.3259841036598</v>
       </c>
       <c r="C143" t="n">
-        <v>12.37493010159</v>
+        <v>11.7416254761297</v>
       </c>
       <c r="D143" t="n">
-        <v>11.6669910155445</v>
+        <v>11.6063249390714</v>
       </c>
       <c r="E143" t="n">
-        <v>12.3263781492329</v>
+        <v>11.0805985597077</v>
       </c>
       <c r="F143" t="n">
-        <v>11.2597477240777</v>
+        <v>12.4034141015838</v>
       </c>
       <c r="G143" t="n">
-        <v>11.3141321655377</v>
+        <v>12.5795798314444</v>
       </c>
       <c r="H143" t="n">
-        <v>11.4769207913438</v>
+        <v>12.4027187144785</v>
       </c>
       <c r="I143" t="n">
-        <v>10.72094621336</v>
+        <v>11.7552948959972</v>
       </c>
       <c r="J143" t="n">
-        <v>10.5221491568772</v>
+        <v>12.108767068092</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-5.19560220142345</v>
+        <v>-5.34180159541049</v>
       </c>
       <c r="B144" t="n">
-        <v>-5.61256323313054</v>
+        <v>-4.91881016569493</v>
       </c>
       <c r="C144" t="n">
-        <v>-5.33204758689618</v>
+        <v>-5.23736112077435</v>
       </c>
       <c r="D144" t="n">
-        <v>-4.89176172670058</v>
+        <v>-4.83907810613002</v>
       </c>
       <c r="E144" t="n">
-        <v>-4.15783170116382</v>
+        <v>-3.3785040659353</v>
       </c>
       <c r="F144" t="n">
-        <v>-2.49389699840624</v>
+        <v>-2.28027274869327</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.937693935220007</v>
+        <v>-0.87656264137429</v>
       </c>
       <c r="H144" t="n">
-        <v>1.20836015376615</v>
+        <v>1.42489955338694</v>
       </c>
       <c r="I144" t="n">
-        <v>4.06807674473082</v>
+        <v>3.71604157039184</v>
       </c>
       <c r="J144" t="n">
-        <v>6.85711940889514</v>
+        <v>7.03833106074579</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.3885479603475</v>
+        <v>-5.20536279877998</v>
       </c>
       <c r="B145" t="n">
-        <v>10.8037432219925</v>
+        <v>-5.37376930717406</v>
       </c>
       <c r="C145" t="n">
-        <v>11.6341576331544</v>
+        <v>-5.26880142006555</v>
       </c>
       <c r="D145" t="n">
-        <v>13.2516291231605</v>
+        <v>-4.47002842481159</v>
       </c>
       <c r="E145" t="n">
-        <v>12.6610844562982</v>
+        <v>-3.98850635044188</v>
       </c>
       <c r="F145" t="n">
-        <v>10.8714831175121</v>
+        <v>-2.53584225511982</v>
       </c>
       <c r="G145" t="n">
-        <v>13.0465579118751</v>
+        <v>-0.62048926285886</v>
       </c>
       <c r="H145" t="n">
-        <v>11.8698975272496</v>
+        <v>1.24849402466094</v>
       </c>
       <c r="I145" t="n">
-        <v>11.3598273754288</v>
+        <v>3.8480834147041</v>
       </c>
       <c r="J145" t="n">
-        <v>11.3747838354586</v>
+        <v>7.20333232399483</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>11.0816641118446</v>
+        <v>-4.89241578404023</v>
       </c>
       <c r="B146" t="n">
-        <v>11.4317507886393</v>
+        <v>-5.85448092655413</v>
       </c>
       <c r="C146" t="n">
-        <v>11.6892188595371</v>
+        <v>-5.48561271303483</v>
       </c>
       <c r="D146" t="n">
-        <v>12.0255290107756</v>
+        <v>-4.64389349432382</v>
       </c>
       <c r="E146" t="n">
-        <v>12.896616744561</v>
+        <v>-3.89859656527645</v>
       </c>
       <c r="F146" t="n">
-        <v>13.1846710991904</v>
+        <v>-2.24356497136228</v>
       </c>
       <c r="G146" t="n">
-        <v>12.2668469852923</v>
+        <v>-1.08704352048494</v>
       </c>
       <c r="H146" t="n">
-        <v>11.9829205119946</v>
+        <v>1.047449765298</v>
       </c>
       <c r="I146" t="n">
-        <v>10.7558483081537</v>
+        <v>3.52045812371888</v>
       </c>
       <c r="J146" t="n">
-        <v>9.25848364651686</v>
+        <v>6.40423673603996</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>9.16277586321228</v>
+        <v>10.3691297757522</v>
       </c>
       <c r="B147" t="n">
-        <v>11.2893584258282</v>
+        <v>12.6547110806851</v>
       </c>
       <c r="C147" t="n">
-        <v>12.197983791351</v>
+        <v>13.3486653692308</v>
       </c>
       <c r="D147" t="n">
-        <v>11.731002546051</v>
+        <v>11.9309184661401</v>
       </c>
       <c r="E147" t="n">
-        <v>12.6884460391008</v>
+        <v>11.6378405087841</v>
       </c>
       <c r="F147" t="n">
-        <v>11.6035001507956</v>
+        <v>12.6172554011984</v>
       </c>
       <c r="G147" t="n">
-        <v>12.836767826776</v>
+        <v>12.3368299846376</v>
       </c>
       <c r="H147" t="n">
-        <v>11.6777619757338</v>
+        <v>12.0494748035222</v>
       </c>
       <c r="I147" t="n">
-        <v>11.0193212459038</v>
+        <v>11.5444611755231</v>
       </c>
       <c r="J147" t="n">
-        <v>9.71734209286683</v>
+        <v>11.1689914904195</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.0209075701685</v>
+        <v>8.60341351133065</v>
       </c>
       <c r="B148" t="n">
-        <v>10.8663906497109</v>
+        <v>10.1216733803711</v>
       </c>
       <c r="C148" t="n">
-        <v>13.2543378146469</v>
+        <v>12.2180119464994</v>
       </c>
       <c r="D148" t="n">
-        <v>11.5428283530123</v>
+        <v>12.5548984572327</v>
       </c>
       <c r="E148" t="n">
-        <v>13.0965195564728</v>
+        <v>12.6040010825117</v>
       </c>
       <c r="F148" t="n">
-        <v>11.6504072336105</v>
+        <v>13.6689544676792</v>
       </c>
       <c r="G148" t="n">
-        <v>12.5777288544241</v>
+        <v>11.5193779701865</v>
       </c>
       <c r="H148" t="n">
-        <v>11.869346580717</v>
+        <v>9.68184355099822</v>
       </c>
       <c r="I148" t="n">
-        <v>11.6410621434368</v>
+        <v>11.2776954540088</v>
       </c>
       <c r="J148" t="n">
-        <v>10.8541962113598</v>
+        <v>10.3569950401088</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.4553891520144</v>
+        <v>9.53186979784422</v>
       </c>
       <c r="B149" t="n">
-        <v>10.9751863998734</v>
+        <v>10.1016292522749</v>
       </c>
       <c r="C149" t="n">
-        <v>11.5160583218766</v>
+        <v>12.3211918213506</v>
       </c>
       <c r="D149" t="n">
-        <v>12.3740481795371</v>
+        <v>12.5936310486804</v>
       </c>
       <c r="E149" t="n">
-        <v>12.1937270950217</v>
+        <v>13.3488701276854</v>
       </c>
       <c r="F149" t="n">
-        <v>12.0029187423014</v>
+        <v>13.0431384935557</v>
       </c>
       <c r="G149" t="n">
-        <v>13.3099294211981</v>
+        <v>12.8844092563798</v>
       </c>
       <c r="H149" t="n">
-        <v>12.2650108387893</v>
+        <v>11.6813397935354</v>
       </c>
       <c r="I149" t="n">
-        <v>11.7272273543546</v>
+        <v>12.5301136939731</v>
       </c>
       <c r="J149" t="n">
-        <v>10.6718214658574</v>
+        <v>11.2426462065851</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.59596994942455</v>
+        <v>9.7656118697021</v>
       </c>
       <c r="B150" t="n">
-        <v>10.8164438566748</v>
+        <v>11.3802626104101</v>
       </c>
       <c r="C150" t="n">
-        <v>12.3476009276612</v>
+        <v>11.8162108892929</v>
       </c>
       <c r="D150" t="n">
-        <v>12.2927219252768</v>
+        <v>11.7639428084807</v>
       </c>
       <c r="E150" t="n">
-        <v>12.1836768277767</v>
+        <v>12.4889158659261</v>
       </c>
       <c r="F150" t="n">
-        <v>13.6066494089674</v>
+        <v>12.6896945172711</v>
       </c>
       <c r="G150" t="n">
-        <v>12.4013555644339</v>
+        <v>11.7688109119765</v>
       </c>
       <c r="H150" t="n">
-        <v>12.2733820692281</v>
+        <v>11.6397018453134</v>
       </c>
       <c r="I150" t="n">
-        <v>11.4184599581023</v>
+        <v>12.1519935530243</v>
       </c>
       <c r="J150" t="n">
-        <v>9.33876091655399</v>
+        <v>11.3314456573561</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10.1714893071588</v>
+        <v>-4.54134473677353</v>
       </c>
       <c r="B151" t="n">
-        <v>11.7664606327297</v>
+        <v>-4.80386638392675</v>
       </c>
       <c r="C151" t="n">
-        <v>12.3513257372435</v>
+        <v>-4.92941737171437</v>
       </c>
       <c r="D151" t="n">
-        <v>12.1599090111929</v>
+        <v>-4.46000768669058</v>
       </c>
       <c r="E151" t="n">
-        <v>12.8770796112244</v>
+        <v>-4.171730849746</v>
       </c>
       <c r="F151" t="n">
-        <v>12.9430820836084</v>
+        <v>-2.31420041100392</v>
       </c>
       <c r="G151" t="n">
-        <v>11.6503395367693</v>
+        <v>-0.852028230102103</v>
       </c>
       <c r="H151" t="n">
-        <v>13.7798145815863</v>
+        <v>1.37148179661698</v>
       </c>
       <c r="I151" t="n">
-        <v>11.1366723680881</v>
+        <v>4.09908796059473</v>
       </c>
       <c r="J151" t="n">
-        <v>10.8752295117969</v>
+        <v>6.99658974666511</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9.57813384491784</v>
+        <v>9.60058107515711</v>
       </c>
       <c r="B152" t="n">
-        <v>10.7965492097667</v>
+        <v>11.48633967125</v>
       </c>
       <c r="C152" t="n">
-        <v>10.8602541542179</v>
+        <v>12.2304772788573</v>
       </c>
       <c r="D152" t="n">
-        <v>12.3446785270036</v>
+        <v>12.3075958736641</v>
       </c>
       <c r="E152" t="n">
-        <v>12.0080656128955</v>
+        <v>12.5199210356324</v>
       </c>
       <c r="F152" t="n">
-        <v>11.6741634090631</v>
+        <v>12.4724572507346</v>
       </c>
       <c r="G152" t="n">
-        <v>10.7049269785383</v>
+        <v>11.3702362870294</v>
       </c>
       <c r="H152" t="n">
-        <v>10.9509844361551</v>
+        <v>12.3501410424124</v>
       </c>
       <c r="I152" t="n">
-        <v>12.6066909321796</v>
+        <v>11.4282281358072</v>
       </c>
       <c r="J152" t="n">
-        <v>12.7234115113166</v>
+        <v>10.5798175409513</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.83756920370574</v>
+        <v>8.87427544791474</v>
       </c>
       <c r="B153" t="n">
-        <v>10.2384182246948</v>
+        <v>11.4377323003445</v>
       </c>
       <c r="C153" t="n">
-        <v>12.9878806959697</v>
+        <v>12.4730300568443</v>
       </c>
       <c r="D153" t="n">
-        <v>11.7699020731401</v>
+        <v>11.0793071488788</v>
       </c>
       <c r="E153" t="n">
-        <v>13.4678247880277</v>
+        <v>12.7026444100877</v>
       </c>
       <c r="F153" t="n">
-        <v>12.3744488890453</v>
+        <v>11.9726068056462</v>
       </c>
       <c r="G153" t="n">
-        <v>12.315381568361</v>
+        <v>10.5675435808366</v>
       </c>
       <c r="H153" t="n">
-        <v>13.139600191726</v>
+        <v>12.4749770153374</v>
       </c>
       <c r="I153" t="n">
-        <v>10.6553854036529</v>
+        <v>10.3941190745084</v>
       </c>
       <c r="J153" t="n">
-        <v>11.266257089802</v>
+        <v>10.4732745902198</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.66830505292897</v>
+        <v>-5.21831312316834</v>
       </c>
       <c r="B154" t="n">
-        <v>10.4186258940615</v>
+        <v>-4.96884162984606</v>
       </c>
       <c r="C154" t="n">
-        <v>12.2412457349423</v>
+        <v>-5.26627056238647</v>
       </c>
       <c r="D154" t="n">
-        <v>12.1520450483793</v>
+        <v>-4.71881586563824</v>
       </c>
       <c r="E154" t="n">
-        <v>10.3400117490347</v>
+        <v>-3.98536762012058</v>
       </c>
       <c r="F154" t="n">
-        <v>13.6607913218281</v>
+        <v>-2.80763438206535</v>
       </c>
       <c r="G154" t="n">
-        <v>12.8952967614328</v>
+        <v>-0.702474231355275</v>
       </c>
       <c r="H154" t="n">
-        <v>12.9472583041642</v>
+        <v>1.41539849254999</v>
       </c>
       <c r="I154" t="n">
-        <v>12.9346262050084</v>
+        <v>4.27691134406341</v>
       </c>
       <c r="J154" t="n">
-        <v>8.80592672616318</v>
+        <v>6.85626593508996</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10.7040189339183</v>
+        <v>10.1664042277696</v>
       </c>
       <c r="B155" t="n">
-        <v>10.6698144375589</v>
+        <v>12.0923347893314</v>
       </c>
       <c r="C155" t="n">
-        <v>12.210300534974</v>
+        <v>10.5440202239119</v>
       </c>
       <c r="D155" t="n">
-        <v>10.6509571634401</v>
+        <v>13.1071975633281</v>
       </c>
       <c r="E155" t="n">
-        <v>11.5099085387961</v>
+        <v>11.8698821730065</v>
       </c>
       <c r="F155" t="n">
-        <v>13.2239171049726</v>
+        <v>12.0432405668288</v>
       </c>
       <c r="G155" t="n">
-        <v>11.3837846086498</v>
+        <v>14.1879647123178</v>
       </c>
       <c r="H155" t="n">
-        <v>12.5291690495905</v>
+        <v>11.7550191578083</v>
       </c>
       <c r="I155" t="n">
-        <v>11.8679972346053</v>
+        <v>11.0977388083176</v>
       </c>
       <c r="J155" t="n">
-        <v>9.56429439108874</v>
+        <v>11.2158124696917</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9.84144568781986</v>
+        <v>9.2459457361954</v>
       </c>
       <c r="B156" t="n">
-        <v>10.462800766199</v>
+        <v>11.233373177515</v>
       </c>
       <c r="C156" t="n">
-        <v>12.302123112999</v>
+        <v>12.5877421500718</v>
       </c>
       <c r="D156" t="n">
-        <v>11.7799123047812</v>
+        <v>13.2099185033957</v>
       </c>
       <c r="E156" t="n">
-        <v>12.7382017712501</v>
+        <v>12.33876402995</v>
       </c>
       <c r="F156" t="n">
-        <v>12.4353619418748</v>
+        <v>13.065539627197</v>
       </c>
       <c r="G156" t="n">
-        <v>12.5186944594181</v>
+        <v>13.6377789136338</v>
       </c>
       <c r="H156" t="n">
-        <v>12.3451304962092</v>
+        <v>12.5607024002051</v>
       </c>
       <c r="I156" t="n">
-        <v>10.242178003097</v>
+        <v>12.6762264273746</v>
       </c>
       <c r="J156" t="n">
-        <v>11.6888210044942</v>
+        <v>10.0589099934171</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>11.0769309671261</v>
+        <v>9.82171662404629</v>
       </c>
       <c r="B157" t="n">
-        <v>10.8657602227608</v>
+        <v>11.0643263115293</v>
       </c>
       <c r="C157" t="n">
-        <v>10.249897943138</v>
+        <v>12.3838094756005</v>
       </c>
       <c r="D157" t="n">
-        <v>13.2765697358079</v>
+        <v>12.6122276174549</v>
       </c>
       <c r="E157" t="n">
-        <v>11.0104106483883</v>
+        <v>12.6488020091603</v>
       </c>
       <c r="F157" t="n">
-        <v>12.4709548455358</v>
+        <v>13.1454117553907</v>
       </c>
       <c r="G157" t="n">
-        <v>12.9100925278192</v>
+        <v>11.9890273554954</v>
       </c>
       <c r="H157" t="n">
-        <v>12.3926068505486</v>
+        <v>12.3779170210927</v>
       </c>
       <c r="I157" t="n">
-        <v>11.4554078952343</v>
+        <v>10.4239246401841</v>
       </c>
       <c r="J157" t="n">
-        <v>9.78626242273098</v>
+        <v>11.8944812588065</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.5394987936564</v>
+        <v>9.68996864131666</v>
       </c>
       <c r="B158" t="n">
-        <v>10.0492054664717</v>
+        <v>11.322364168686</v>
       </c>
       <c r="C158" t="n">
-        <v>12.1465069957177</v>
+        <v>13.7037015742837</v>
       </c>
       <c r="D158" t="n">
-        <v>13.5912744876454</v>
+        <v>12.1462336480789</v>
       </c>
       <c r="E158" t="n">
-        <v>12.7736616056106</v>
+        <v>12.0460656554756</v>
       </c>
       <c r="F158" t="n">
-        <v>12.3589700639264</v>
+        <v>11.9772060598388</v>
       </c>
       <c r="G158" t="n">
-        <v>12.9398097126201</v>
+        <v>12.4609159862474</v>
       </c>
       <c r="H158" t="n">
-        <v>13.3264152125268</v>
+        <v>12.4119065509644</v>
       </c>
       <c r="I158" t="n">
-        <v>11.357358872865</v>
+        <v>11.5806472192313</v>
       </c>
       <c r="J158" t="n">
-        <v>10.4288035916533</v>
+        <v>10.6584835780452</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.0834243696267</v>
+        <v>11.8154050639026</v>
       </c>
       <c r="B159" t="n">
-        <v>9.96113887494532</v>
+        <v>10.7235030592755</v>
       </c>
       <c r="C159" t="n">
-        <v>11.6127664373755</v>
+        <v>11.3728290466348</v>
       </c>
       <c r="D159" t="n">
-        <v>12.9876318489865</v>
+        <v>11.2883574125236</v>
       </c>
       <c r="E159" t="n">
-        <v>11.394239693815</v>
+        <v>12.9001663051693</v>
       </c>
       <c r="F159" t="n">
-        <v>12.6766619349222</v>
+        <v>12.0721643975793</v>
       </c>
       <c r="G159" t="n">
-        <v>13.1930189012364</v>
+        <v>12.2436546282799</v>
       </c>
       <c r="H159" t="n">
-        <v>11.8408884640178</v>
+        <v>12.3555105457353</v>
       </c>
       <c r="I159" t="n">
-        <v>11.2188661210037</v>
+        <v>12.0272761583857</v>
       </c>
       <c r="J159" t="n">
-        <v>10.1455650819047</v>
+        <v>10.2379282775038</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>11.3208472919519</v>
+        <v>9.76892015503627</v>
       </c>
       <c r="B160" t="n">
-        <v>10.6962068881199</v>
+        <v>10.3266867152619</v>
       </c>
       <c r="C160" t="n">
-        <v>12.1047256632508</v>
+        <v>11.9067528815958</v>
       </c>
       <c r="D160" t="n">
-        <v>13.1844343111499</v>
+        <v>11.6763462768482</v>
       </c>
       <c r="E160" t="n">
-        <v>12.6025692670767</v>
+        <v>12.4351524469659</v>
       </c>
       <c r="F160" t="n">
-        <v>13.0697678766036</v>
+        <v>12.8061730513069</v>
       </c>
       <c r="G160" t="n">
-        <v>11.7807661793337</v>
+        <v>12.3052961440298</v>
       </c>
       <c r="H160" t="n">
-        <v>12.569884849551</v>
+        <v>11.1580026898066</v>
       </c>
       <c r="I160" t="n">
-        <v>10.5150767058183</v>
+        <v>11.2893991437926</v>
       </c>
       <c r="J160" t="n">
-        <v>10.4059941966007</v>
+        <v>10.3022294751929</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9.77002473530874</v>
+        <v>10.3053226999234</v>
       </c>
       <c r="B161" t="n">
-        <v>10.7645822814184</v>
+        <v>11.032087739087</v>
       </c>
       <c r="C161" t="n">
-        <v>12.2598323550093</v>
+        <v>12.885227512907</v>
       </c>
       <c r="D161" t="n">
-        <v>11.7323770658259</v>
+        <v>12.5434588157726</v>
       </c>
       <c r="E161" t="n">
-        <v>13.3614634492856</v>
+        <v>12.3987821410311</v>
       </c>
       <c r="F161" t="n">
-        <v>13.0696515681957</v>
+        <v>12.535040206808</v>
       </c>
       <c r="G161" t="n">
-        <v>12.2320990688714</v>
+        <v>12.3783008197353</v>
       </c>
       <c r="H161" t="n">
-        <v>13.5528370083546</v>
+        <v>12.9679600473165</v>
       </c>
       <c r="I161" t="n">
-        <v>12.1317801365572</v>
+        <v>11.1065797169676</v>
       </c>
       <c r="J161" t="n">
-        <v>11.5063527342006</v>
+        <v>11.3277002208671</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-5.34081125015233</v>
+        <v>9.45050932752809</v>
       </c>
       <c r="B162" t="n">
-        <v>-4.86241146910258</v>
+        <v>11.1376060830058</v>
       </c>
       <c r="C162" t="n">
-        <v>-4.99459933395393</v>
+        <v>10.3977947481201</v>
       </c>
       <c r="D162" t="n">
-        <v>-4.64759947444157</v>
+        <v>12.302291105888</v>
       </c>
       <c r="E162" t="n">
-        <v>-4.09778776008797</v>
+        <v>11.668853557275</v>
       </c>
       <c r="F162" t="n">
-        <v>-2.61167298350674</v>
+        <v>12.4844744516659</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.365194940460143</v>
+        <v>13.184686655037</v>
       </c>
       <c r="H162" t="n">
-        <v>0.87192943953874</v>
+        <v>11.6546948371699</v>
       </c>
       <c r="I162" t="n">
-        <v>3.60475046070023</v>
+        <v>10.9712309986702</v>
       </c>
       <c r="J162" t="n">
-        <v>6.24844267405981</v>
+        <v>11.6270841325444</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>11.0274086367728</v>
+        <v>9.86463126807775</v>
       </c>
       <c r="B163" t="n">
-        <v>11.7736963461531</v>
+        <v>11.0763718846612</v>
       </c>
       <c r="C163" t="n">
-        <v>10.9896869316891</v>
+        <v>11.7173748044903</v>
       </c>
       <c r="D163" t="n">
-        <v>12.7891935302346</v>
+        <v>11.1600185199963</v>
       </c>
       <c r="E163" t="n">
-        <v>12.7986463198322</v>
+        <v>12.4927972438562</v>
       </c>
       <c r="F163" t="n">
-        <v>11.1332128151604</v>
+        <v>12.8188798544781</v>
       </c>
       <c r="G163" t="n">
-        <v>12.9383240327916</v>
+        <v>11.3921942116366</v>
       </c>
       <c r="H163" t="n">
-        <v>10.9406905892292</v>
+        <v>12.1839639242109</v>
       </c>
       <c r="I163" t="n">
-        <v>10.9092963144039</v>
+        <v>10.8624975537378</v>
       </c>
       <c r="J163" t="n">
-        <v>13.9068418671984</v>
+        <v>10.7419869638477</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9.79584402947046</v>
+        <v>8.94985598070067</v>
       </c>
       <c r="B164" t="n">
-        <v>10.5070385391296</v>
+        <v>11.1471290795596</v>
       </c>
       <c r="C164" t="n">
-        <v>11.3262836882296</v>
+        <v>10.198830496957</v>
       </c>
       <c r="D164" t="n">
-        <v>12.6746689545886</v>
+        <v>12.0696888773017</v>
       </c>
       <c r="E164" t="n">
-        <v>14.0086185091701</v>
+        <v>11.7868943083923</v>
       </c>
       <c r="F164" t="n">
-        <v>12.480313067688</v>
+        <v>12.1445226777879</v>
       </c>
       <c r="G164" t="n">
-        <v>12.5943801768096</v>
+        <v>12.1982201270605</v>
       </c>
       <c r="H164" t="n">
-        <v>11.6956431033069</v>
+        <v>11.5772771140176</v>
       </c>
       <c r="I164" t="n">
-        <v>11.9085347849334</v>
+        <v>10.5795614638506</v>
       </c>
       <c r="J164" t="n">
-        <v>10.0498991250578</v>
+        <v>10.7413182050294</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-5.13955372337222</v>
+        <v>10.4536016310743</v>
       </c>
       <c r="B165" t="n">
-        <v>-5.67265285107664</v>
+        <v>10.8638364339779</v>
       </c>
       <c r="C165" t="n">
-        <v>-4.98951417628002</v>
+        <v>10.8800589137446</v>
       </c>
       <c r="D165" t="n">
-        <v>-4.40730016399323</v>
+        <v>11.0421037544592</v>
       </c>
       <c r="E165" t="n">
-        <v>-3.92111029440546</v>
+        <v>12.7903655480731</v>
       </c>
       <c r="F165" t="n">
-        <v>-2.61982119189528</v>
+        <v>11.1298134626866</v>
       </c>
       <c r="G165" t="n">
-        <v>-0.755218818233722</v>
+        <v>12.5107740351225</v>
       </c>
       <c r="H165" t="n">
-        <v>1.27988149106733</v>
+        <v>12.6064330994629</v>
       </c>
       <c r="I165" t="n">
-        <v>3.12746728772036</v>
+        <v>11.5539808181502</v>
       </c>
       <c r="J165" t="n">
-        <v>6.64061903364662</v>
+        <v>10.5152073599817</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-4.98267871484907</v>
+        <v>-4.78899107443248</v>
       </c>
       <c r="B166" t="n">
-        <v>-5.13166547308813</v>
+        <v>-5.0383751860609</v>
       </c>
       <c r="C166" t="n">
-        <v>-4.81543425083922</v>
+        <v>-5.63713813292447</v>
       </c>
       <c r="D166" t="n">
-        <v>-5.05019244081119</v>
+        <v>-4.70344498646046</v>
       </c>
       <c r="E166" t="n">
-        <v>-3.59129605871765</v>
+        <v>-3.76615936288438</v>
       </c>
       <c r="F166" t="n">
-        <v>-2.17906059615007</v>
+        <v>-2.19324372075954</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.700247312215513</v>
+        <v>-1.2879665589653</v>
       </c>
       <c r="H166" t="n">
-        <v>0.930997710457942</v>
+        <v>1.01896583722165</v>
       </c>
       <c r="I166" t="n">
-        <v>3.47452762191555</v>
+        <v>3.80715102537157</v>
       </c>
       <c r="J166" t="n">
-        <v>6.83477574368721</v>
+        <v>7.16337206074357</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.51035681062555</v>
+        <v>-5.23102011935222</v>
       </c>
       <c r="B167" t="n">
-        <v>11.2968458092558</v>
+        <v>-5.01298479823766</v>
       </c>
       <c r="C167" t="n">
-        <v>12.0599086648834</v>
+        <v>-5.72476912089308</v>
       </c>
       <c r="D167" t="n">
-        <v>11.0540620720941</v>
+        <v>-4.52469314263249</v>
       </c>
       <c r="E167" t="n">
-        <v>12.6543962846425</v>
+        <v>-3.42891630064775</v>
       </c>
       <c r="F167" t="n">
-        <v>11.7339333090943</v>
+        <v>-2.33457594671787</v>
       </c>
       <c r="G167" t="n">
-        <v>10.9135964116152</v>
+        <v>-0.691336726948218</v>
       </c>
       <c r="H167" t="n">
-        <v>12.1465979895483</v>
+        <v>1.39503229767596</v>
       </c>
       <c r="I167" t="n">
-        <v>9.71575539514892</v>
+        <v>3.26143975876636</v>
       </c>
       <c r="J167" t="n">
-        <v>10.0530723156643</v>
+        <v>6.68525023833106</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>9.79324859039383</v>
+        <v>-5.17171401898795</v>
       </c>
       <c r="B168" t="n">
-        <v>11.4336699687198</v>
+        <v>-5.03251398198372</v>
       </c>
       <c r="C168" t="n">
-        <v>11.0912286928832</v>
+        <v>-5.37218833489972</v>
       </c>
       <c r="D168" t="n">
-        <v>11.7791607413619</v>
+        <v>-4.7812161160817</v>
       </c>
       <c r="E168" t="n">
-        <v>11.270879238116</v>
+        <v>-3.83377937720443</v>
       </c>
       <c r="F168" t="n">
-        <v>13.3565633009918</v>
+        <v>-2.39949648385479</v>
       </c>
       <c r="G168" t="n">
-        <v>11.5193480943587</v>
+        <v>-0.858134118140839</v>
       </c>
       <c r="H168" t="n">
-        <v>13.1994304841991</v>
+        <v>1.17721879659258</v>
       </c>
       <c r="I168" t="n">
-        <v>11.3965837255156</v>
+        <v>3.81283556958354</v>
       </c>
       <c r="J168" t="n">
-        <v>11.0795754081987</v>
+        <v>6.60444818621709</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9.23622160374099</v>
+        <v>-5.06895510788841</v>
       </c>
       <c r="B169" t="n">
-        <v>11.0111885437948</v>
+        <v>-5.47302497854336</v>
       </c>
       <c r="C169" t="n">
-        <v>11.6539705886396</v>
+        <v>-5.30754915888564</v>
       </c>
       <c r="D169" t="n">
-        <v>10.2138395248218</v>
+        <v>-4.35777335628501</v>
       </c>
       <c r="E169" t="n">
-        <v>13.4516626621332</v>
+        <v>-3.7361508100175</v>
       </c>
       <c r="F169" t="n">
-        <v>13.0228396394235</v>
+        <v>-2.21564646662364</v>
       </c>
       <c r="G169" t="n">
-        <v>12.3668324840648</v>
+        <v>-0.85439648802394</v>
       </c>
       <c r="H169" t="n">
-        <v>13.1296339559817</v>
+        <v>1.03354504626407</v>
       </c>
       <c r="I169" t="n">
-        <v>11.803919852501</v>
+        <v>3.82225720621774</v>
       </c>
       <c r="J169" t="n">
-        <v>11.0789897211984</v>
+        <v>6.20508025412845</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-5.03310617069183</v>
+        <v>8.61356063809818</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.26408826607076</v>
+        <v>10.1954941544032</v>
       </c>
       <c r="C170" t="n">
-        <v>-4.97316095855635</v>
+        <v>11.5886050756141</v>
       </c>
       <c r="D170" t="n">
-        <v>-4.59967436628449</v>
+        <v>14.0490102253971</v>
       </c>
       <c r="E170" t="n">
-        <v>-3.41787608228263</v>
+        <v>12.5190447246549</v>
       </c>
       <c r="F170" t="n">
-        <v>-2.09806957097284</v>
+        <v>12.4445093224639</v>
       </c>
       <c r="G170" t="n">
-        <v>-0.620690164412767</v>
+        <v>11.8566634982195</v>
       </c>
       <c r="H170" t="n">
-        <v>1.30146773321221</v>
+        <v>10.8215643465026</v>
       </c>
       <c r="I170" t="n">
-        <v>3.53333544015009</v>
+        <v>11.1041408553674</v>
       </c>
       <c r="J170" t="n">
-        <v>6.46764054737641</v>
+        <v>11.0212274092134</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.0607821674159</v>
+        <v>9.5365793627271</v>
       </c>
       <c r="B171" t="n">
-        <v>10.689979155457</v>
+        <v>11.2810755249273</v>
       </c>
       <c r="C171" t="n">
-        <v>11.4430011595714</v>
+        <v>12.1438744380472</v>
       </c>
       <c r="D171" t="n">
-        <v>11.2025100982474</v>
+        <v>13.8100275757364</v>
       </c>
       <c r="E171" t="n">
-        <v>11.2965208293788</v>
+        <v>13.724274622221</v>
       </c>
       <c r="F171" t="n">
-        <v>12.2097938655818</v>
+        <v>12.4734622984631</v>
       </c>
       <c r="G171" t="n">
-        <v>13.1401059444107</v>
+        <v>13.0304907014131</v>
       </c>
       <c r="H171" t="n">
-        <v>12.5194864926156</v>
+        <v>12.516640718787</v>
       </c>
       <c r="I171" t="n">
-        <v>10.2872449877829</v>
+        <v>12.7292216330013</v>
       </c>
       <c r="J171" t="n">
-        <v>11.6562683257399</v>
+        <v>11.3054694999626</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-4.74335557289683</v>
+        <v>-5.22374640878667</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.15095768390782</v>
+        <v>-5.33283310634063</v>
       </c>
       <c r="C172" t="n">
-        <v>-5.09730053922736</v>
+        <v>-5.51888200090784</v>
       </c>
       <c r="D172" t="n">
-        <v>-4.71769277752198</v>
+        <v>-4.69055321789572</v>
       </c>
       <c r="E172" t="n">
-        <v>-3.53025597031292</v>
+        <v>-3.7641565898538</v>
       </c>
       <c r="F172" t="n">
-        <v>-2.63739420744085</v>
+        <v>-2.25881777334014</v>
       </c>
       <c r="G172" t="n">
-        <v>-1.43496964213412</v>
+        <v>-1.14177275399837</v>
       </c>
       <c r="H172" t="n">
-        <v>1.23095152485206</v>
+        <v>1.15876500275424</v>
       </c>
       <c r="I172" t="n">
-        <v>4.35398336941507</v>
+        <v>3.85438847943397</v>
       </c>
       <c r="J172" t="n">
-        <v>6.55611851282583</v>
+        <v>7.0073267775142</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10.0834972727115</v>
+        <v>10.0121295693628</v>
       </c>
       <c r="B173" t="n">
-        <v>11.1746014646523</v>
+        <v>10.4711113003016</v>
       </c>
       <c r="C173" t="n">
-        <v>10.6962956325304</v>
+        <v>10.8509203503667</v>
       </c>
       <c r="D173" t="n">
-        <v>11.0162138281602</v>
+        <v>13.2798754539536</v>
       </c>
       <c r="E173" t="n">
-        <v>10.3547053845028</v>
+        <v>12.1276396498961</v>
       </c>
       <c r="F173" t="n">
-        <v>12.2778338466217</v>
+        <v>11.9233933243747</v>
       </c>
       <c r="G173" t="n">
-        <v>12.4444726116876</v>
+        <v>13.1601059644838</v>
       </c>
       <c r="H173" t="n">
-        <v>10.5813913095222</v>
+        <v>11.9094783184001</v>
       </c>
       <c r="I173" t="n">
-        <v>10.9553405181131</v>
+        <v>10.7216964609804</v>
       </c>
       <c r="J173" t="n">
-        <v>10.7394112012919</v>
+        <v>10.7109781765904</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-4.53321735604503</v>
+        <v>-4.77764414594732</v>
       </c>
       <c r="B174" t="n">
-        <v>-5.37200528936776</v>
+        <v>-5.36877208350933</v>
       </c>
       <c r="C174" t="n">
-        <v>-5.33003972122465</v>
+        <v>-5.12651527734736</v>
       </c>
       <c r="D174" t="n">
-        <v>-4.38232935380283</v>
+        <v>-4.73904280881829</v>
       </c>
       <c r="E174" t="n">
-        <v>-3.40728947025629</v>
+        <v>-3.95571020043121</v>
       </c>
       <c r="F174" t="n">
-        <v>-2.20590159676517</v>
+        <v>-2.71703594508658</v>
       </c>
       <c r="G174" t="n">
-        <v>-0.573983282609819</v>
+        <v>-0.965995137154792</v>
       </c>
       <c r="H174" t="n">
-        <v>1.67748433223154</v>
+        <v>0.962303306287076</v>
       </c>
       <c r="I174" t="n">
-        <v>3.99052203732782</v>
+        <v>3.4907675606529</v>
       </c>
       <c r="J174" t="n">
-        <v>6.56336124991072</v>
+        <v>6.80792664813847</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9.72100491650382</v>
+        <v>-5.08730645146903</v>
       </c>
       <c r="B175" t="n">
-        <v>10.6144404178593</v>
+        <v>-5.5280429268606</v>
       </c>
       <c r="C175" t="n">
-        <v>11.9413418454006</v>
+        <v>-5.54274799094094</v>
       </c>
       <c r="D175" t="n">
-        <v>11.9741229044934</v>
+        <v>-4.91868086696988</v>
       </c>
       <c r="E175" t="n">
-        <v>12.0752215228286</v>
+        <v>-3.92740684401327</v>
       </c>
       <c r="F175" t="n">
-        <v>11.8858332019797</v>
+        <v>-2.36506874554914</v>
       </c>
       <c r="G175" t="n">
-        <v>12.8443375463726</v>
+        <v>-1.20064563683708</v>
       </c>
       <c r="H175" t="n">
-        <v>11.6908269052086</v>
+        <v>1.08697866891222</v>
       </c>
       <c r="I175" t="n">
-        <v>11.4818453649215</v>
+        <v>3.77261157231365</v>
       </c>
       <c r="J175" t="n">
-        <v>11.4986695669583</v>
+        <v>6.81559052937539</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9.67883317596035</v>
+        <v>11.5860379480204</v>
       </c>
       <c r="B176" t="n">
-        <v>10.5154551109794</v>
+        <v>10.8438486159694</v>
       </c>
       <c r="C176" t="n">
-        <v>11.1379289488003</v>
+        <v>13.0121075355982</v>
       </c>
       <c r="D176" t="n">
-        <v>12.0203414653904</v>
+        <v>11.7997548259895</v>
       </c>
       <c r="E176" t="n">
-        <v>13.0510640455461</v>
+        <v>12.5108080578953</v>
       </c>
       <c r="F176" t="n">
-        <v>13.7202959763784</v>
+        <v>11.6530171770036</v>
       </c>
       <c r="G176" t="n">
-        <v>12.1465266425352</v>
+        <v>11.4824279104626</v>
       </c>
       <c r="H176" t="n">
-        <v>12.6342079841927</v>
+        <v>12.5874661433489</v>
       </c>
       <c r="I176" t="n">
-        <v>11.9206972443194</v>
+        <v>10.5312850788409</v>
       </c>
       <c r="J176" t="n">
-        <v>11.6460437619287</v>
+        <v>11.6907553654136</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>10.7968276946161</v>
+        <v>-5.1604990529886</v>
       </c>
       <c r="B177" t="n">
-        <v>9.97727538360476</v>
+        <v>-5.47737851550949</v>
       </c>
       <c r="C177" t="n">
-        <v>10.5547547925832</v>
+        <v>-4.8716454950086</v>
       </c>
       <c r="D177" t="n">
-        <v>10.5692346666565</v>
+        <v>-4.69713429279403</v>
       </c>
       <c r="E177" t="n">
-        <v>12.5040450632771</v>
+        <v>-3.71339915962832</v>
       </c>
       <c r="F177" t="n">
-        <v>11.8214440078272</v>
+        <v>-2.76455862226484</v>
       </c>
       <c r="G177" t="n">
-        <v>11.1316126025024</v>
+        <v>-0.602350791595241</v>
       </c>
       <c r="H177" t="n">
-        <v>11.960157193012</v>
+        <v>1.05334685776779</v>
       </c>
       <c r="I177" t="n">
-        <v>11.813481396624</v>
+        <v>3.19217141909886</v>
       </c>
       <c r="J177" t="n">
-        <v>9.94622151382346</v>
+        <v>6.60486891502514</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9.83381212989987</v>
+        <v>11.1503649572658</v>
       </c>
       <c r="B178" t="n">
-        <v>11.4157368148541</v>
+        <v>12.3518881837861</v>
       </c>
       <c r="C178" t="n">
-        <v>10.786319893432</v>
+        <v>11.2740000119983</v>
       </c>
       <c r="D178" t="n">
-        <v>12.5764999404578</v>
+        <v>12.0863322217352</v>
       </c>
       <c r="E178" t="n">
-        <v>12.166904101849</v>
+        <v>12.1871251223617</v>
       </c>
       <c r="F178" t="n">
-        <v>12.6190140044094</v>
+        <v>13.7623338847424</v>
       </c>
       <c r="G178" t="n">
-        <v>11.7622417614736</v>
+        <v>13.1503862807817</v>
       </c>
       <c r="H178" t="n">
-        <v>12.0828927345867</v>
+        <v>11.8629660686304</v>
       </c>
       <c r="I178" t="n">
-        <v>10.6021134271582</v>
+        <v>13.1110638880315</v>
       </c>
       <c r="J178" t="n">
-        <v>11.4706639276085</v>
+        <v>10.6881466053757</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>10.8088674351392</v>
+        <v>-5.03602044993086</v>
       </c>
       <c r="B179" t="n">
-        <v>10.1910361758658</v>
+        <v>-5.44517372063706</v>
       </c>
       <c r="C179" t="n">
-        <v>11.9047773676362</v>
+        <v>-5.24611242319732</v>
       </c>
       <c r="D179" t="n">
-        <v>13.4070635770785</v>
+        <v>-4.6535748738637</v>
       </c>
       <c r="E179" t="n">
-        <v>12.8676228919753</v>
+        <v>-4.33741442024396</v>
       </c>
       <c r="F179" t="n">
-        <v>12.482255497569</v>
+        <v>-2.50759677101187</v>
       </c>
       <c r="G179" t="n">
-        <v>12.6071321467661</v>
+        <v>-1.01002982878397</v>
       </c>
       <c r="H179" t="n">
-        <v>12.495741391759</v>
+        <v>1.37927522674867</v>
       </c>
       <c r="I179" t="n">
-        <v>11.5815284524322</v>
+        <v>3.86227580769136</v>
       </c>
       <c r="J179" t="n">
-        <v>11.7992750329637</v>
+        <v>6.72314060291097</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>10.3951483482953</v>
+        <v>10.423740984659</v>
       </c>
       <c r="B180" t="n">
-        <v>11.975849922234</v>
+        <v>10.4845286999303</v>
       </c>
       <c r="C180" t="n">
-        <v>12.4992814289003</v>
+        <v>13.6595119846284</v>
       </c>
       <c r="D180" t="n">
-        <v>12.3345017974251</v>
+        <v>11.8019017844571</v>
       </c>
       <c r="E180" t="n">
-        <v>11.4536448025915</v>
+        <v>11.9444863413752</v>
       </c>
       <c r="F180" t="n">
-        <v>11.945481108975</v>
+        <v>12.4785367577397</v>
       </c>
       <c r="G180" t="n">
-        <v>12.6560020524304</v>
+        <v>13.145381694397</v>
       </c>
       <c r="H180" t="n">
-        <v>12.4721046975746</v>
+        <v>11.8336672210033</v>
       </c>
       <c r="I180" t="n">
-        <v>11.5117782340793</v>
+        <v>11.508049076319</v>
       </c>
       <c r="J180" t="n">
-        <v>12.3467881244691</v>
+        <v>9.68700846984014</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>9.58482089447414</v>
+        <v>-5.05689882771016</v>
       </c>
       <c r="B181" t="n">
-        <v>10.2164706854399</v>
+        <v>-5.3664417201923</v>
       </c>
       <c r="C181" t="n">
-        <v>11.3997790190635</v>
+        <v>-4.97846171541546</v>
       </c>
       <c r="D181" t="n">
-        <v>12.1170238023533</v>
+        <v>-4.64419687700873</v>
       </c>
       <c r="E181" t="n">
-        <v>10.8698673152723</v>
+        <v>-3.59274765639156</v>
       </c>
       <c r="F181" t="n">
-        <v>11.6676541780952</v>
+        <v>-2.59107823070817</v>
       </c>
       <c r="G181" t="n">
-        <v>12.7779606774528</v>
+        <v>-1.01150552559245</v>
       </c>
       <c r="H181" t="n">
-        <v>12.7038092163791</v>
+        <v>1.60733961586189</v>
       </c>
       <c r="I181" t="n">
-        <v>12.1652927437213</v>
+        <v>4.21684255808079</v>
       </c>
       <c r="J181" t="n">
-        <v>10.6050390968647</v>
+        <v>6.63107027854067</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.1468231347031</v>
+        <v>9.83569227212457</v>
       </c>
       <c r="B182" t="n">
-        <v>12.1944441955009</v>
+        <v>10.4179060459082</v>
       </c>
       <c r="C182" t="n">
-        <v>11.3617152365302</v>
+        <v>10.8673009853526</v>
       </c>
       <c r="D182" t="n">
-        <v>11.4945191550996</v>
+        <v>12.1798921055473</v>
       </c>
       <c r="E182" t="n">
-        <v>12.0096345526489</v>
+        <v>13.2997559546884</v>
       </c>
       <c r="F182" t="n">
-        <v>12.7705580645938</v>
+        <v>12.990572401064</v>
       </c>
       <c r="G182" t="n">
-        <v>11.5602416881285</v>
+        <v>12.0101528550415</v>
       </c>
       <c r="H182" t="n">
-        <v>11.5263533122453</v>
+        <v>11.2058956507913</v>
       </c>
       <c r="I182" t="n">
-        <v>10.8394862464674</v>
+        <v>11.2219769218273</v>
       </c>
       <c r="J182" t="n">
-        <v>10.0085975596112</v>
+        <v>11.6029290201479</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9.40141763680649</v>
+        <v>10.6031011350071</v>
       </c>
       <c r="B183" t="n">
-        <v>9.80324083757022</v>
+        <v>9.62509394512024</v>
       </c>
       <c r="C183" t="n">
-        <v>11.0811205824535</v>
+        <v>10.2830225521055</v>
       </c>
       <c r="D183" t="n">
-        <v>11.7599402638515</v>
+        <v>11.6271306128674</v>
       </c>
       <c r="E183" t="n">
-        <v>13.0584504821448</v>
+        <v>12.8275136661488</v>
       </c>
       <c r="F183" t="n">
-        <v>12.4546393333114</v>
+        <v>12.0456327935587</v>
       </c>
       <c r="G183" t="n">
-        <v>13.212363624131</v>
+        <v>12.4602619870871</v>
       </c>
       <c r="H183" t="n">
-        <v>13.4292854468587</v>
+        <v>12.2087120822265</v>
       </c>
       <c r="I183" t="n">
-        <v>11.2943631233017</v>
+        <v>11.5987787367364</v>
       </c>
       <c r="J183" t="n">
-        <v>10.8614660375656</v>
+        <v>12.4681883810651</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-5.06651859185802</v>
+        <v>9.50237804267407</v>
       </c>
       <c r="B184" t="n">
-        <v>-5.39189467207723</v>
+        <v>11.2094092971435</v>
       </c>
       <c r="C184" t="n">
-        <v>-5.10724050734948</v>
+        <v>10.1906367800387</v>
       </c>
       <c r="D184" t="n">
-        <v>-4.66984246707234</v>
+        <v>11.7442753912632</v>
       </c>
       <c r="E184" t="n">
-        <v>-3.92586802485956</v>
+        <v>13.1071784539146</v>
       </c>
       <c r="F184" t="n">
-        <v>-2.59066893023155</v>
+        <v>12.8002033749845</v>
       </c>
       <c r="G184" t="n">
-        <v>-0.868155784211616</v>
+        <v>12.5277069535333</v>
       </c>
       <c r="H184" t="n">
-        <v>1.6444100062763</v>
+        <v>11.861687723394</v>
       </c>
       <c r="I184" t="n">
-        <v>3.76330976843919</v>
+        <v>11.2435682045394</v>
       </c>
       <c r="J184" t="n">
-        <v>6.74932031218544</v>
+        <v>10.6666080332683</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.3614931929833</v>
+        <v>10.0308240357451</v>
       </c>
       <c r="B185" t="n">
-        <v>10.2967616450813</v>
+        <v>10.6075676158777</v>
       </c>
       <c r="C185" t="n">
-        <v>11.7404740265722</v>
+        <v>11.3019395187793</v>
       </c>
       <c r="D185" t="n">
-        <v>13.0790657572955</v>
+        <v>13.3349677765494</v>
       </c>
       <c r="E185" t="n">
-        <v>13.4361975349419</v>
+        <v>13.2160322385424</v>
       </c>
       <c r="F185" t="n">
-        <v>12.6858625522253</v>
+        <v>12.8760995338227</v>
       </c>
       <c r="G185" t="n">
-        <v>12.1142102729965</v>
+        <v>12.5193973915811</v>
       </c>
       <c r="H185" t="n">
-        <v>13.9943210748256</v>
+        <v>13.1078355318462</v>
       </c>
       <c r="I185" t="n">
-        <v>11.5225357804493</v>
+        <v>11.6490240823375</v>
       </c>
       <c r="J185" t="n">
-        <v>10.7639115285628</v>
+        <v>12.1017872120688</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.39938510408814</v>
+        <v>10.2541846217138</v>
       </c>
       <c r="B186" t="n">
-        <v>11.9543279323132</v>
+        <v>11.1794823075537</v>
       </c>
       <c r="C186" t="n">
-        <v>11.7698239492507</v>
+        <v>12.129532688612</v>
       </c>
       <c r="D186" t="n">
-        <v>12.4885760524673</v>
+        <v>11.2341797545964</v>
       </c>
       <c r="E186" t="n">
-        <v>12.2508560336626</v>
+        <v>10.9585888325407</v>
       </c>
       <c r="F186" t="n">
-        <v>12.2368179099076</v>
+        <v>12.8715770567275</v>
       </c>
       <c r="G186" t="n">
-        <v>12.1145850213377</v>
+        <v>12.7249150117766</v>
       </c>
       <c r="H186" t="n">
-        <v>11.9222629010106</v>
+        <v>11.8018462087664</v>
       </c>
       <c r="I186" t="n">
-        <v>12.6611363051359</v>
+        <v>10.5075180398243</v>
       </c>
       <c r="J186" t="n">
-        <v>10.858159537932</v>
+        <v>11.1232417222321</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-4.98776775208772</v>
+        <v>10.497482511918</v>
       </c>
       <c r="B187" t="n">
-        <v>-5.65782411402486</v>
+        <v>10.02510131814</v>
       </c>
       <c r="C187" t="n">
-        <v>-4.55365041029693</v>
+        <v>12.5052863588619</v>
       </c>
       <c r="D187" t="n">
-        <v>-4.88681078200552</v>
+        <v>11.6337448293919</v>
       </c>
       <c r="E187" t="n">
-        <v>-4.07949986534008</v>
+        <v>11.9425050921968</v>
       </c>
       <c r="F187" t="n">
-        <v>-2.64144069220288</v>
+        <v>11.7588670255512</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.404495934119205</v>
+        <v>12.6453103840415</v>
       </c>
       <c r="H187" t="n">
-        <v>1.05895733163844</v>
+        <v>11.2565208511189</v>
       </c>
       <c r="I187" t="n">
-        <v>3.85690895215561</v>
+        <v>12.6539114096062</v>
       </c>
       <c r="J187" t="n">
-        <v>6.67787135382478</v>
+        <v>10.2859623126324</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-5.11640096270545</v>
+        <v>-4.8920694432421</v>
       </c>
       <c r="B188" t="n">
-        <v>-4.89871254030847</v>
+        <v>-5.38264585205576</v>
       </c>
       <c r="C188" t="n">
-        <v>-5.06646725726477</v>
+        <v>-5.30126616582535</v>
       </c>
       <c r="D188" t="n">
-        <v>-4.9247087512146</v>
+        <v>-4.66397537534979</v>
       </c>
       <c r="E188" t="n">
-        <v>-3.84341474047417</v>
+        <v>-3.40170139789005</v>
       </c>
       <c r="F188" t="n">
-        <v>-2.66385255068909</v>
+        <v>-2.07264026932221</v>
       </c>
       <c r="G188" t="n">
-        <v>-1.18108820076342</v>
+        <v>-0.738849449860751</v>
       </c>
       <c r="H188" t="n">
-        <v>1.09114179102617</v>
+        <v>1.36016311829981</v>
       </c>
       <c r="I188" t="n">
-        <v>3.47372949538279</v>
+        <v>4.07845608884486</v>
       </c>
       <c r="J188" t="n">
-        <v>6.29364436669982</v>
+        <v>6.59470086029808</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9.67138682398531</v>
+        <v>-4.79863472437102</v>
       </c>
       <c r="B189" t="n">
-        <v>10.2931671451343</v>
+        <v>-5.22554790569902</v>
       </c>
       <c r="C189" t="n">
-        <v>11.8173091656866</v>
+        <v>-5.13687629869178</v>
       </c>
       <c r="D189" t="n">
-        <v>11.7438437907632</v>
+        <v>-4.33205143488941</v>
       </c>
       <c r="E189" t="n">
-        <v>10.964045592761</v>
+        <v>-3.65203931738654</v>
       </c>
       <c r="F189" t="n">
-        <v>11.9890685989373</v>
+        <v>-2.88498752376684</v>
       </c>
       <c r="G189" t="n">
-        <v>13.4973865666501</v>
+        <v>-0.628106286863055</v>
       </c>
       <c r="H189" t="n">
-        <v>12.5054525585484</v>
+        <v>1.38086599825583</v>
       </c>
       <c r="I189" t="n">
-        <v>13.0078256682053</v>
+        <v>4.00112471058322</v>
       </c>
       <c r="J189" t="n">
-        <v>10.3150368061081</v>
+        <v>6.55624316561108</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>10.739412294342</v>
+        <v>9.72079915899113</v>
       </c>
       <c r="B190" t="n">
-        <v>10.9583278938429</v>
+        <v>10.536073469674</v>
       </c>
       <c r="C190" t="n">
-        <v>10.4465467836373</v>
+        <v>10.6939525594236</v>
       </c>
       <c r="D190" t="n">
-        <v>12.7984209623089</v>
+        <v>11.3290910863972</v>
       </c>
       <c r="E190" t="n">
-        <v>11.717128452068</v>
+        <v>12.2721778978834</v>
       </c>
       <c r="F190" t="n">
-        <v>12.0624687798467</v>
+        <v>12.2708345470206</v>
       </c>
       <c r="G190" t="n">
-        <v>13.1686343822906</v>
+        <v>12.7198981268353</v>
       </c>
       <c r="H190" t="n">
-        <v>11.2531987076405</v>
+        <v>11.6165889260268</v>
       </c>
       <c r="I190" t="n">
-        <v>11.2834016695258</v>
+        <v>12.2292219243762</v>
       </c>
       <c r="J190" t="n">
-        <v>11.3807592552578</v>
+        <v>11.282403704765</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>10.2957275389126</v>
+        <v>9.22307939092702</v>
       </c>
       <c r="B191" t="n">
-        <v>11.0482751744857</v>
+        <v>11.1631431136491</v>
       </c>
       <c r="C191" t="n">
-        <v>11.737051943313</v>
+        <v>11.1098752530502</v>
       </c>
       <c r="D191" t="n">
-        <v>10.852431238345</v>
+        <v>12.0837113174303</v>
       </c>
       <c r="E191" t="n">
-        <v>13.2254608961867</v>
+        <v>12.8214184052157</v>
       </c>
       <c r="F191" t="n">
-        <v>12.5335123803331</v>
+        <v>12.4520528646124</v>
       </c>
       <c r="G191" t="n">
-        <v>12.3931389953669</v>
+        <v>11.0152611844393</v>
       </c>
       <c r="H191" t="n">
-        <v>11.8858023250001</v>
+        <v>11.9680112776176</v>
       </c>
       <c r="I191" t="n">
-        <v>10.7740956571582</v>
+        <v>12.1210693163322</v>
       </c>
       <c r="J191" t="n">
-        <v>11.2541815664723</v>
+        <v>10.2009529367907</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>10.9840701747399</v>
+        <v>10.0668874039168</v>
       </c>
       <c r="B192" t="n">
-        <v>10.9113846552676</v>
+        <v>10.4351127840054</v>
       </c>
       <c r="C192" t="n">
-        <v>12.2589892039531</v>
+        <v>10.4571297613749</v>
       </c>
       <c r="D192" t="n">
-        <v>10.8095944689079</v>
+        <v>11.829700782687</v>
       </c>
       <c r="E192" t="n">
-        <v>12.9540464877036</v>
+        <v>14.6584876364074</v>
       </c>
       <c r="F192" t="n">
-        <v>12.3642670007647</v>
+        <v>12.4742975511816</v>
       </c>
       <c r="G192" t="n">
-        <v>12.0680028576459</v>
+        <v>12.1051776770834</v>
       </c>
       <c r="H192" t="n">
-        <v>12.2445287090362</v>
+        <v>11.0129586640996</v>
       </c>
       <c r="I192" t="n">
-        <v>11.4529406266941</v>
+        <v>11.7604073157382</v>
       </c>
       <c r="J192" t="n">
-        <v>11.8931074328451</v>
+        <v>9.02122480646957</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>9.34707156332419</v>
+        <v>10.8748111834377</v>
       </c>
       <c r="B193" t="n">
-        <v>10.9653501285044</v>
+        <v>12.8130934837574</v>
       </c>
       <c r="C193" t="n">
-        <v>10.4678517949821</v>
+        <v>10.615367678078</v>
       </c>
       <c r="D193" t="n">
-        <v>11.511352839656</v>
+        <v>12.2081093348387</v>
       </c>
       <c r="E193" t="n">
-        <v>12.1298364784555</v>
+        <v>10.7331761188234</v>
       </c>
       <c r="F193" t="n">
-        <v>12.3365080692096</v>
+        <v>14.0241685831038</v>
       </c>
       <c r="G193" t="n">
-        <v>12.7448057547881</v>
+        <v>12.7233775493773</v>
       </c>
       <c r="H193" t="n">
-        <v>12.880261295859</v>
+        <v>11.8335265157653</v>
       </c>
       <c r="I193" t="n">
-        <v>12.5341157317527</v>
+        <v>12.0030637833652</v>
       </c>
       <c r="J193" t="n">
-        <v>10.3695017825283</v>
+        <v>11.6683936590837</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>10.7951628741323</v>
+        <v>10.8927204634903</v>
       </c>
       <c r="B194" t="n">
-        <v>10.6297125654495</v>
+        <v>10.0889036139545</v>
       </c>
       <c r="C194" t="n">
-        <v>11.8741996722999</v>
+        <v>12.4098213305632</v>
       </c>
       <c r="D194" t="n">
-        <v>12.6553191029655</v>
+        <v>11.0957562863278</v>
       </c>
       <c r="E194" t="n">
-        <v>12.1004906052511</v>
+        <v>12.1564117961245</v>
       </c>
       <c r="F194" t="n">
-        <v>12.1877327068772</v>
+        <v>11.639305584567</v>
       </c>
       <c r="G194" t="n">
-        <v>13.7737106746178</v>
+        <v>12.1114468226501</v>
       </c>
       <c r="H194" t="n">
-        <v>12.8941863492697</v>
+        <v>12.4813836956523</v>
       </c>
       <c r="I194" t="n">
-        <v>12.7053806106234</v>
+        <v>13.5471176121323</v>
       </c>
       <c r="J194" t="n">
-        <v>10.6758429618224</v>
+        <v>10.8430845345742</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-4.82882863878582</v>
+        <v>11.0957406496281</v>
       </c>
       <c r="B195" t="n">
-        <v>-5.28759489004639</v>
+        <v>11.5787399623303</v>
       </c>
       <c r="C195" t="n">
-        <v>-4.68238255442509</v>
+        <v>10.1074771673523</v>
       </c>
       <c r="D195" t="n">
-        <v>-4.93898460711346</v>
+        <v>12.3776181982753</v>
       </c>
       <c r="E195" t="n">
-        <v>-3.78150477487223</v>
+        <v>12.9702936642023</v>
       </c>
       <c r="F195" t="n">
-        <v>-2.12380725020346</v>
+        <v>13.0911551989231</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.961280800364311</v>
+        <v>11.5644531352158</v>
       </c>
       <c r="H195" t="n">
-        <v>1.61677620123771</v>
+        <v>12.7623006869566</v>
       </c>
       <c r="I195" t="n">
-        <v>3.37532125749071</v>
+        <v>10.3471488669841</v>
       </c>
       <c r="J195" t="n">
-        <v>6.45135416774094</v>
+        <v>10.6164702857779</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-5.30413700794198</v>
+        <v>-5.02821295874185</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.60178541565305</v>
+        <v>-5.34486988404332</v>
       </c>
       <c r="C196" t="n">
-        <v>-5.23969146831162</v>
+        <v>-5.09837480841252</v>
       </c>
       <c r="D196" t="n">
-        <v>-4.60706932697793</v>
+        <v>-4.93028256280858</v>
       </c>
       <c r="E196" t="n">
-        <v>-3.98547852614228</v>
+        <v>-3.96053100102897</v>
       </c>
       <c r="F196" t="n">
-        <v>-2.19188387406562</v>
+        <v>-2.567066843962</v>
       </c>
       <c r="G196" t="n">
-        <v>-0.476471326074162</v>
+        <v>-0.854241400472298</v>
       </c>
       <c r="H196" t="n">
-        <v>0.762594178685821</v>
+        <v>1.07442509371968</v>
       </c>
       <c r="I196" t="n">
-        <v>3.92670368138531</v>
+        <v>3.2291570685016</v>
       </c>
       <c r="J196" t="n">
-        <v>7.11623906435668</v>
+        <v>6.47585923295602</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.3185715518913</v>
+        <v>-4.77900699963867</v>
       </c>
       <c r="B197" t="n">
-        <v>10.7494768797281</v>
+        <v>-5.16164074262647</v>
       </c>
       <c r="C197" t="n">
-        <v>11.3233032162018</v>
+        <v>-5.53944117767474</v>
       </c>
       <c r="D197" t="n">
-        <v>11.3059550375006</v>
+        <v>-4.61669758559741</v>
       </c>
       <c r="E197" t="n">
-        <v>12.6067075056288</v>
+        <v>-3.48176382345026</v>
       </c>
       <c r="F197" t="n">
-        <v>11.1497732858188</v>
+        <v>-2.58876314111648</v>
       </c>
       <c r="G197" t="n">
-        <v>12.8884934031027</v>
+        <v>-0.391064613102343</v>
       </c>
       <c r="H197" t="n">
-        <v>11.0461693489822</v>
+        <v>1.41717443296661</v>
       </c>
       <c r="I197" t="n">
-        <v>12.9091711046619</v>
+        <v>3.42244979018353</v>
       </c>
       <c r="J197" t="n">
-        <v>10.6185031575854</v>
+        <v>6.8987816990664</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-5.44119609775482</v>
+        <v>-4.52935447503081</v>
       </c>
       <c r="B198" t="n">
-        <v>-5.13770148535168</v>
+        <v>-5.21903148842312</v>
       </c>
       <c r="C198" t="n">
-        <v>-5.08383868541185</v>
+        <v>-5.18887381772088</v>
       </c>
       <c r="D198" t="n">
-        <v>-4.44365968470135</v>
+        <v>-5.17761078672933</v>
       </c>
       <c r="E198" t="n">
-        <v>-3.79899716181198</v>
+        <v>-3.87992186634464</v>
       </c>
       <c r="F198" t="n">
-        <v>-2.49869673176078</v>
+        <v>-2.13310458076766</v>
       </c>
       <c r="G198" t="n">
-        <v>-0.822456980551737</v>
+        <v>-0.841239649714784</v>
       </c>
       <c r="H198" t="n">
-        <v>0.994817719965604</v>
+        <v>1.20101147236193</v>
       </c>
       <c r="I198" t="n">
-        <v>3.84957685642768</v>
+        <v>4.05160481973367</v>
       </c>
       <c r="J198" t="n">
-        <v>6.71247990404524</v>
+        <v>6.81697160346809</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>10.9352927345584</v>
+        <v>-4.98295250027002</v>
       </c>
       <c r="B199" t="n">
-        <v>11.785731714681</v>
+        <v>-5.18145552847725</v>
       </c>
       <c r="C199" t="n">
-        <v>11.6473786309092</v>
+        <v>-4.89877174000292</v>
       </c>
       <c r="D199" t="n">
-        <v>12.5413763292904</v>
+        <v>-4.55071526257607</v>
       </c>
       <c r="E199" t="n">
-        <v>11.9877055916872</v>
+        <v>-4.25468614325382</v>
       </c>
       <c r="F199" t="n">
-        <v>11.8431160570614</v>
+        <v>-2.43152565630639</v>
       </c>
       <c r="G199" t="n">
-        <v>12.7278388807846</v>
+        <v>-1.09734772379724</v>
       </c>
       <c r="H199" t="n">
-        <v>13.2791703826331</v>
+        <v>1.59663166404258</v>
       </c>
       <c r="I199" t="n">
-        <v>11.5361364554937</v>
+        <v>3.2408952918649</v>
       </c>
       <c r="J199" t="n">
-        <v>11.3172779433677</v>
+        <v>7.09293266301215</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.10826340928053</v>
+        <v>-5.29706432003924</v>
       </c>
       <c r="B200" t="n">
-        <v>9.78933144928481</v>
+        <v>-4.96748162512881</v>
       </c>
       <c r="C200" t="n">
-        <v>11.6854245190072</v>
+        <v>-5.15021938547063</v>
       </c>
       <c r="D200" t="n">
-        <v>11.9187448829622</v>
+        <v>-4.70957087506518</v>
       </c>
       <c r="E200" t="n">
-        <v>13.1117557037166</v>
+        <v>-3.48017623845299</v>
       </c>
       <c r="F200" t="n">
-        <v>13.3198955776067</v>
+        <v>-2.57458741360869</v>
       </c>
       <c r="G200" t="n">
-        <v>12.0163796466488</v>
+        <v>-0.892111573767605</v>
       </c>
       <c r="H200" t="n">
-        <v>12.9396531456197</v>
+        <v>0.947966031752254</v>
       </c>
       <c r="I200" t="n">
-        <v>10.2688867840748</v>
+        <v>3.84317949697597</v>
       </c>
       <c r="J200" t="n">
-        <v>11.1044441344701</v>
+        <v>6.67261643601832</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-5.0886251128781</v>
+        <v>8.31320738651408</v>
       </c>
       <c r="B201" t="n">
-        <v>-5.32573126588993</v>
+        <v>12.2259502531549</v>
       </c>
       <c r="C201" t="n">
-        <v>-5.51943247946452</v>
+        <v>11.1347590616048</v>
       </c>
       <c r="D201" t="n">
-        <v>-4.9198947674657</v>
+        <v>11.762705971029</v>
       </c>
       <c r="E201" t="n">
-        <v>-3.90481719533355</v>
+        <v>13.7584989186855</v>
       </c>
       <c r="F201" t="n">
-        <v>-2.3535775230908</v>
+        <v>11.5407822148463</v>
       </c>
       <c r="G201" t="n">
-        <v>-0.845685878192371</v>
+        <v>12.2725365482068</v>
       </c>
       <c r="H201" t="n">
-        <v>1.13068205671051</v>
+        <v>11.2497571419952</v>
       </c>
       <c r="I201" t="n">
-        <v>4.12617566287424</v>
+        <v>11.8365199490248</v>
       </c>
       <c r="J201" t="n">
-        <v>6.63808695886448</v>
+        <v>10.945704754395</v>
       </c>
     </row>
   </sheetData>
